--- a/src/assets/menu/menu.xlsx
+++ b/src/assets/menu/menu.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tree-soup\Coding\js\sushi-ai\src\assets\menu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C66FBC-E7FC-426C-BE39-40C1ECCECFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Dishes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Categories" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="LunchAll" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="DinnerAll" sheetId="4" r:id="rId7"/>
+    <sheet name="Dishes" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="LunchAll" sheetId="3" r:id="rId3"/>
+    <sheet name="DinnerAll" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1300,85 +1309,81 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1568,27 +1573,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="2" max="2" width="20.57"/>
-    <col customWidth="1" min="3" max="3" width="32.43"/>
-    <col customWidth="1" min="4" max="4" width="12.43"/>
-    <col customWidth="1" min="5" max="5" width="62.14"/>
+    <col min="1" max="1" width="6.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.53125" customWidth="1"/>
+    <col min="3" max="3" width="32.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="62.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,9 +1615,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1616,15 +1626,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1639,9 +1649,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1650,12 +1660,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>8.95</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1667,9 +1677,9 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1681,9 +1691,9 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1695,9 +1705,9 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1709,9 +1719,9 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1723,9 +1733,9 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1737,9 +1747,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -1748,15 +1758,15 @@
         <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>8.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -1771,9 +1781,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -1782,12 +1792,12 @@
         <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -1796,15 +1806,15 @@
         <v>23</v>
       </c>
       <c r="D14" s="2">
-        <v>5.45</v>
+        <v>7.95</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -1813,12 +1823,12 @@
         <v>25</v>
       </c>
       <c r="D15" s="2">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -1827,15 +1837,15 @@
         <v>26</v>
       </c>
       <c r="D16" s="2">
-        <v>4.95</v>
+        <v>6.95</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1844,15 +1854,15 @@
         <v>28</v>
       </c>
       <c r="D17" s="2">
-        <v>4.95</v>
+        <v>6.95</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -1861,15 +1871,15 @@
         <v>30</v>
       </c>
       <c r="D18" s="2">
-        <v>5.95</v>
+        <v>6.95</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -1884,9 +1894,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -1895,15 +1905,15 @@
         <v>34</v>
       </c>
       <c r="D20" s="2">
-        <v>6.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -1912,12 +1922,12 @@
         <v>36</v>
       </c>
       <c r="D21" s="2">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -1926,12 +1936,12 @@
         <v>37</v>
       </c>
       <c r="D22" s="2">
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -1943,9 +1953,9 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
@@ -1954,15 +1964,15 @@
         <v>39</v>
       </c>
       <c r="D24" s="2">
-        <v>9.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>41</v>
@@ -1977,9 +1987,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
@@ -1994,9 +2004,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
@@ -2008,9 +2018,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
@@ -2022,9 +2032,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>41</v>
@@ -2039,9 +2049,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
@@ -2056,9 +2066,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>41</v>
@@ -2073,9 +2083,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
@@ -2090,9 +2100,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
@@ -2107,9 +2117,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
@@ -2124,9 +2134,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>41</v>
@@ -2141,9 +2151,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
@@ -2158,9 +2168,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
@@ -2175,9 +2185,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
@@ -2192,9 +2202,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>41</v>
@@ -2206,9 +2216,9 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
@@ -2223,9 +2233,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -2240,9 +2250,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -2254,9 +2264,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -2268,9 +2278,9 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
@@ -2282,9 +2292,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
@@ -2296,9 +2306,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
@@ -2310,9 +2320,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -2324,9 +2334,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
@@ -2338,9 +2348,9 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>79</v>
@@ -2355,9 +2365,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>79</v>
@@ -2372,9 +2382,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>79</v>
@@ -2389,9 +2399,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>79</v>
@@ -2406,9 +2416,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>79</v>
@@ -2423,9 +2433,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>79</v>
@@ -2440,9 +2450,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>79</v>
@@ -2457,9 +2467,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>79</v>
@@ -2468,15 +2478,15 @@
         <v>94</v>
       </c>
       <c r="D56" s="2">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>79</v>
@@ -2491,9 +2501,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>79</v>
@@ -2505,9 +2515,9 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>79</v>
@@ -2519,9 +2529,9 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>79</v>
@@ -2536,9 +2546,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>79</v>
@@ -2553,9 +2563,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>79</v>
@@ -2570,9 +2580,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>79</v>
@@ -2584,9 +2594,9 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>79</v>
@@ -2601,9 +2611,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>79</v>
@@ -2615,9 +2625,9 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>79</v>
@@ -2632,9 +2642,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>79</v>
@@ -2649,9 +2659,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>79</v>
@@ -2663,9 +2673,9 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>79</v>
@@ -2677,9 +2687,9 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>79</v>
@@ -2694,9 +2704,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>79</v>
@@ -2708,9 +2718,9 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>79</v>
@@ -2725,9 +2735,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>79</v>
@@ -2742,9 +2752,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>79</v>
@@ -2759,9 +2769,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>79</v>
@@ -2776,9 +2786,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>79</v>
@@ -2787,15 +2797,15 @@
         <v>127</v>
       </c>
       <c r="D76" s="2">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>79</v>
@@ -2810,9 +2820,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>79</v>
@@ -2827,9 +2837,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
@@ -2844,9 +2854,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
@@ -2861,9 +2871,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>137</v>
@@ -2875,9 +2885,9 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>137</v>
@@ -2889,9 +2899,9 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>137</v>
@@ -2903,9 +2913,9 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>137</v>
@@ -2917,9 +2927,9 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>137</v>
@@ -2931,9 +2941,9 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>137</v>
@@ -2948,9 +2958,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>137</v>
@@ -2962,9 +2972,9 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>137</v>
@@ -2979,9 +2989,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>137</v>
@@ -2993,9 +3003,9 @@
         <v>24.95</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>137</v>
@@ -3010,9 +3020,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>148</v>
@@ -3027,9 +3037,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>148</v>
@@ -3044,9 +3054,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>148</v>
@@ -3061,9 +3071,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>148</v>
@@ -3078,9 +3088,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>148</v>
@@ -3095,9 +3105,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>148</v>
@@ -3112,9 +3122,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>148</v>
@@ -3123,15 +3133,15 @@
         <v>161</v>
       </c>
       <c r="D97" s="2">
-        <v>2395.0</v>
+        <v>2395</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>148</v>
@@ -3146,9 +3156,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>165</v>
@@ -3160,9 +3170,9 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>165</v>
@@ -3174,9 +3184,9 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>165</v>
@@ -3188,9 +3198,9 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>165</v>
@@ -3202,9 +3212,9 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>170</v>
@@ -3216,9 +3226,9 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>170</v>
@@ -3230,9 +3240,9 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>170</v>
@@ -3244,9 +3254,9 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>170</v>
@@ -3255,12 +3265,12 @@
         <v>142</v>
       </c>
       <c r="D106" s="2">
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>170</v>
@@ -3272,9 +3282,9 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>170</v>
@@ -3286,9 +3296,9 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>174</v>
@@ -3300,9 +3310,9 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>174</v>
@@ -3314,9 +3324,9 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>174</v>
@@ -3328,9 +3338,9 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>178</v>
@@ -3345,9 +3355,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>178</v>
@@ -3356,15 +3366,15 @@
         <v>181</v>
       </c>
       <c r="D113" s="2">
-        <v>38.95</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>178</v>
@@ -3379,9 +3389,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>185</v>
@@ -3390,12 +3400,12 @@
         <v>186</v>
       </c>
       <c r="D115" s="2">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>185</v>
@@ -3404,12 +3414,12 @@
         <v>187</v>
       </c>
       <c r="D116" s="2">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>185</v>
@@ -3418,12 +3428,12 @@
         <v>188</v>
       </c>
       <c r="D117" s="2">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>185</v>
@@ -3432,12 +3442,12 @@
         <v>189</v>
       </c>
       <c r="D118" s="2">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>185</v>
@@ -3446,12 +3456,12 @@
         <v>30</v>
       </c>
       <c r="D119" s="2">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>185</v>
@@ -3460,12 +3470,12 @@
         <v>175</v>
       </c>
       <c r="D120" s="2">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>185</v>
@@ -3474,12 +3484,12 @@
         <v>177</v>
       </c>
       <c r="D121" s="2">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>190</v>
@@ -3488,12 +3498,12 @@
         <v>191</v>
       </c>
       <c r="D122" s="2">
-        <v>8.95</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>190</v>
@@ -3502,12 +3512,12 @@
         <v>166</v>
       </c>
       <c r="D123" s="2">
-        <v>8.95</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>190</v>
@@ -3516,12 +3526,12 @@
         <v>192</v>
       </c>
       <c r="D124" s="2">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>190</v>
@@ -3530,12 +3540,12 @@
         <v>167</v>
       </c>
       <c r="D125" s="2">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>190</v>
@@ -3544,12 +3554,12 @@
         <v>193</v>
       </c>
       <c r="D126" s="2">
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>190</v>
@@ -3558,12 +3568,12 @@
         <v>168</v>
       </c>
       <c r="D127" s="2">
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>190</v>
@@ -3572,12 +3582,12 @@
         <v>194</v>
       </c>
       <c r="D128" s="2">
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>190</v>
@@ -3586,12 +3596,12 @@
         <v>169</v>
       </c>
       <c r="D129" s="2">
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>190</v>
@@ -3600,12 +3610,12 @@
         <v>195</v>
       </c>
       <c r="D130" s="2">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>190</v>
@@ -3614,12 +3624,12 @@
         <v>196</v>
       </c>
       <c r="D131" s="2">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>190</v>
@@ -3628,12 +3638,12 @@
         <v>197</v>
       </c>
       <c r="D132" s="2">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>190</v>
@@ -3642,12 +3652,12 @@
         <v>198</v>
       </c>
       <c r="D133" s="2">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>190</v>
@@ -3656,15 +3666,15 @@
         <v>199</v>
       </c>
       <c r="D134" s="2">
-        <v>12.95</v>
+        <v>13.95</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>190</v>
@@ -3673,12 +3683,12 @@
         <v>30</v>
       </c>
       <c r="D135" s="2">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>190</v>
@@ -3686,13 +3696,13 @@
       <c r="C136" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D136" s="2">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="D136" s="6">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>190</v>
@@ -3700,13 +3710,13 @@
       <c r="C137" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D137" s="2">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="D137" s="6">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>190</v>
@@ -3714,13 +3724,13 @@
       <c r="C138" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D138" s="2">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="D138" s="6">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>201</v>
@@ -3729,12 +3739,12 @@
         <v>202</v>
       </c>
       <c r="D139" s="2">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>201</v>
@@ -3743,15 +3753,15 @@
         <v>203</v>
       </c>
       <c r="D140" s="2">
-        <v>4.95</v>
+        <v>5.95</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>201</v>
@@ -3766,9 +3776,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>201</v>
@@ -3777,15 +3787,15 @@
         <v>207</v>
       </c>
       <c r="D142" s="2">
-        <v>3.95</v>
+        <v>4.95</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>209</v>
@@ -3797,9 +3807,9 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>209</v>
@@ -3811,9 +3821,9 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>209</v>
@@ -3825,9 +3835,9 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>209</v>
@@ -3839,9 +3849,9 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>209</v>
@@ -3853,9 +3863,9 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>209</v>
@@ -3867,9 +3877,9 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>209</v>
@@ -3881,9 +3891,9 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>209</v>
@@ -3895,9 +3905,9 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>209</v>
@@ -3909,9 +3919,9 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>209</v>
@@ -3923,9 +3933,9 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>209</v>
@@ -3940,9 +3950,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>209</v>
@@ -3954,9 +3964,9 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>209</v>
@@ -3968,9 +3978,9 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>210</v>
@@ -3979,12 +3989,12 @@
         <v>142</v>
       </c>
       <c r="D156" s="2">
-        <v>8.95</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>210</v>
@@ -3993,12 +4003,12 @@
         <v>138</v>
       </c>
       <c r="D157" s="2">
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>210</v>
@@ -4010,9 +4020,9 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>210</v>
@@ -4024,9 +4034,9 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>210</v>
@@ -4038,9 +4048,9 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>212</v>
@@ -4052,9 +4062,9 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>212</v>
@@ -4066,9 +4076,9 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>212</v>
@@ -4080,9 +4090,9 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>212</v>
@@ -4094,9 +4104,9 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>212</v>
@@ -4108,9 +4118,9 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>212</v>
@@ -4122,9 +4132,9 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>214</v>
@@ -4139,9 +4149,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>214</v>
@@ -4156,9 +4166,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>214</v>
@@ -4173,9 +4183,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>214</v>
@@ -4190,9 +4200,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>214</v>
@@ -4207,9 +4217,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>214</v>
@@ -4224,9 +4234,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>214</v>
@@ -4241,9 +4251,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>214</v>
@@ -4258,9 +4268,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>214</v>
@@ -4275,9 +4285,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>214</v>
@@ -4292,9 +4302,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>214</v>
@@ -4309,9 +4319,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>214</v>
@@ -4326,9 +4336,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>214</v>
@@ -4343,9 +4353,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>214</v>
@@ -4360,9 +4370,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>214</v>
@@ -4377,9 +4387,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>214</v>
@@ -4394,9 +4404,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>214</v>
@@ -4411,9 +4421,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>214</v>
@@ -4428,9 +4438,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>214</v>
@@ -4445,9 +4455,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>214</v>
@@ -4462,9 +4472,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>214</v>
@@ -4479,9 +4489,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>214</v>
@@ -4496,9 +4506,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>214</v>
@@ -4513,9 +4523,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>214</v>
@@ -4530,9 +4540,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>214</v>
@@ -4547,9 +4557,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>264</v>
@@ -4558,15 +4568,15 @@
         <v>265</v>
       </c>
       <c r="D192" s="2">
-        <v>9.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>264</v>
@@ -4581,9 +4591,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>264</v>
@@ -4598,9 +4608,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>264</v>
@@ -4615,9 +4625,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>264</v>
@@ -4632,9 +4642,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>264</v>
@@ -4649,9 +4659,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>264</v>
@@ -4666,9 +4676,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>264</v>
@@ -4683,9 +4693,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>264</v>
@@ -4700,9 +4710,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>264</v>
@@ -4717,9 +4727,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>264</v>
@@ -4734,9 +4744,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>264</v>
@@ -4751,9 +4761,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>264</v>
@@ -4768,2446 +4778,2447 @@
         <v>290</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D205" s="6"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D206" s="6"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D207" s="6"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D208" s="6"/>
     </row>
-    <row r="209">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D209" s="6"/>
     </row>
-    <row r="210">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D210" s="6"/>
     </row>
-    <row r="211">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D211" s="6"/>
     </row>
-    <row r="212">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D212" s="6"/>
     </row>
-    <row r="213">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D213" s="6"/>
     </row>
-    <row r="214">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D214" s="6"/>
     </row>
-    <row r="215">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D215" s="6"/>
     </row>
-    <row r="216">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D216" s="6"/>
     </row>
-    <row r="217">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D217" s="6"/>
     </row>
-    <row r="218">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D218" s="6"/>
     </row>
-    <row r="219">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D219" s="6"/>
     </row>
-    <row r="220">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D220" s="6"/>
     </row>
-    <row r="221">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D221" s="6"/>
     </row>
-    <row r="222">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D222" s="6"/>
     </row>
-    <row r="223">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D223" s="6"/>
     </row>
-    <row r="224">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D224" s="6"/>
     </row>
-    <row r="225">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D225" s="6"/>
     </row>
-    <row r="226">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D226" s="6"/>
     </row>
-    <row r="227">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D227" s="6"/>
     </row>
-    <row r="228">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D228" s="6"/>
     </row>
-    <row r="229">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D229" s="6"/>
     </row>
-    <row r="230">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D230" s="6"/>
     </row>
-    <row r="231">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D231" s="6"/>
     </row>
-    <row r="232">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D232" s="6"/>
     </row>
-    <row r="233">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D233" s="6"/>
     </row>
-    <row r="234">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D234" s="6"/>
     </row>
-    <row r="235">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D235" s="6"/>
     </row>
-    <row r="236">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D236" s="6"/>
     </row>
-    <row r="237">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D237" s="6"/>
     </row>
-    <row r="238">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D238" s="6"/>
     </row>
-    <row r="239">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D239" s="6"/>
     </row>
-    <row r="240">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D240" s="6"/>
     </row>
-    <row r="241">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D241" s="6"/>
     </row>
-    <row r="242">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D242" s="6"/>
     </row>
-    <row r="243">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D243" s="6"/>
     </row>
-    <row r="244">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D244" s="6"/>
     </row>
-    <row r="245">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D245" s="6"/>
     </row>
-    <row r="246">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D246" s="6"/>
     </row>
-    <row r="247">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D247" s="6"/>
     </row>
-    <row r="248">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D248" s="6"/>
     </row>
-    <row r="249">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D249" s="6"/>
     </row>
-    <row r="250">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D250" s="6"/>
     </row>
-    <row r="251">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D251" s="6"/>
     </row>
-    <row r="252">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D252" s="6"/>
     </row>
-    <row r="253">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D253" s="6"/>
     </row>
-    <row r="254">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D254" s="6"/>
     </row>
-    <row r="255">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D255" s="6"/>
     </row>
-    <row r="256">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D256" s="6"/>
     </row>
-    <row r="257">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D257" s="6"/>
     </row>
-    <row r="258">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D258" s="6"/>
     </row>
-    <row r="259">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D259" s="6"/>
     </row>
-    <row r="260">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D260" s="6"/>
     </row>
-    <row r="261">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D261" s="6"/>
     </row>
-    <row r="262">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D262" s="6"/>
     </row>
-    <row r="263">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D263" s="6"/>
     </row>
-    <row r="264">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D264" s="6"/>
     </row>
-    <row r="265">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D265" s="6"/>
     </row>
-    <row r="266">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D266" s="6"/>
     </row>
-    <row r="267">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D267" s="6"/>
     </row>
-    <row r="268">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D268" s="6"/>
     </row>
-    <row r="269">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D269" s="6"/>
     </row>
-    <row r="270">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D270" s="6"/>
     </row>
-    <row r="271">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D271" s="6"/>
     </row>
-    <row r="272">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D272" s="6"/>
     </row>
-    <row r="273">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D273" s="6"/>
     </row>
-    <row r="274">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D274" s="6"/>
     </row>
-    <row r="275">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D275" s="6"/>
     </row>
-    <row r="276">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D276" s="6"/>
     </row>
-    <row r="277">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D277" s="6"/>
     </row>
-    <row r="278">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D278" s="6"/>
     </row>
-    <row r="279">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D279" s="6"/>
     </row>
-    <row r="280">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D280" s="6"/>
     </row>
-    <row r="281">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D281" s="6"/>
     </row>
-    <row r="282">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D282" s="6"/>
     </row>
-    <row r="283">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D283" s="6"/>
     </row>
-    <row r="284">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D284" s="6"/>
     </row>
-    <row r="285">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D285" s="6"/>
     </row>
-    <row r="286">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D286" s="6"/>
     </row>
-    <row r="287">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D287" s="6"/>
     </row>
-    <row r="288">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D288" s="6"/>
     </row>
-    <row r="289">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D289" s="6"/>
     </row>
-    <row r="290">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D290" s="6"/>
     </row>
-    <row r="291">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D291" s="6"/>
     </row>
-    <row r="292">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D292" s="6"/>
     </row>
-    <row r="293">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D293" s="6"/>
     </row>
-    <row r="294">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D294" s="6"/>
     </row>
-    <row r="295">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D295" s="6"/>
     </row>
-    <row r="296">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D296" s="6"/>
     </row>
-    <row r="297">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D297" s="6"/>
     </row>
-    <row r="298">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D298" s="6"/>
     </row>
-    <row r="299">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D299" s="6"/>
     </row>
-    <row r="300">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D300" s="6"/>
     </row>
-    <row r="301">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D301" s="6"/>
     </row>
-    <row r="302">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D302" s="6"/>
     </row>
-    <row r="303">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D303" s="6"/>
     </row>
-    <row r="304">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D304" s="6"/>
     </row>
-    <row r="305">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D305" s="6"/>
     </row>
-    <row r="306">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D306" s="6"/>
     </row>
-    <row r="307">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D307" s="6"/>
     </row>
-    <row r="308">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D308" s="6"/>
     </row>
-    <row r="309">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D309" s="6"/>
     </row>
-    <row r="310">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D310" s="6"/>
     </row>
-    <row r="311">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D311" s="6"/>
     </row>
-    <row r="312">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D312" s="6"/>
     </row>
-    <row r="313">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D313" s="6"/>
     </row>
-    <row r="314">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D314" s="6"/>
     </row>
-    <row r="315">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D315" s="6"/>
     </row>
-    <row r="316">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D316" s="6"/>
     </row>
-    <row r="317">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D317" s="6"/>
     </row>
-    <row r="318">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D318" s="6"/>
     </row>
-    <row r="319">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D319" s="6"/>
     </row>
-    <row r="320">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D320" s="6"/>
     </row>
-    <row r="321">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D321" s="6"/>
     </row>
-    <row r="322">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D322" s="6"/>
     </row>
-    <row r="323">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D323" s="6"/>
     </row>
-    <row r="324">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D324" s="6"/>
     </row>
-    <row r="325">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D325" s="6"/>
     </row>
-    <row r="326">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D326" s="6"/>
     </row>
-    <row r="327">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D327" s="6"/>
     </row>
-    <row r="328">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D328" s="6"/>
     </row>
-    <row r="329">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D329" s="6"/>
     </row>
-    <row r="330">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D330" s="6"/>
     </row>
-    <row r="331">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D331" s="6"/>
     </row>
-    <row r="332">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D332" s="6"/>
     </row>
-    <row r="333">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D333" s="6"/>
     </row>
-    <row r="334">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D334" s="6"/>
     </row>
-    <row r="335">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D335" s="6"/>
     </row>
-    <row r="336">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D336" s="6"/>
     </row>
-    <row r="337">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D337" s="6"/>
     </row>
-    <row r="338">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D338" s="6"/>
     </row>
-    <row r="339">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D339" s="6"/>
     </row>
-    <row r="340">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D340" s="6"/>
     </row>
-    <row r="341">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D341" s="6"/>
     </row>
-    <row r="342">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D342" s="6"/>
     </row>
-    <row r="343">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D343" s="6"/>
     </row>
-    <row r="344">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D344" s="6"/>
     </row>
-    <row r="345">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D345" s="6"/>
     </row>
-    <row r="346">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D346" s="6"/>
     </row>
-    <row r="347">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D347" s="6"/>
     </row>
-    <row r="348">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D348" s="6"/>
     </row>
-    <row r="349">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D349" s="6"/>
     </row>
-    <row r="350">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D350" s="6"/>
     </row>
-    <row r="351">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D351" s="6"/>
     </row>
-    <row r="352">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D352" s="6"/>
     </row>
-    <row r="353">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D353" s="6"/>
     </row>
-    <row r="354">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D354" s="6"/>
     </row>
-    <row r="355">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D355" s="6"/>
     </row>
-    <row r="356">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D356" s="6"/>
     </row>
-    <row r="357">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D357" s="6"/>
     </row>
-    <row r="358">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D358" s="6"/>
     </row>
-    <row r="359">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D359" s="6"/>
     </row>
-    <row r="360">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D360" s="6"/>
     </row>
-    <row r="361">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D361" s="6"/>
     </row>
-    <row r="362">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D362" s="6"/>
     </row>
-    <row r="363">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D363" s="6"/>
     </row>
-    <row r="364">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D364" s="6"/>
     </row>
-    <row r="365">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D365" s="6"/>
     </row>
-    <row r="366">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D366" s="6"/>
     </row>
-    <row r="367">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D367" s="6"/>
     </row>
-    <row r="368">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D368" s="6"/>
     </row>
-    <row r="369">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D369" s="6"/>
     </row>
-    <row r="370">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D370" s="6"/>
     </row>
-    <row r="371">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D371" s="6"/>
     </row>
-    <row r="372">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D372" s="6"/>
     </row>
-    <row r="373">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D373" s="6"/>
     </row>
-    <row r="374">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D374" s="6"/>
     </row>
-    <row r="375">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D375" s="6"/>
     </row>
-    <row r="376">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D376" s="6"/>
     </row>
-    <row r="377">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D377" s="6"/>
     </row>
-    <row r="378">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D378" s="6"/>
     </row>
-    <row r="379">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D379" s="6"/>
     </row>
-    <row r="380">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D380" s="6"/>
     </row>
-    <row r="381">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D381" s="6"/>
     </row>
-    <row r="382">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D382" s="6"/>
     </row>
-    <row r="383">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D383" s="6"/>
     </row>
-    <row r="384">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D384" s="6"/>
     </row>
-    <row r="385">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D385" s="6"/>
     </row>
-    <row r="386">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D386" s="6"/>
     </row>
-    <row r="387">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D387" s="6"/>
     </row>
-    <row r="388">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D388" s="6"/>
     </row>
-    <row r="389">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D389" s="6"/>
     </row>
-    <row r="390">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D390" s="6"/>
     </row>
-    <row r="391">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D391" s="6"/>
     </row>
-    <row r="392">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D392" s="6"/>
     </row>
-    <row r="393">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D393" s="6"/>
     </row>
-    <row r="394">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D394" s="6"/>
     </row>
-    <row r="395">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D395" s="6"/>
     </row>
-    <row r="396">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D396" s="6"/>
     </row>
-    <row r="397">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D397" s="6"/>
     </row>
-    <row r="398">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D398" s="6"/>
     </row>
-    <row r="399">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D399" s="6"/>
     </row>
-    <row r="400">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D400" s="6"/>
     </row>
-    <row r="401">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D401" s="6"/>
     </row>
-    <row r="402">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D402" s="6"/>
     </row>
-    <row r="403">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D403" s="6"/>
     </row>
-    <row r="404">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D404" s="6"/>
     </row>
-    <row r="405">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D405" s="6"/>
     </row>
-    <row r="406">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D406" s="6"/>
     </row>
-    <row r="407">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D407" s="6"/>
     </row>
-    <row r="408">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D408" s="6"/>
     </row>
-    <row r="409">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D409" s="6"/>
     </row>
-    <row r="410">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D410" s="6"/>
     </row>
-    <row r="411">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D411" s="6"/>
     </row>
-    <row r="412">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D412" s="6"/>
     </row>
-    <row r="413">
+    <row r="413" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D413" s="6"/>
     </row>
-    <row r="414">
+    <row r="414" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D414" s="6"/>
     </row>
-    <row r="415">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D415" s="6"/>
     </row>
-    <row r="416">
+    <row r="416" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D416" s="6"/>
     </row>
-    <row r="417">
+    <row r="417" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D417" s="6"/>
     </row>
-    <row r="418">
+    <row r="418" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D418" s="6"/>
     </row>
-    <row r="419">
+    <row r="419" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D419" s="6"/>
     </row>
-    <row r="420">
+    <row r="420" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D420" s="6"/>
     </row>
-    <row r="421">
+    <row r="421" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D421" s="6"/>
     </row>
-    <row r="422">
+    <row r="422" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D422" s="6"/>
     </row>
-    <row r="423">
+    <row r="423" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D423" s="6"/>
     </row>
-    <row r="424">
+    <row r="424" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D424" s="6"/>
     </row>
-    <row r="425">
+    <row r="425" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D425" s="6"/>
     </row>
-    <row r="426">
+    <row r="426" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D426" s="6"/>
     </row>
-    <row r="427">
+    <row r="427" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D427" s="6"/>
     </row>
-    <row r="428">
+    <row r="428" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D428" s="6"/>
     </row>
-    <row r="429">
+    <row r="429" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D429" s="6"/>
     </row>
-    <row r="430">
+    <row r="430" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D430" s="6"/>
     </row>
-    <row r="431">
+    <row r="431" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D431" s="6"/>
     </row>
-    <row r="432">
+    <row r="432" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D432" s="6"/>
     </row>
-    <row r="433">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D433" s="6"/>
     </row>
-    <row r="434">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D434" s="6"/>
     </row>
-    <row r="435">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D435" s="6"/>
     </row>
-    <row r="436">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D436" s="6"/>
     </row>
-    <row r="437">
+    <row r="437" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D437" s="6"/>
     </row>
-    <row r="438">
+    <row r="438" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D438" s="6"/>
     </row>
-    <row r="439">
+    <row r="439" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D439" s="6"/>
     </row>
-    <row r="440">
+    <row r="440" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D440" s="6"/>
     </row>
-    <row r="441">
+    <row r="441" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D441" s="6"/>
     </row>
-    <row r="442">
+    <row r="442" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D442" s="6"/>
     </row>
-    <row r="443">
+    <row r="443" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D443" s="6"/>
     </row>
-    <row r="444">
+    <row r="444" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D444" s="6"/>
     </row>
-    <row r="445">
+    <row r="445" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D445" s="6"/>
     </row>
-    <row r="446">
+    <row r="446" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D446" s="6"/>
     </row>
-    <row r="447">
+    <row r="447" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D447" s="6"/>
     </row>
-    <row r="448">
+    <row r="448" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D448" s="6"/>
     </row>
-    <row r="449">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D449" s="6"/>
     </row>
-    <row r="450">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D450" s="6"/>
     </row>
-    <row r="451">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D451" s="6"/>
     </row>
-    <row r="452">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D452" s="6"/>
     </row>
-    <row r="453">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D453" s="6"/>
     </row>
-    <row r="454">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D454" s="6"/>
     </row>
-    <row r="455">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D455" s="6"/>
     </row>
-    <row r="456">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D456" s="6"/>
     </row>
-    <row r="457">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D457" s="6"/>
     </row>
-    <row r="458">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D458" s="6"/>
     </row>
-    <row r="459">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D459" s="6"/>
     </row>
-    <row r="460">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D460" s="6"/>
     </row>
-    <row r="461">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D461" s="6"/>
     </row>
-    <row r="462">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D462" s="6"/>
     </row>
-    <row r="463">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D463" s="6"/>
     </row>
-    <row r="464">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D464" s="6"/>
     </row>
-    <row r="465">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D465" s="6"/>
     </row>
-    <row r="466">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D466" s="6"/>
     </row>
-    <row r="467">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D467" s="6"/>
     </row>
-    <row r="468">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D468" s="6"/>
     </row>
-    <row r="469">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D469" s="6"/>
     </row>
-    <row r="470">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D470" s="6"/>
     </row>
-    <row r="471">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D471" s="6"/>
     </row>
-    <row r="472">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D472" s="6"/>
     </row>
-    <row r="473">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D473" s="6"/>
     </row>
-    <row r="474">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D474" s="6"/>
     </row>
-    <row r="475">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D475" s="6"/>
     </row>
-    <row r="476">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D476" s="6"/>
     </row>
-    <row r="477">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D477" s="6"/>
     </row>
-    <row r="478">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D478" s="6"/>
     </row>
-    <row r="479">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D479" s="6"/>
     </row>
-    <row r="480">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D480" s="6"/>
     </row>
-    <row r="481">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D481" s="6"/>
     </row>
-    <row r="482">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D482" s="6"/>
     </row>
-    <row r="483">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D483" s="6"/>
     </row>
-    <row r="484">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D484" s="6"/>
     </row>
-    <row r="485">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D485" s="6"/>
     </row>
-    <row r="486">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D486" s="6"/>
     </row>
-    <row r="487">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D487" s="6"/>
     </row>
-    <row r="488">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D488" s="6"/>
     </row>
-    <row r="489">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D489" s="6"/>
     </row>
-    <row r="490">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D490" s="6"/>
     </row>
-    <row r="491">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D491" s="6"/>
     </row>
-    <row r="492">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D492" s="6"/>
     </row>
-    <row r="493">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D493" s="6"/>
     </row>
-    <row r="494">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D494" s="6"/>
     </row>
-    <row r="495">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D495" s="6"/>
     </row>
-    <row r="496">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D496" s="6"/>
     </row>
-    <row r="497">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D497" s="6"/>
     </row>
-    <row r="498">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D498" s="6"/>
     </row>
-    <row r="499">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D499" s="6"/>
     </row>
-    <row r="500">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D500" s="6"/>
     </row>
-    <row r="501">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D501" s="6"/>
     </row>
-    <row r="502">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D502" s="6"/>
     </row>
-    <row r="503">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D503" s="6"/>
     </row>
-    <row r="504">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D504" s="6"/>
     </row>
-    <row r="505">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D505" s="6"/>
     </row>
-    <row r="506">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D506" s="6"/>
     </row>
-    <row r="507">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D507" s="6"/>
     </row>
-    <row r="508">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D508" s="6"/>
     </row>
-    <row r="509">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D509" s="6"/>
     </row>
-    <row r="510">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D510" s="6"/>
     </row>
-    <row r="511">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D511" s="6"/>
     </row>
-    <row r="512">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D512" s="6"/>
     </row>
-    <row r="513">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D513" s="6"/>
     </row>
-    <row r="514">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D514" s="6"/>
     </row>
-    <row r="515">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D515" s="6"/>
     </row>
-    <row r="516">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D516" s="6"/>
     </row>
-    <row r="517">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D517" s="6"/>
     </row>
-    <row r="518">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D518" s="6"/>
     </row>
-    <row r="519">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D519" s="6"/>
     </row>
-    <row r="520">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D520" s="6"/>
     </row>
-    <row r="521">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D521" s="6"/>
     </row>
-    <row r="522">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D522" s="6"/>
     </row>
-    <row r="523">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D523" s="6"/>
     </row>
-    <row r="524">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D524" s="6"/>
     </row>
-    <row r="525">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D525" s="6"/>
     </row>
-    <row r="526">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D526" s="6"/>
     </row>
-    <row r="527">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D527" s="6"/>
     </row>
-    <row r="528">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D528" s="6"/>
     </row>
-    <row r="529">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D529" s="6"/>
     </row>
-    <row r="530">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D530" s="6"/>
     </row>
-    <row r="531">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D531" s="6"/>
     </row>
-    <row r="532">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D532" s="6"/>
     </row>
-    <row r="533">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D533" s="6"/>
     </row>
-    <row r="534">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D534" s="6"/>
     </row>
-    <row r="535">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D535" s="6"/>
     </row>
-    <row r="536">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D536" s="6"/>
     </row>
-    <row r="537">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D537" s="6"/>
     </row>
-    <row r="538">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D538" s="6"/>
     </row>
-    <row r="539">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D539" s="6"/>
     </row>
-    <row r="540">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D540" s="6"/>
     </row>
-    <row r="541">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D541" s="6"/>
     </row>
-    <row r="542">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D542" s="6"/>
     </row>
-    <row r="543">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D543" s="6"/>
     </row>
-    <row r="544">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D544" s="6"/>
     </row>
-    <row r="545">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D545" s="6"/>
     </row>
-    <row r="546">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D546" s="6"/>
     </row>
-    <row r="547">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D547" s="6"/>
     </row>
-    <row r="548">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D548" s="6"/>
     </row>
-    <row r="549">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D549" s="6"/>
     </row>
-    <row r="550">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D550" s="6"/>
     </row>
-    <row r="551">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D551" s="6"/>
     </row>
-    <row r="552">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D552" s="6"/>
     </row>
-    <row r="553">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D553" s="6"/>
     </row>
-    <row r="554">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D554" s="6"/>
     </row>
-    <row r="555">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D555" s="6"/>
     </row>
-    <row r="556">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D556" s="6"/>
     </row>
-    <row r="557">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D557" s="6"/>
     </row>
-    <row r="558">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D558" s="6"/>
     </row>
-    <row r="559">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D559" s="6"/>
     </row>
-    <row r="560">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D560" s="6"/>
     </row>
-    <row r="561">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D561" s="6"/>
     </row>
-    <row r="562">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D562" s="6"/>
     </row>
-    <row r="563">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D563" s="6"/>
     </row>
-    <row r="564">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D564" s="6"/>
     </row>
-    <row r="565">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D565" s="6"/>
     </row>
-    <row r="566">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D566" s="6"/>
     </row>
-    <row r="567">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D567" s="6"/>
     </row>
-    <row r="568">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D568" s="6"/>
     </row>
-    <row r="569">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D569" s="6"/>
     </row>
-    <row r="570">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D570" s="6"/>
     </row>
-    <row r="571">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D571" s="6"/>
     </row>
-    <row r="572">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D572" s="6"/>
     </row>
-    <row r="573">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D573" s="6"/>
     </row>
-    <row r="574">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D574" s="6"/>
     </row>
-    <row r="575">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D575" s="6"/>
     </row>
-    <row r="576">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D576" s="6"/>
     </row>
-    <row r="577">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D577" s="6"/>
     </row>
-    <row r="578">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D578" s="6"/>
     </row>
-    <row r="579">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D579" s="6"/>
     </row>
-    <row r="580">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D580" s="6"/>
     </row>
-    <row r="581">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D581" s="6"/>
     </row>
-    <row r="582">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D582" s="6"/>
     </row>
-    <row r="583">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D583" s="6"/>
     </row>
-    <row r="584">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D584" s="6"/>
     </row>
-    <row r="585">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D585" s="6"/>
     </row>
-    <row r="586">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D586" s="6"/>
     </row>
-    <row r="587">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D587" s="6"/>
     </row>
-    <row r="588">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D588" s="6"/>
     </row>
-    <row r="589">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D589" s="6"/>
     </row>
-    <row r="590">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D590" s="6"/>
     </row>
-    <row r="591">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D591" s="6"/>
     </row>
-    <row r="592">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D592" s="6"/>
     </row>
-    <row r="593">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D593" s="6"/>
     </row>
-    <row r="594">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D594" s="6"/>
     </row>
-    <row r="595">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D595" s="6"/>
     </row>
-    <row r="596">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D596" s="6"/>
     </row>
-    <row r="597">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D597" s="6"/>
     </row>
-    <row r="598">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D598" s="6"/>
     </row>
-    <row r="599">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D599" s="6"/>
     </row>
-    <row r="600">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D600" s="6"/>
     </row>
-    <row r="601">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D601" s="6"/>
     </row>
-    <row r="602">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D602" s="6"/>
     </row>
-    <row r="603">
+    <row r="603" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D603" s="6"/>
     </row>
-    <row r="604">
+    <row r="604" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D604" s="6"/>
     </row>
-    <row r="605">
+    <row r="605" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D605" s="6"/>
     </row>
-    <row r="606">
+    <row r="606" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D606" s="6"/>
     </row>
-    <row r="607">
+    <row r="607" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D607" s="6"/>
     </row>
-    <row r="608">
+    <row r="608" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D608" s="6"/>
     </row>
-    <row r="609">
+    <row r="609" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D609" s="6"/>
     </row>
-    <row r="610">
+    <row r="610" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D610" s="6"/>
     </row>
-    <row r="611">
+    <row r="611" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D611" s="6"/>
     </row>
-    <row r="612">
+    <row r="612" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D612" s="6"/>
     </row>
-    <row r="613">
+    <row r="613" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D613" s="6"/>
     </row>
-    <row r="614">
+    <row r="614" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D614" s="6"/>
     </row>
-    <row r="615">
+    <row r="615" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D615" s="6"/>
     </row>
-    <row r="616">
+    <row r="616" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D616" s="6"/>
     </row>
-    <row r="617">
+    <row r="617" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D617" s="6"/>
     </row>
-    <row r="618">
+    <row r="618" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D618" s="6"/>
     </row>
-    <row r="619">
+    <row r="619" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D619" s="6"/>
     </row>
-    <row r="620">
+    <row r="620" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D620" s="6"/>
     </row>
-    <row r="621">
+    <row r="621" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D621" s="6"/>
     </row>
-    <row r="622">
+    <row r="622" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D622" s="6"/>
     </row>
-    <row r="623">
+    <row r="623" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D623" s="6"/>
     </row>
-    <row r="624">
+    <row r="624" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D624" s="6"/>
     </row>
-    <row r="625">
+    <row r="625" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D625" s="6"/>
     </row>
-    <row r="626">
+    <row r="626" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D626" s="6"/>
     </row>
-    <row r="627">
+    <row r="627" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D627" s="6"/>
     </row>
-    <row r="628">
+    <row r="628" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D628" s="6"/>
     </row>
-    <row r="629">
+    <row r="629" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D629" s="6"/>
     </row>
-    <row r="630">
+    <row r="630" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D630" s="6"/>
     </row>
-    <row r="631">
+    <row r="631" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D631" s="6"/>
     </row>
-    <row r="632">
+    <row r="632" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D632" s="6"/>
     </row>
-    <row r="633">
+    <row r="633" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D633" s="6"/>
     </row>
-    <row r="634">
+    <row r="634" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D634" s="6"/>
     </row>
-    <row r="635">
+    <row r="635" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D635" s="6"/>
     </row>
-    <row r="636">
+    <row r="636" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D636" s="6"/>
     </row>
-    <row r="637">
+    <row r="637" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D637" s="6"/>
     </row>
-    <row r="638">
+    <row r="638" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D638" s="6"/>
     </row>
-    <row r="639">
+    <row r="639" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D639" s="6"/>
     </row>
-    <row r="640">
+    <row r="640" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D640" s="6"/>
     </row>
-    <row r="641">
+    <row r="641" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D641" s="6"/>
     </row>
-    <row r="642">
+    <row r="642" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D642" s="6"/>
     </row>
-    <row r="643">
+    <row r="643" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D643" s="6"/>
     </row>
-    <row r="644">
+    <row r="644" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D644" s="6"/>
     </row>
-    <row r="645">
+    <row r="645" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D645" s="6"/>
     </row>
-    <row r="646">
+    <row r="646" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D646" s="6"/>
     </row>
-    <row r="647">
+    <row r="647" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D647" s="6"/>
     </row>
-    <row r="648">
+    <row r="648" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D648" s="6"/>
     </row>
-    <row r="649">
+    <row r="649" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D649" s="6"/>
     </row>
-    <row r="650">
+    <row r="650" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D650" s="6"/>
     </row>
-    <row r="651">
+    <row r="651" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D651" s="6"/>
     </row>
-    <row r="652">
+    <row r="652" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D652" s="6"/>
     </row>
-    <row r="653">
+    <row r="653" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D653" s="6"/>
     </row>
-    <row r="654">
+    <row r="654" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D654" s="6"/>
     </row>
-    <row r="655">
+    <row r="655" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D655" s="6"/>
     </row>
-    <row r="656">
+    <row r="656" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D656" s="6"/>
     </row>
-    <row r="657">
+    <row r="657" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D657" s="6"/>
     </row>
-    <row r="658">
+    <row r="658" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D658" s="6"/>
     </row>
-    <row r="659">
+    <row r="659" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D659" s="6"/>
     </row>
-    <row r="660">
+    <row r="660" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D660" s="6"/>
     </row>
-    <row r="661">
+    <row r="661" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D661" s="6"/>
     </row>
-    <row r="662">
+    <row r="662" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D662" s="6"/>
     </row>
-    <row r="663">
+    <row r="663" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D663" s="6"/>
     </row>
-    <row r="664">
+    <row r="664" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D664" s="6"/>
     </row>
-    <row r="665">
+    <row r="665" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D665" s="6"/>
     </row>
-    <row r="666">
+    <row r="666" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D666" s="6"/>
     </row>
-    <row r="667">
+    <row r="667" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D667" s="6"/>
     </row>
-    <row r="668">
+    <row r="668" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D668" s="6"/>
     </row>
-    <row r="669">
+    <row r="669" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D669" s="6"/>
     </row>
-    <row r="670">
+    <row r="670" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D670" s="6"/>
     </row>
-    <row r="671">
+    <row r="671" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D671" s="6"/>
     </row>
-    <row r="672">
+    <row r="672" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D672" s="6"/>
     </row>
-    <row r="673">
+    <row r="673" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D673" s="6"/>
     </row>
-    <row r="674">
+    <row r="674" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D674" s="6"/>
     </row>
-    <row r="675">
+    <row r="675" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D675" s="6"/>
     </row>
-    <row r="676">
+    <row r="676" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D676" s="6"/>
     </row>
-    <row r="677">
+    <row r="677" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D677" s="6"/>
     </row>
-    <row r="678">
+    <row r="678" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D678" s="6"/>
     </row>
-    <row r="679">
+    <row r="679" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D679" s="6"/>
     </row>
-    <row r="680">
+    <row r="680" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D680" s="6"/>
     </row>
-    <row r="681">
+    <row r="681" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D681" s="6"/>
     </row>
-    <row r="682">
+    <row r="682" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D682" s="6"/>
     </row>
-    <row r="683">
+    <row r="683" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D683" s="6"/>
     </row>
-    <row r="684">
+    <row r="684" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D684" s="6"/>
     </row>
-    <row r="685">
+    <row r="685" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D685" s="6"/>
     </row>
-    <row r="686">
+    <row r="686" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D686" s="6"/>
     </row>
-    <row r="687">
+    <row r="687" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D687" s="6"/>
     </row>
-    <row r="688">
+    <row r="688" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D688" s="6"/>
     </row>
-    <row r="689">
+    <row r="689" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D689" s="6"/>
     </row>
-    <row r="690">
+    <row r="690" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D690" s="6"/>
     </row>
-    <row r="691">
+    <row r="691" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D691" s="6"/>
     </row>
-    <row r="692">
+    <row r="692" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D692" s="6"/>
     </row>
-    <row r="693">
+    <row r="693" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D693" s="6"/>
     </row>
-    <row r="694">
+    <row r="694" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D694" s="6"/>
     </row>
-    <row r="695">
+    <row r="695" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D695" s="6"/>
     </row>
-    <row r="696">
+    <row r="696" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D696" s="6"/>
     </row>
-    <row r="697">
+    <row r="697" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D697" s="6"/>
     </row>
-    <row r="698">
+    <row r="698" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D698" s="6"/>
     </row>
-    <row r="699">
+    <row r="699" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D699" s="6"/>
     </row>
-    <row r="700">
+    <row r="700" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D700" s="6"/>
     </row>
-    <row r="701">
+    <row r="701" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D701" s="6"/>
     </row>
-    <row r="702">
+    <row r="702" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D702" s="6"/>
     </row>
-    <row r="703">
+    <row r="703" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D703" s="6"/>
     </row>
-    <row r="704">
+    <row r="704" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D704" s="6"/>
     </row>
-    <row r="705">
+    <row r="705" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D705" s="6"/>
     </row>
-    <row r="706">
+    <row r="706" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D706" s="6"/>
     </row>
-    <row r="707">
+    <row r="707" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D707" s="6"/>
     </row>
-    <row r="708">
+    <row r="708" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D708" s="6"/>
     </row>
-    <row r="709">
+    <row r="709" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D709" s="6"/>
     </row>
-    <row r="710">
+    <row r="710" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D710" s="6"/>
     </row>
-    <row r="711">
+    <row r="711" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D711" s="6"/>
     </row>
-    <row r="712">
+    <row r="712" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D712" s="6"/>
     </row>
-    <row r="713">
+    <row r="713" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D713" s="6"/>
     </row>
-    <row r="714">
+    <row r="714" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D714" s="6"/>
     </row>
-    <row r="715">
+    <row r="715" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D715" s="6"/>
     </row>
-    <row r="716">
+    <row r="716" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D716" s="6"/>
     </row>
-    <row r="717">
+    <row r="717" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D717" s="6"/>
     </row>
-    <row r="718">
+    <row r="718" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D718" s="6"/>
     </row>
-    <row r="719">
+    <row r="719" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D719" s="6"/>
     </row>
-    <row r="720">
+    <row r="720" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D720" s="6"/>
     </row>
-    <row r="721">
+    <row r="721" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D721" s="6"/>
     </row>
-    <row r="722">
+    <row r="722" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D722" s="6"/>
     </row>
-    <row r="723">
+    <row r="723" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D723" s="6"/>
     </row>
-    <row r="724">
+    <row r="724" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D724" s="6"/>
     </row>
-    <row r="725">
+    <row r="725" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D725" s="6"/>
     </row>
-    <row r="726">
+    <row r="726" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D726" s="6"/>
     </row>
-    <row r="727">
+    <row r="727" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D727" s="6"/>
     </row>
-    <row r="728">
+    <row r="728" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D728" s="6"/>
     </row>
-    <row r="729">
+    <row r="729" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D729" s="6"/>
     </row>
-    <row r="730">
+    <row r="730" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D730" s="6"/>
     </row>
-    <row r="731">
+    <row r="731" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D731" s="6"/>
     </row>
-    <row r="732">
+    <row r="732" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D732" s="6"/>
     </row>
-    <row r="733">
+    <row r="733" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D733" s="6"/>
     </row>
-    <row r="734">
+    <row r="734" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D734" s="6"/>
     </row>
-    <row r="735">
+    <row r="735" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D735" s="6"/>
     </row>
-    <row r="736">
+    <row r="736" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D736" s="6"/>
     </row>
-    <row r="737">
+    <row r="737" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D737" s="6"/>
     </row>
-    <row r="738">
+    <row r="738" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D738" s="6"/>
     </row>
-    <row r="739">
+    <row r="739" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D739" s="6"/>
     </row>
-    <row r="740">
+    <row r="740" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D740" s="6"/>
     </row>
-    <row r="741">
+    <row r="741" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D741" s="6"/>
     </row>
-    <row r="742">
+    <row r="742" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D742" s="6"/>
     </row>
-    <row r="743">
+    <row r="743" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D743" s="6"/>
     </row>
-    <row r="744">
+    <row r="744" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D744" s="6"/>
     </row>
-    <row r="745">
+    <row r="745" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D745" s="6"/>
     </row>
-    <row r="746">
+    <row r="746" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D746" s="6"/>
     </row>
-    <row r="747">
+    <row r="747" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D747" s="6"/>
     </row>
-    <row r="748">
+    <row r="748" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D748" s="6"/>
     </row>
-    <row r="749">
+    <row r="749" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D749" s="6"/>
     </row>
-    <row r="750">
+    <row r="750" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D750" s="6"/>
     </row>
-    <row r="751">
+    <row r="751" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D751" s="6"/>
     </row>
-    <row r="752">
+    <row r="752" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D752" s="6"/>
     </row>
-    <row r="753">
+    <row r="753" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D753" s="6"/>
     </row>
-    <row r="754">
+    <row r="754" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D754" s="6"/>
     </row>
-    <row r="755">
+    <row r="755" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D755" s="6"/>
     </row>
-    <row r="756">
+    <row r="756" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D756" s="6"/>
     </row>
-    <row r="757">
+    <row r="757" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D757" s="6"/>
     </row>
-    <row r="758">
+    <row r="758" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D758" s="6"/>
     </row>
-    <row r="759">
+    <row r="759" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D759" s="6"/>
     </row>
-    <row r="760">
+    <row r="760" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D760" s="6"/>
     </row>
-    <row r="761">
+    <row r="761" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D761" s="6"/>
     </row>
-    <row r="762">
+    <row r="762" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D762" s="6"/>
     </row>
-    <row r="763">
+    <row r="763" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D763" s="6"/>
     </row>
-    <row r="764">
+    <row r="764" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D764" s="6"/>
     </row>
-    <row r="765">
+    <row r="765" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D765" s="6"/>
     </row>
-    <row r="766">
+    <row r="766" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D766" s="6"/>
     </row>
-    <row r="767">
+    <row r="767" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D767" s="6"/>
     </row>
-    <row r="768">
+    <row r="768" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D768" s="6"/>
     </row>
-    <row r="769">
+    <row r="769" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D769" s="6"/>
     </row>
-    <row r="770">
+    <row r="770" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D770" s="6"/>
     </row>
-    <row r="771">
+    <row r="771" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D771" s="6"/>
     </row>
-    <row r="772">
+    <row r="772" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D772" s="6"/>
     </row>
-    <row r="773">
+    <row r="773" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D773" s="6"/>
     </row>
-    <row r="774">
+    <row r="774" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D774" s="6"/>
     </row>
-    <row r="775">
+    <row r="775" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D775" s="6"/>
     </row>
-    <row r="776">
+    <row r="776" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D776" s="6"/>
     </row>
-    <row r="777">
+    <row r="777" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D777" s="6"/>
     </row>
-    <row r="778">
+    <row r="778" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D778" s="6"/>
     </row>
-    <row r="779">
+    <row r="779" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D779" s="6"/>
     </row>
-    <row r="780">
+    <row r="780" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D780" s="6"/>
     </row>
-    <row r="781">
+    <row r="781" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D781" s="6"/>
     </row>
-    <row r="782">
+    <row r="782" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D782" s="6"/>
     </row>
-    <row r="783">
+    <row r="783" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D783" s="6"/>
     </row>
-    <row r="784">
+    <row r="784" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D784" s="6"/>
     </row>
-    <row r="785">
+    <row r="785" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D785" s="6"/>
     </row>
-    <row r="786">
+    <row r="786" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D786" s="6"/>
     </row>
-    <row r="787">
+    <row r="787" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D787" s="6"/>
     </row>
-    <row r="788">
+    <row r="788" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D788" s="6"/>
     </row>
-    <row r="789">
+    <row r="789" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D789" s="6"/>
     </row>
-    <row r="790">
+    <row r="790" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D790" s="6"/>
     </row>
-    <row r="791">
+    <row r="791" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D791" s="6"/>
     </row>
-    <row r="792">
+    <row r="792" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D792" s="6"/>
     </row>
-    <row r="793">
+    <row r="793" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D793" s="6"/>
     </row>
-    <row r="794">
+    <row r="794" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D794" s="6"/>
     </row>
-    <row r="795">
+    <row r="795" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D795" s="6"/>
     </row>
-    <row r="796">
+    <row r="796" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D796" s="6"/>
     </row>
-    <row r="797">
+    <row r="797" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D797" s="6"/>
     </row>
-    <row r="798">
+    <row r="798" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D798" s="6"/>
     </row>
-    <row r="799">
+    <row r="799" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D799" s="6"/>
     </row>
-    <row r="800">
+    <row r="800" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D800" s="6"/>
     </row>
-    <row r="801">
+    <row r="801" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D801" s="6"/>
     </row>
-    <row r="802">
+    <row r="802" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D802" s="6"/>
     </row>
-    <row r="803">
+    <row r="803" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D803" s="6"/>
     </row>
-    <row r="804">
+    <row r="804" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D804" s="6"/>
     </row>
-    <row r="805">
+    <row r="805" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D805" s="6"/>
     </row>
-    <row r="806">
+    <row r="806" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D806" s="6"/>
     </row>
-    <row r="807">
+    <row r="807" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D807" s="6"/>
     </row>
-    <row r="808">
+    <row r="808" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D808" s="6"/>
     </row>
-    <row r="809">
+    <row r="809" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D809" s="6"/>
     </row>
-    <row r="810">
+    <row r="810" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D810" s="6"/>
     </row>
-    <row r="811">
+    <row r="811" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D811" s="6"/>
     </row>
-    <row r="812">
+    <row r="812" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D812" s="6"/>
     </row>
-    <row r="813">
+    <row r="813" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D813" s="6"/>
     </row>
-    <row r="814">
+    <row r="814" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D814" s="6"/>
     </row>
-    <row r="815">
+    <row r="815" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D815" s="6"/>
     </row>
-    <row r="816">
+    <row r="816" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D816" s="6"/>
     </row>
-    <row r="817">
+    <row r="817" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D817" s="6"/>
     </row>
-    <row r="818">
+    <row r="818" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D818" s="6"/>
     </row>
-    <row r="819">
+    <row r="819" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D819" s="6"/>
     </row>
-    <row r="820">
+    <row r="820" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D820" s="6"/>
     </row>
-    <row r="821">
+    <row r="821" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D821" s="6"/>
     </row>
-    <row r="822">
+    <row r="822" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D822" s="6"/>
     </row>
-    <row r="823">
+    <row r="823" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D823" s="6"/>
     </row>
-    <row r="824">
+    <row r="824" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D824" s="6"/>
     </row>
-    <row r="825">
+    <row r="825" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D825" s="6"/>
     </row>
-    <row r="826">
+    <row r="826" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D826" s="6"/>
     </row>
-    <row r="827">
+    <row r="827" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D827" s="6"/>
     </row>
-    <row r="828">
+    <row r="828" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D828" s="6"/>
     </row>
-    <row r="829">
+    <row r="829" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D829" s="6"/>
     </row>
-    <row r="830">
+    <row r="830" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D830" s="6"/>
     </row>
-    <row r="831">
+    <row r="831" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D831" s="6"/>
     </row>
-    <row r="832">
+    <row r="832" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D832" s="6"/>
     </row>
-    <row r="833">
+    <row r="833" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D833" s="6"/>
     </row>
-    <row r="834">
+    <row r="834" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D834" s="6"/>
     </row>
-    <row r="835">
+    <row r="835" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D835" s="6"/>
     </row>
-    <row r="836">
+    <row r="836" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D836" s="6"/>
     </row>
-    <row r="837">
+    <row r="837" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D837" s="6"/>
     </row>
-    <row r="838">
+    <row r="838" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D838" s="6"/>
     </row>
-    <row r="839">
+    <row r="839" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D839" s="6"/>
     </row>
-    <row r="840">
+    <row r="840" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D840" s="6"/>
     </row>
-    <row r="841">
+    <row r="841" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D841" s="6"/>
     </row>
-    <row r="842">
+    <row r="842" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D842" s="6"/>
     </row>
-    <row r="843">
+    <row r="843" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D843" s="6"/>
     </row>
-    <row r="844">
+    <row r="844" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D844" s="6"/>
     </row>
-    <row r="845">
+    <row r="845" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D845" s="6"/>
     </row>
-    <row r="846">
+    <row r="846" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D846" s="6"/>
     </row>
-    <row r="847">
+    <row r="847" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D847" s="6"/>
     </row>
-    <row r="848">
+    <row r="848" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D848" s="6"/>
     </row>
-    <row r="849">
+    <row r="849" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D849" s="6"/>
     </row>
-    <row r="850">
+    <row r="850" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D850" s="6"/>
     </row>
-    <row r="851">
+    <row r="851" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D851" s="6"/>
     </row>
-    <row r="852">
+    <row r="852" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D852" s="6"/>
     </row>
-    <row r="853">
+    <row r="853" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D853" s="6"/>
     </row>
-    <row r="854">
+    <row r="854" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D854" s="6"/>
     </row>
-    <row r="855">
+    <row r="855" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D855" s="6"/>
     </row>
-    <row r="856">
+    <row r="856" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D856" s="6"/>
     </row>
-    <row r="857">
+    <row r="857" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D857" s="6"/>
     </row>
-    <row r="858">
+    <row r="858" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D858" s="6"/>
     </row>
-    <row r="859">
+    <row r="859" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D859" s="6"/>
     </row>
-    <row r="860">
+    <row r="860" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D860" s="6"/>
     </row>
-    <row r="861">
+    <row r="861" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D861" s="6"/>
     </row>
-    <row r="862">
+    <row r="862" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D862" s="6"/>
     </row>
-    <row r="863">
+    <row r="863" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D863" s="6"/>
     </row>
-    <row r="864">
+    <row r="864" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D864" s="6"/>
     </row>
-    <row r="865">
+    <row r="865" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D865" s="6"/>
     </row>
-    <row r="866">
+    <row r="866" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D866" s="6"/>
     </row>
-    <row r="867">
+    <row r="867" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D867" s="6"/>
     </row>
-    <row r="868">
+    <row r="868" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D868" s="6"/>
     </row>
-    <row r="869">
+    <row r="869" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D869" s="6"/>
     </row>
-    <row r="870">
+    <row r="870" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D870" s="6"/>
     </row>
-    <row r="871">
+    <row r="871" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D871" s="6"/>
     </row>
-    <row r="872">
+    <row r="872" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D872" s="6"/>
     </row>
-    <row r="873">
+    <row r="873" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D873" s="6"/>
     </row>
-    <row r="874">
+    <row r="874" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D874" s="6"/>
     </row>
-    <row r="875">
+    <row r="875" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D875" s="6"/>
     </row>
-    <row r="876">
+    <row r="876" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D876" s="6"/>
     </row>
-    <row r="877">
+    <row r="877" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D877" s="6"/>
     </row>
-    <row r="878">
+    <row r="878" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D878" s="6"/>
     </row>
-    <row r="879">
+    <row r="879" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D879" s="6"/>
     </row>
-    <row r="880">
+    <row r="880" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D880" s="6"/>
     </row>
-    <row r="881">
+    <row r="881" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D881" s="6"/>
     </row>
-    <row r="882">
+    <row r="882" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D882" s="6"/>
     </row>
-    <row r="883">
+    <row r="883" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D883" s="6"/>
     </row>
-    <row r="884">
+    <row r="884" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D884" s="6"/>
     </row>
-    <row r="885">
+    <row r="885" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D885" s="6"/>
     </row>
-    <row r="886">
+    <row r="886" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D886" s="6"/>
     </row>
-    <row r="887">
+    <row r="887" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D887" s="6"/>
     </row>
-    <row r="888">
+    <row r="888" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D888" s="6"/>
     </row>
-    <row r="889">
+    <row r="889" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D889" s="6"/>
     </row>
-    <row r="890">
+    <row r="890" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D890" s="6"/>
     </row>
-    <row r="891">
+    <row r="891" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D891" s="6"/>
     </row>
-    <row r="892">
+    <row r="892" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D892" s="6"/>
     </row>
-    <row r="893">
+    <row r="893" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D893" s="6"/>
     </row>
-    <row r="894">
+    <row r="894" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D894" s="6"/>
     </row>
-    <row r="895">
+    <row r="895" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D895" s="6"/>
     </row>
-    <row r="896">
+    <row r="896" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D896" s="6"/>
     </row>
-    <row r="897">
+    <row r="897" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D897" s="6"/>
     </row>
-    <row r="898">
+    <row r="898" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D898" s="6"/>
     </row>
-    <row r="899">
+    <row r="899" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D899" s="6"/>
     </row>
-    <row r="900">
+    <row r="900" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D900" s="6"/>
     </row>
-    <row r="901">
+    <row r="901" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D901" s="6"/>
     </row>
-    <row r="902">
+    <row r="902" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D902" s="6"/>
     </row>
-    <row r="903">
+    <row r="903" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D903" s="6"/>
     </row>
-    <row r="904">
+    <row r="904" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D904" s="6"/>
     </row>
-    <row r="905">
+    <row r="905" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D905" s="6"/>
     </row>
-    <row r="906">
+    <row r="906" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D906" s="6"/>
     </row>
-    <row r="907">
+    <row r="907" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D907" s="6"/>
     </row>
-    <row r="908">
+    <row r="908" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D908" s="6"/>
     </row>
-    <row r="909">
+    <row r="909" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D909" s="6"/>
     </row>
-    <row r="910">
+    <row r="910" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D910" s="6"/>
     </row>
-    <row r="911">
+    <row r="911" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D911" s="6"/>
     </row>
-    <row r="912">
+    <row r="912" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D912" s="6"/>
     </row>
-    <row r="913">
+    <row r="913" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D913" s="6"/>
     </row>
-    <row r="914">
+    <row r="914" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D914" s="6"/>
     </row>
-    <row r="915">
+    <row r="915" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D915" s="6"/>
     </row>
-    <row r="916">
+    <row r="916" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D916" s="6"/>
     </row>
-    <row r="917">
+    <row r="917" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D917" s="6"/>
     </row>
-    <row r="918">
+    <row r="918" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D918" s="6"/>
     </row>
-    <row r="919">
+    <row r="919" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D919" s="6"/>
     </row>
-    <row r="920">
+    <row r="920" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D920" s="6"/>
     </row>
-    <row r="921">
+    <row r="921" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D921" s="6"/>
     </row>
-    <row r="922">
+    <row r="922" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D922" s="6"/>
     </row>
-    <row r="923">
+    <row r="923" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D923" s="6"/>
     </row>
-    <row r="924">
+    <row r="924" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D924" s="6"/>
     </row>
-    <row r="925">
+    <row r="925" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D925" s="6"/>
     </row>
-    <row r="926">
+    <row r="926" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D926" s="6"/>
     </row>
-    <row r="927">
+    <row r="927" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D927" s="6"/>
     </row>
-    <row r="928">
+    <row r="928" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D928" s="6"/>
     </row>
-    <row r="929">
+    <row r="929" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D929" s="6"/>
     </row>
-    <row r="930">
+    <row r="930" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D930" s="6"/>
     </row>
-    <row r="931">
+    <row r="931" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D931" s="6"/>
     </row>
-    <row r="932">
+    <row r="932" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D932" s="6"/>
     </row>
-    <row r="933">
+    <row r="933" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D933" s="6"/>
     </row>
-    <row r="934">
+    <row r="934" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D934" s="6"/>
     </row>
-    <row r="935">
+    <row r="935" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D935" s="6"/>
     </row>
-    <row r="936">
+    <row r="936" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D936" s="6"/>
     </row>
-    <row r="937">
+    <row r="937" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D937" s="6"/>
     </row>
-    <row r="938">
+    <row r="938" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D938" s="6"/>
     </row>
-    <row r="939">
+    <row r="939" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D939" s="6"/>
     </row>
-    <row r="940">
+    <row r="940" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D940" s="6"/>
     </row>
-    <row r="941">
+    <row r="941" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D941" s="6"/>
     </row>
-    <row r="942">
+    <row r="942" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D942" s="6"/>
     </row>
-    <row r="943">
+    <row r="943" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D943" s="6"/>
     </row>
-    <row r="944">
+    <row r="944" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D944" s="6"/>
     </row>
-    <row r="945">
+    <row r="945" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D945" s="6"/>
     </row>
-    <row r="946">
+    <row r="946" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D946" s="6"/>
     </row>
-    <row r="947">
+    <row r="947" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D947" s="6"/>
     </row>
-    <row r="948">
+    <row r="948" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D948" s="6"/>
     </row>
-    <row r="949">
+    <row r="949" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D949" s="6"/>
     </row>
-    <row r="950">
+    <row r="950" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D950" s="6"/>
     </row>
-    <row r="951">
+    <row r="951" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D951" s="6"/>
     </row>
-    <row r="952">
+    <row r="952" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D952" s="6"/>
     </row>
-    <row r="953">
+    <row r="953" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D953" s="6"/>
     </row>
-    <row r="954">
+    <row r="954" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D954" s="6"/>
     </row>
-    <row r="955">
+    <row r="955" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D955" s="6"/>
     </row>
-    <row r="956">
+    <row r="956" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D956" s="6"/>
     </row>
-    <row r="957">
+    <row r="957" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D957" s="6"/>
     </row>
-    <row r="958">
+    <row r="958" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D958" s="6"/>
     </row>
-    <row r="959">
+    <row r="959" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D959" s="6"/>
     </row>
-    <row r="960">
+    <row r="960" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D960" s="6"/>
     </row>
-    <row r="961">
+    <row r="961" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D961" s="6"/>
     </row>
-    <row r="962">
+    <row r="962" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D962" s="6"/>
     </row>
-    <row r="963">
+    <row r="963" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D963" s="6"/>
     </row>
-    <row r="964">
+    <row r="964" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D964" s="6"/>
     </row>
-    <row r="965">
+    <row r="965" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D965" s="6"/>
     </row>
-    <row r="966">
+    <row r="966" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D966" s="6"/>
     </row>
-    <row r="967">
+    <row r="967" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D967" s="6"/>
     </row>
-    <row r="968">
+    <row r="968" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D968" s="6"/>
     </row>
-    <row r="969">
+    <row r="969" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D969" s="6"/>
     </row>
-    <row r="970">
+    <row r="970" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D970" s="6"/>
     </row>
-    <row r="971">
+    <row r="971" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D971" s="6"/>
     </row>
-    <row r="972">
+    <row r="972" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D972" s="6"/>
     </row>
-    <row r="973">
+    <row r="973" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D973" s="6"/>
     </row>
-    <row r="974">
+    <row r="974" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D974" s="6"/>
     </row>
-    <row r="975">
+    <row r="975" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D975" s="6"/>
     </row>
-    <row r="976">
+    <row r="976" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D976" s="6"/>
     </row>
-    <row r="977">
+    <row r="977" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D977" s="6"/>
     </row>
-    <row r="978">
+    <row r="978" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D978" s="6"/>
     </row>
-    <row r="979">
+    <row r="979" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D979" s="6"/>
     </row>
-    <row r="980">
+    <row r="980" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D980" s="6"/>
     </row>
-    <row r="981">
+    <row r="981" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D981" s="6"/>
     </row>
-    <row r="982">
+    <row r="982" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D982" s="6"/>
     </row>
-    <row r="983">
+    <row r="983" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D983" s="6"/>
     </row>
-    <row r="984">
+    <row r="984" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D984" s="6"/>
     </row>
-    <row r="985">
+    <row r="985" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D985" s="6"/>
     </row>
-    <row r="986">
+    <row r="986" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D986" s="6"/>
     </row>
-    <row r="987">
+    <row r="987" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D987" s="6"/>
     </row>
-    <row r="988">
+    <row r="988" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D988" s="6"/>
     </row>
-    <row r="989">
+    <row r="989" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D989" s="6"/>
     </row>
-    <row r="990">
+    <row r="990" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D990" s="6"/>
     </row>
-    <row r="991">
+    <row r="991" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D991" s="6"/>
     </row>
-    <row r="992">
+    <row r="992" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D992" s="6"/>
     </row>
-    <row r="993">
+    <row r="993" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D993" s="6"/>
     </row>
-    <row r="994">
+    <row r="994" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D994" s="6"/>
     </row>
-    <row r="995">
+    <row r="995" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D995" s="6"/>
     </row>
-    <row r="996">
+    <row r="996" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D996" s="6"/>
     </row>
-    <row r="997">
+    <row r="997" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D997" s="6"/>
     </row>
-    <row r="998">
+    <row r="998" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D998" s="6"/>
     </row>
-    <row r="999">
+    <row r="999" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D999" s="6"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1000" s="6"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1001" s="6"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1002" s="6"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1003" s="6"/>
     </row>
-    <row r="1004">
+    <row r="1004" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1004" s="6"/>
     </row>
-    <row r="1005">
+    <row r="1005" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1005" s="6"/>
     </row>
-    <row r="1006">
+    <row r="1006" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1006" s="6"/>
     </row>
-    <row r="1007">
+    <row r="1007" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1007" s="6"/>
     </row>
-    <row r="1008">
+    <row r="1008" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1008" s="6"/>
     </row>
-    <row r="1009">
+    <row r="1009" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1009" s="6"/>
     </row>
-    <row r="1010">
+    <row r="1010" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D1010" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.71"/>
-    <col customWidth="1" min="2" max="2" width="22.0"/>
-    <col customWidth="1" min="3" max="3" width="14.14"/>
-    <col customWidth="1" min="4" max="4" width="45.29"/>
+    <col min="1" max="1" width="7.73046875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" customWidth="1"/>
+    <col min="4" max="4" width="45.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7221,9 +7232,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -7232,9 +7243,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -7243,9 +7254,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -7257,9 +7268,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>79</v>
@@ -7268,9 +7279,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>137</v>
@@ -7282,9 +7293,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>148</v>
@@ -7296,9 +7307,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>165</v>
@@ -7310,9 +7321,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>170</v>
@@ -7324,9 +7335,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>174</v>
@@ -7338,9 +7349,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>178</v>
@@ -7349,9 +7360,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>185</v>
@@ -7360,9 +7371,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>190</v>
@@ -7374,9 +7385,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>201</v>
@@ -7385,9 +7396,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>209</v>
@@ -7399,9 +7410,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>210</v>
@@ -7410,9 +7421,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>212</v>
@@ -7424,9 +7435,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>214</v>
@@ -7435,9 +7446,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>264</v>
@@ -7446,9 +7457,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>300</v>
@@ -7457,9 +7468,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>302</v>
@@ -7468,9 +7479,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>303</v>
@@ -7479,9 +7490,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>304</v>
@@ -7490,9 +7501,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>305</v>
@@ -7501,9 +7512,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>306</v>
@@ -7512,9 +7523,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>307</v>
@@ -7523,9 +7534,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>308</v>
@@ -7534,9 +7545,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>309</v>
@@ -7545,9 +7556,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>303</v>
@@ -7556,9 +7567,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>311</v>
@@ -7567,9 +7578,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>305</v>
@@ -7578,9 +7589,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>312</v>
@@ -7589,9 +7600,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>313</v>
@@ -7600,9 +7611,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>314</v>
@@ -7611,9 +7622,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>205</v>
@@ -7623,26 +7634,27 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.86"/>
-    <col customWidth="1" min="2" max="2" width="20.29"/>
-    <col customWidth="1" min="3" max="3" width="22.86"/>
+    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7659,9 +7671,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>300</v>
@@ -7670,9 +7682,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>302</v>
@@ -7681,9 +7693,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>303</v>
@@ -7692,9 +7704,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>303</v>
@@ -7703,9 +7715,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>303</v>
@@ -7714,9 +7726,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>304</v>
@@ -7725,9 +7737,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>304</v>
@@ -7736,9 +7748,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>304</v>
@@ -7747,9 +7759,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>304</v>
@@ -7758,9 +7770,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>305</v>
@@ -7769,9 +7781,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>305</v>
@@ -7780,9 +7792,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>305</v>
@@ -7791,9 +7803,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>305</v>
@@ -7802,9 +7814,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>305</v>
@@ -7813,9 +7825,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>305</v>
@@ -7824,9 +7836,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>306</v>
@@ -7835,9 +7847,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>306</v>
@@ -7849,9 +7861,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>306</v>
@@ -7863,9 +7875,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>306</v>
@@ -7877,9 +7889,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>306</v>
@@ -7891,9 +7903,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>306</v>
@@ -7905,9 +7917,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>306</v>
@@ -7919,9 +7931,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>306</v>
@@ -7933,9 +7945,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>307</v>
@@ -7944,9 +7956,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>307</v>
@@ -7961,9 +7973,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>307</v>
@@ -7975,9 +7987,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>307</v>
@@ -7992,9 +8004,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>307</v>
@@ -8009,9 +8021,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>307</v>
@@ -8023,9 +8035,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>307</v>
@@ -8034,9 +8046,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>307</v>
@@ -8048,9 +8060,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>307</v>
@@ -8062,9 +8074,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>307</v>
@@ -8073,9 +8085,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>307</v>
@@ -8084,9 +8096,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>307</v>
@@ -8098,9 +8110,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>307</v>
@@ -8112,9 +8124,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>307</v>
@@ -8123,9 +8135,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>307</v>
@@ -8137,9 +8149,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>307</v>
@@ -8148,9 +8160,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>308</v>
@@ -8162,9 +8174,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>308</v>
@@ -8173,9 +8185,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>308</v>
@@ -8187,9 +8199,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>308</v>
@@ -8201,9 +8213,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>308</v>
@@ -8218,9 +8230,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>308</v>
@@ -8232,9 +8244,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>308</v>
@@ -8246,9 +8258,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>308</v>
@@ -8257,9 +8269,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>308</v>
@@ -8271,9 +8283,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>308</v>
@@ -8288,9 +8300,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>308</v>
@@ -8302,9 +8314,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>308</v>
@@ -8319,9 +8331,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>308</v>
@@ -8333,9 +8345,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>308</v>
@@ -8347,9 +8359,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>308</v>
@@ -8364,9 +8376,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>308</v>
@@ -8378,9 +8390,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>308</v>
@@ -8393,26 +8405,27 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="2" width="20.14"/>
-    <col customWidth="1" min="3" max="3" width="24.14"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8429,9 +8442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>309</v>
@@ -8440,9 +8453,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>309</v>
@@ -8451,9 +8464,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>309</v>
@@ -8462,9 +8475,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>309</v>
@@ -8473,9 +8486,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>303</v>
@@ -8484,9 +8497,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>303</v>
@@ -8495,9 +8508,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>303</v>
@@ -8506,9 +8519,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>303</v>
@@ -8517,9 +8530,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>303</v>
@@ -8528,9 +8541,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>303</v>
@@ -8539,9 +8552,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>303</v>
@@ -8550,9 +8563,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>303</v>
@@ -8561,9 +8574,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>303</v>
@@ -8572,9 +8585,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>311</v>
@@ -8583,9 +8596,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>311</v>
@@ -8594,9 +8607,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>311</v>
@@ -8605,9 +8618,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>311</v>
@@ -8616,9 +8629,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>311</v>
@@ -8627,9 +8640,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>311</v>
@@ -8638,9 +8651,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>311</v>
@@ -8649,9 +8662,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>305</v>
@@ -8660,9 +8673,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>305</v>
@@ -8674,9 +8687,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>305</v>
@@ -8685,9 +8698,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>305</v>
@@ -8696,9 +8709,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>305</v>
@@ -8707,9 +8720,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>305</v>
@@ -8718,9 +8731,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>305</v>
@@ -8732,9 +8745,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>305</v>
@@ -8746,9 +8759,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>305</v>
@@ -8757,9 +8770,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>305</v>
@@ -8771,9 +8784,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>305</v>
@@ -8785,9 +8798,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>305</v>
@@ -8799,9 +8812,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>305</v>
@@ -8813,9 +8826,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>305</v>
@@ -8824,9 +8837,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>305</v>
@@ -8838,9 +8851,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>305</v>
@@ -8849,9 +8862,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>305</v>
@@ -8863,9 +8876,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>312</v>
@@ -8874,9 +8887,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>312</v>
@@ -8888,9 +8901,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>312</v>
@@ -8899,9 +8912,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>312</v>
@@ -8910,9 +8923,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>312</v>
@@ -8921,9 +8934,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>312</v>
@@ -8935,9 +8948,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>313</v>
@@ -8952,9 +8965,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>313</v>
@@ -8966,9 +8979,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>313</v>
@@ -8980,9 +8993,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>313</v>
@@ -8994,9 +9007,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>313</v>
@@ -9008,9 +9021,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>313</v>
@@ -9022,9 +9035,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>313</v>
@@ -9036,9 +9049,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>313</v>
@@ -9047,9 +9060,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>313</v>
@@ -9061,9 +9074,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>313</v>
@@ -9075,9 +9088,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>313</v>
@@ -9089,9 +9102,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>313</v>
@@ -9106,9 +9119,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>313</v>
@@ -9123,9 +9136,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>313</v>
@@ -9140,9 +9153,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>313</v>
@@ -9157,9 +9170,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>313</v>
@@ -9171,9 +9184,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>313</v>
@@ -9188,9 +9201,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>313</v>
@@ -9199,9 +9212,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>313</v>
@@ -9216,9 +9229,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>313</v>
@@ -9227,9 +9240,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>313</v>
@@ -9238,9 +9251,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>313</v>
@@ -9249,9 +9262,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>313</v>
@@ -9266,9 +9279,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>313</v>
@@ -9277,9 +9290,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>313</v>
@@ -9288,9 +9301,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>313</v>
@@ -9299,9 +9312,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>313</v>
@@ -9313,9 +9326,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>313</v>
@@ -9327,9 +9340,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>313</v>
@@ -9341,9 +9354,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>313</v>
@@ -9355,9 +9368,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>313</v>
@@ -9369,9 +9382,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>313</v>
@@ -9380,9 +9393,9 @@
         <v>406</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>313</v>
@@ -9394,9 +9407,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>313</v>
@@ -9405,9 +9418,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>313</v>
@@ -9419,9 +9432,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>313</v>
@@ -9436,9 +9449,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>314</v>
@@ -9447,9 +9460,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>314</v>
@@ -9464,9 +9477,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>314</v>
@@ -9478,9 +9491,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>314</v>
@@ -9495,9 +9508,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>314</v>
@@ -9509,9 +9522,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>314</v>
@@ -9523,9 +9536,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>314</v>
@@ -9537,9 +9550,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>314</v>
@@ -9554,9 +9567,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>314</v>
@@ -9568,9 +9581,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>314</v>
@@ -9582,9 +9595,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>314</v>
@@ -9596,9 +9609,9 @@
         <v>422</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>314</v>
@@ -9610,9 +9623,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>314</v>
@@ -9624,9 +9637,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>314</v>
@@ -9638,9 +9651,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>205</v>
@@ -9649,9 +9662,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>205</v>
@@ -9660,9 +9673,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>205</v>
@@ -9672,6 +9685,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/menu/menu.xlsx
+++ b/src/assets/menu/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/translucenttree/Coding/business/sushi-ai/src/assets/menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D5C30-65AA-234C-9748-59AAC8DF8F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B0D4E1-B2C2-3940-9E1F-06CEA763609A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dishes" sheetId="1" r:id="rId1"/>
@@ -1314,15 +1314,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1592,8 +1595,8 @@
   </sheetPr>
   <dimension ref="A1:E1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2434,7 +2437,7 @@
         <v>88</v>
       </c>
       <c r="D53" s="2">
-        <v>6.99</v>
+        <v>8.99</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>89</v>

--- a/src/assets/menu/menu.xlsx
+++ b/src/assets/menu/menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/translucenttree/Coding/business/sushi-ai/src/assets/menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B0D4E1-B2C2-3940-9E1F-06CEA763609A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE116677-A2D6-D147-9757-63900AE66782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dishes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="423">
   <si>
     <t>order</t>
   </si>
@@ -643,9 +643,6 @@
     <t>Tempura Oreo (5)</t>
   </si>
   <si>
-    <t>Deep fried oreo cookies wit tempura breading and whipped cream</t>
-  </si>
-  <si>
     <t>Bento Box</t>
   </si>
   <si>
@@ -1156,9 +1153,6 @@
     <t>Yellowtail</t>
   </si>
   <si>
-    <t>Ika Salad</t>
-  </si>
-  <si>
     <t>Salmon, cream cheese, and scallions</t>
   </si>
   <si>
@@ -1276,9 +1270,6 @@
     <t>Shrimp tempura, cucumber, and avocado topped with crunch</t>
   </si>
   <si>
-    <t>Mango</t>
-  </si>
-  <si>
     <t>Green Tea</t>
   </si>
   <si>
@@ -1298,6 +1289,9 @@
   </si>
   <si>
     <t>Served with 6 pieces of California Roll, vegetable tempura, shumai, crab rangoon, spring roll, white rice, salad, and miso soup. Substitute with fried rice for $2.95.</t>
+  </si>
+  <si>
+    <t>Deep fried oreo cookies with tempura breading and whipped cream</t>
   </si>
 </sst>
 </file>
@@ -1595,8 +1589,8 @@
   </sheetPr>
   <dimension ref="A1:E1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3687,7 +3681,7 @@
         <v>188</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D135" s="2">
         <v>14.95</v>
@@ -3814,7 +3808,7 @@
         <v>5.95</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>206</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -3822,7 +3816,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>189</v>
@@ -3836,7 +3830,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>164</v>
@@ -3850,7 +3844,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>190</v>
@@ -3864,7 +3858,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>165</v>
@@ -3878,7 +3872,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>191</v>
@@ -3892,7 +3886,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>166</v>
@@ -3906,7 +3900,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>192</v>
@@ -3920,7 +3914,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>167</v>
@@ -3934,7 +3928,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>193</v>
@@ -3948,7 +3942,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>194</v>
@@ -3962,7 +3956,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>197</v>
@@ -3979,7 +3973,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>30</v>
@@ -3993,7 +3987,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>173</v>
@@ -4007,7 +4001,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>141</v>
@@ -4021,7 +4015,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>138</v>
@@ -4035,7 +4029,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>50</v>
@@ -4049,10 +4043,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D160" s="2">
         <v>14.95</v>
@@ -4063,7 +4057,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>139</v>
@@ -4077,7 +4071,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>141</v>
@@ -4091,7 +4085,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>30</v>
@@ -4105,7 +4099,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>138</v>
@@ -4119,10 +4113,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D165" s="2">
         <v>15.95</v>
@@ -4133,7 +4127,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>139</v>
@@ -4147,7 +4141,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>50</v>
@@ -4161,16 +4155,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D168" s="2">
         <v>12.95</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4178,16 +4172,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D169" s="2">
         <v>14.95</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4195,16 +4189,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D170" s="2">
         <v>14.75</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4212,16 +4206,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D171" s="2">
         <v>14.95</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4229,16 +4223,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D172" s="2">
         <v>12.55</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4246,16 +4240,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D173" s="2">
         <v>14.75</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4263,16 +4257,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D174" s="2">
         <v>14.55</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4280,16 +4274,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D175" s="2">
         <v>15.75</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4297,16 +4291,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D176" s="2">
         <v>14.75</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4314,16 +4308,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D177" s="2">
         <v>14.75</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4331,16 +4325,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D178" s="2">
         <v>12.95</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4348,16 +4342,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D179" s="2">
         <v>12.95</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4365,16 +4359,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D180" s="2">
         <v>15.95</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4382,16 +4376,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D181" s="2">
         <v>15.95</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4399,16 +4393,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D182" s="2">
         <v>16.95</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4416,16 +4410,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D183" s="2">
         <v>13.85</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4433,16 +4427,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D184" s="2">
         <v>14.95</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4450,16 +4444,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D185" s="2">
         <v>13.49</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4467,16 +4461,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D186" s="2">
         <v>29.95</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4484,16 +4478,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D187" s="3">
         <v>19.95</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4501,16 +4495,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D188" s="2">
         <v>12.49</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4518,16 +4512,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D189" s="2">
         <v>13.49</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4535,16 +4529,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D190" s="2">
         <v>12.95</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4552,16 +4546,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D191" s="2">
         <v>12.95</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4569,16 +4563,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D192" s="2">
         <v>13.95</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4586,16 +4580,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D193" s="2">
         <v>9.9499999999999993</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4603,16 +4597,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D194" s="2">
         <v>10.95</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4620,16 +4614,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D195" s="5">
         <v>11.95</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4637,16 +4631,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D196" s="5">
         <v>10.75</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4654,16 +4648,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D197" s="5">
         <v>10.55</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4671,16 +4665,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D198" s="5">
         <v>10.55</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4688,16 +4682,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D199" s="5">
         <v>10.49</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4705,16 +4699,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D200" s="5">
         <v>10.49</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4722,16 +4716,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D201" s="5">
         <v>10.49</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4739,16 +4733,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D202" s="5">
         <v>10.55</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4756,16 +4750,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D203" s="5">
         <v>10.49</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4773,16 +4767,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D204" s="5">
         <v>10.95</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -4790,16 +4784,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D205" s="5">
         <v>12.49</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -7252,7 +7246,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -7266,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7277,7 +7271,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7288,10 +7282,10 @@
         <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7302,7 +7296,7 @@
         <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7313,10 +7307,10 @@
         <v>137</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7327,10 +7321,10 @@
         <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7341,10 +7335,10 @@
         <v>163</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7355,10 +7349,10 @@
         <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7369,10 +7363,10 @@
         <v>172</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7383,7 +7377,7 @@
         <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7394,7 +7388,7 @@
         <v>183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7405,10 +7399,10 @@
         <v>188</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7419,7 +7413,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7427,13 +7421,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7441,10 +7435,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7452,13 +7446,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7466,10 +7460,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7477,10 +7471,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7488,10 +7482,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7499,10 +7493,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7510,10 +7504,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7521,10 +7515,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7532,10 +7526,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7543,10 +7537,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7554,10 +7548,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7565,10 +7559,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7576,10 +7570,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7587,10 +7581,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7598,10 +7592,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7609,10 +7603,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7620,10 +7614,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7631,10 +7625,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7642,10 +7636,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7656,7 +7650,7 @@
         <v>203</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7671,7 +7665,9 @@
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7691,7 +7687,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -7702,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -7713,7 +7709,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -7724,10 +7720,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7735,10 +7731,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7746,10 +7742,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7757,10 +7753,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7768,10 +7764,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7779,10 +7775,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7790,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7801,7 +7797,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>50</v>
@@ -7812,7 +7808,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>52</v>
@@ -7823,7 +7819,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>56</v>
@@ -7834,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>69</v>
@@ -7845,7 +7841,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -7856,10 +7852,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7867,10 +7863,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7878,13 +7874,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7892,13 +7888,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7906,13 +7902,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7920,13 +7916,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7934,13 +7930,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7948,13 +7944,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7962,13 +7958,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7976,10 +7972,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7987,16 +7983,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8004,13 +8000,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8018,16 +8014,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8035,16 +8031,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8052,13 +8048,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8066,10 +8062,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8077,13 +8073,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8091,13 +8087,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8105,10 +8101,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8116,10 +8112,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8127,13 +8123,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8141,13 +8137,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8155,10 +8151,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8166,13 +8162,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8180,10 +8176,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8191,13 +8187,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8205,10 +8201,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8216,13 +8212,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8230,13 +8226,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8244,16 +8240,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8261,13 +8257,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8275,13 +8271,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8289,10 +8285,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8300,13 +8296,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8314,16 +8310,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8331,13 +8327,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8345,16 +8341,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8362,13 +8358,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8376,13 +8372,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8390,16 +8386,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8407,13 +8403,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -8421,13 +8417,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -8442,7 +8438,9 @@
   </sheetPr>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8462,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -8473,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -8484,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -8495,10 +8493,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8506,10 +8504,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8517,10 +8515,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8528,10 +8526,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8539,10 +8537,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8550,10 +8548,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8561,10 +8559,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8572,10 +8570,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8583,10 +8581,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8594,10 +8592,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8605,10 +8603,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8616,10 +8614,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8627,10 +8625,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8638,10 +8636,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8649,10 +8647,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8660,10 +8658,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8671,10 +8669,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8682,10 +8680,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8693,7 +8691,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>52</v>
@@ -8704,13 +8702,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8718,7 +8716,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>56</v>
@@ -8729,10 +8727,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8740,7 +8738,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>62</v>
@@ -8751,7 +8749,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>69</v>
@@ -8762,13 +8760,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8776,13 +8774,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8790,7 +8788,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>15</v>
@@ -8801,13 +8799,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8815,13 +8813,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8829,13 +8827,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8843,13 +8841,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8857,7 +8855,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>50</v>
@@ -8868,13 +8866,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8882,10 +8880,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8893,13 +8891,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8907,7 +8905,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -8918,13 +8916,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8932,7 +8930,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>77</v>
@@ -8943,10 +8941,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>377</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8954,10 +8952,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8968,10 +8969,13 @@
         <v>305</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>66</v>
+        <v>319</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8979,13 +8983,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>378</v>
@@ -8996,13 +8997,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9010,13 +9011,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9024,13 +9025,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9038,13 +9039,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>383</v>
+        <v>102</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9052,13 +9053,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>102</v>
+        <v>353</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9066,13 +9067,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9080,10 +9078,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>319</v>
+        <v>114</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9091,13 +9092,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9105,13 +9106,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9119,13 +9120,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9133,16 +9137,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9150,16 +9154,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9167,16 +9171,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>318</v>
+        <v>387</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9184,16 +9188,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9201,13 +9202,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9215,16 +9219,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9232,9 +9230,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9243,16 +9247,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>395</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9260,10 +9258,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9271,10 +9269,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9282,10 +9280,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>338</v>
+        <v>361</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9293,16 +9297,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9310,10 +9308,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9321,10 +9319,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>336</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9332,10 +9330,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>127</v>
+        <v>359</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9343,13 +9344,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9357,13 +9358,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>330</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9371,13 +9372,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>397</v>
+        <v>141</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9385,13 +9386,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9399,13 +9400,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9413,10 +9411,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>399</v>
+        <v>341</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9424,13 +9425,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9438,10 +9436,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>352</v>
+        <v>76</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9449,13 +9450,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>318</v>
+        <v>398</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9466,13 +9470,7 @@
         <v>306</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9480,10 +9478,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>350</v>
+        <v>400</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9491,16 +9495,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9508,13 +9509,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>262</v>
+        <v>343</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9522,16 +9526,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9539,13 +9540,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>131</v>
+        <v>404</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9553,13 +9554,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9567,10 +9568,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>232</v>
+        <v>407</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>408</v>
@@ -9581,16 +9585,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="E88" s="4" t="s">
-        <v>410</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9598,13 +9599,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9612,7 +9613,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>412</v>
@@ -9626,13 +9627,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9640,13 +9641,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -9654,61 +9655,42 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>416</v>
+      <c r="B94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>417</v>
+      <c r="C95" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/menu/menu.xlsx
+++ b/src/assets/menu/menu.xlsx
@@ -662,7 +662,7 @@
     <t>Tempura Oreo (5)</t>
   </si>
   <si>
-    <t>Deep fried oreo cookies wit tempura breading and whipped cream</t>
+    <t>Deep fried oreo cookies with tempura breading and whipped cream</t>
   </si>
   <si>
     <t>Bento Box</t>
@@ -1409,7 +1409,7 @@
       <name val="&quot;Arial&quot;"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1428,8 +1428,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1439,16 +1451,91 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,7 +1545,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1480,28 +1567,64 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1533,7 +1656,10 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff346ac3"/>
+      <rgbColor rgb="fff4a19a"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1732,12 +1858,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1769,10 +1895,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2011,12 +2137,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2320,10 +2446,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2970,7 +3096,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="10">
-        <v>6.95</v>
+        <v>7.95</v>
       </c>
       <c r="E18" t="s" s="7">
         <v>37</v>
@@ -3164,7 +3290,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="10">
-        <v>5.95</v>
+        <v>5.75</v>
       </c>
       <c r="E30" t="s" s="7">
         <v>57</v>
@@ -3833,7 +3959,7 @@
         <v>124</v>
       </c>
       <c r="D71" s="10">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="E71" s="11"/>
     </row>
@@ -4328,49 +4454,49 @@
       <c r="E101" s="11"/>
     </row>
     <row r="102" ht="13.65" customHeight="1">
-      <c r="A102" s="9">
+      <c r="A102" s="12">
         <v>101</v>
       </c>
-      <c r="B102" t="s" s="7">
+      <c r="B102" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="C102" t="s" s="7">
+      <c r="C102" t="s" s="13">
         <v>175</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="14">
         <v>17.95</v>
       </c>
-      <c r="E102" s="11"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" ht="13.65" customHeight="1">
-      <c r="A103" s="9">
+      <c r="A103" s="16">
         <v>102</v>
       </c>
-      <c r="B103" t="s" s="7">
+      <c r="B103" t="s" s="17">
         <v>171</v>
       </c>
-      <c r="C103" t="s" s="7">
+      <c r="C103" t="s" s="17">
         <v>176</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="18">
         <v>18.95</v>
       </c>
-      <c r="E103" s="11"/>
+      <c r="E103" s="19"/>
     </row>
     <row r="104" ht="13.65" customHeight="1">
-      <c r="A104" s="9">
+      <c r="A104" s="20">
         <v>103</v>
       </c>
-      <c r="B104" t="s" s="7">
+      <c r="B104" t="s" s="21">
         <v>177</v>
       </c>
-      <c r="C104" t="s" s="7">
+      <c r="C104" t="s" s="21">
         <v>56</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="22">
         <v>13.95</v>
       </c>
-      <c r="E104" s="11"/>
+      <c r="E104" s="23"/>
     </row>
     <row r="105" ht="13.65" customHeight="1">
       <c r="A105" s="9">
@@ -4670,7 +4796,7 @@
       <c r="B124" t="s" s="7">
         <v>198</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="24">
         <v>172</v>
       </c>
       <c r="D124" s="10">
@@ -4993,7 +5119,7 @@
       <c r="B145" t="s" s="7">
         <v>216</v>
       </c>
-      <c r="C145" t="s" s="12">
+      <c r="C145" t="s" s="24">
         <v>172</v>
       </c>
       <c r="D145" s="10">
@@ -5747,7 +5873,7 @@
       <c r="C192" t="s" s="7">
         <v>272</v>
       </c>
-      <c r="D192" s="13">
+      <c r="D192" s="25">
         <v>19.95</v>
       </c>
       <c r="E192" t="s" s="7">
@@ -6064,5642 +6190,5642 @@
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
-      <c r="D211" s="14"/>
+      <c r="D211" s="26"/>
       <c r="E211" s="11"/>
     </row>
     <row r="212" ht="13.65" customHeight="1">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
-      <c r="D212" s="14"/>
+      <c r="D212" s="26"/>
       <c r="E212" s="11"/>
     </row>
     <row r="213" ht="13.65" customHeight="1">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
-      <c r="D213" s="14"/>
+      <c r="D213" s="26"/>
       <c r="E213" s="11"/>
     </row>
     <row r="214" ht="13.65" customHeight="1">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
-      <c r="D214" s="14"/>
+      <c r="D214" s="26"/>
       <c r="E214" s="11"/>
     </row>
     <row r="215" ht="13.65" customHeight="1">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
-      <c r="D215" s="14"/>
+      <c r="D215" s="26"/>
       <c r="E215" s="11"/>
     </row>
     <row r="216" ht="13.65" customHeight="1">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
-      <c r="D216" s="14"/>
+      <c r="D216" s="26"/>
       <c r="E216" s="11"/>
     </row>
     <row r="217" ht="13.65" customHeight="1">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
-      <c r="D217" s="14"/>
+      <c r="D217" s="26"/>
       <c r="E217" s="11"/>
     </row>
     <row r="218" ht="13.65" customHeight="1">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
-      <c r="D218" s="14"/>
+      <c r="D218" s="26"/>
       <c r="E218" s="11"/>
     </row>
     <row r="219" ht="13.65" customHeight="1">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
-      <c r="D219" s="14"/>
+      <c r="D219" s="26"/>
       <c r="E219" s="11"/>
     </row>
     <row r="220" ht="13.65" customHeight="1">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
-      <c r="D220" s="14"/>
+      <c r="D220" s="26"/>
       <c r="E220" s="11"/>
     </row>
     <row r="221" ht="13.65" customHeight="1">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
-      <c r="D221" s="14"/>
+      <c r="D221" s="26"/>
       <c r="E221" s="11"/>
     </row>
     <row r="222" ht="13.65" customHeight="1">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
-      <c r="D222" s="14"/>
+      <c r="D222" s="26"/>
       <c r="E222" s="11"/>
     </row>
     <row r="223" ht="13.65" customHeight="1">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
-      <c r="D223" s="14"/>
+      <c r="D223" s="26"/>
       <c r="E223" s="11"/>
     </row>
     <row r="224" ht="13.65" customHeight="1">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
-      <c r="D224" s="14"/>
+      <c r="D224" s="26"/>
       <c r="E224" s="11"/>
     </row>
     <row r="225" ht="13.65" customHeight="1">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
-      <c r="D225" s="14"/>
+      <c r="D225" s="26"/>
       <c r="E225" s="11"/>
     </row>
     <row r="226" ht="13.65" customHeight="1">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
-      <c r="D226" s="14"/>
+      <c r="D226" s="26"/>
       <c r="E226" s="11"/>
     </row>
     <row r="227" ht="13.65" customHeight="1">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
-      <c r="D227" s="14"/>
+      <c r="D227" s="26"/>
       <c r="E227" s="11"/>
     </row>
     <row r="228" ht="13.65" customHeight="1">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
-      <c r="D228" s="14"/>
+      <c r="D228" s="26"/>
       <c r="E228" s="11"/>
     </row>
     <row r="229" ht="13.65" customHeight="1">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
-      <c r="D229" s="14"/>
+      <c r="D229" s="26"/>
       <c r="E229" s="11"/>
     </row>
     <row r="230" ht="13.65" customHeight="1">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
-      <c r="D230" s="14"/>
+      <c r="D230" s="26"/>
       <c r="E230" s="11"/>
     </row>
     <row r="231" ht="13.65" customHeight="1">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
-      <c r="D231" s="14"/>
+      <c r="D231" s="26"/>
       <c r="E231" s="11"/>
     </row>
     <row r="232" ht="13.65" customHeight="1">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
-      <c r="D232" s="14"/>
+      <c r="D232" s="26"/>
       <c r="E232" s="11"/>
     </row>
     <row r="233" ht="13.65" customHeight="1">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
-      <c r="D233" s="14"/>
+      <c r="D233" s="26"/>
       <c r="E233" s="11"/>
     </row>
     <row r="234" ht="13.65" customHeight="1">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
-      <c r="D234" s="14"/>
+      <c r="D234" s="26"/>
       <c r="E234" s="11"/>
     </row>
     <row r="235" ht="13.65" customHeight="1">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
-      <c r="D235" s="14"/>
+      <c r="D235" s="26"/>
       <c r="E235" s="11"/>
     </row>
     <row r="236" ht="13.65" customHeight="1">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
-      <c r="D236" s="14"/>
+      <c r="D236" s="26"/>
       <c r="E236" s="11"/>
     </row>
     <row r="237" ht="13.65" customHeight="1">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
-      <c r="D237" s="14"/>
+      <c r="D237" s="26"/>
       <c r="E237" s="11"/>
     </row>
     <row r="238" ht="13.65" customHeight="1">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
-      <c r="D238" s="14"/>
+      <c r="D238" s="26"/>
       <c r="E238" s="11"/>
     </row>
     <row r="239" ht="13.65" customHeight="1">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
-      <c r="D239" s="14"/>
+      <c r="D239" s="26"/>
       <c r="E239" s="11"/>
     </row>
     <row r="240" ht="13.65" customHeight="1">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
-      <c r="D240" s="14"/>
+      <c r="D240" s="26"/>
       <c r="E240" s="11"/>
     </row>
     <row r="241" ht="13.65" customHeight="1">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
-      <c r="D241" s="14"/>
+      <c r="D241" s="26"/>
       <c r="E241" s="11"/>
     </row>
     <row r="242" ht="13.65" customHeight="1">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
-      <c r="D242" s="14"/>
+      <c r="D242" s="26"/>
       <c r="E242" s="11"/>
     </row>
     <row r="243" ht="13.65" customHeight="1">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
-      <c r="D243" s="14"/>
+      <c r="D243" s="26"/>
       <c r="E243" s="11"/>
     </row>
     <row r="244" ht="13.65" customHeight="1">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
-      <c r="D244" s="14"/>
+      <c r="D244" s="26"/>
       <c r="E244" s="11"/>
     </row>
     <row r="245" ht="13.65" customHeight="1">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
-      <c r="D245" s="14"/>
+      <c r="D245" s="26"/>
       <c r="E245" s="11"/>
     </row>
     <row r="246" ht="13.65" customHeight="1">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
-      <c r="D246" s="14"/>
+      <c r="D246" s="26"/>
       <c r="E246" s="11"/>
     </row>
     <row r="247" ht="13.65" customHeight="1">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
-      <c r="D247" s="14"/>
+      <c r="D247" s="26"/>
       <c r="E247" s="11"/>
     </row>
     <row r="248" ht="13.65" customHeight="1">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
-      <c r="D248" s="14"/>
+      <c r="D248" s="26"/>
       <c r="E248" s="11"/>
     </row>
     <row r="249" ht="13.65" customHeight="1">
       <c r="A249" s="11"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
-      <c r="D249" s="14"/>
+      <c r="D249" s="26"/>
       <c r="E249" s="11"/>
     </row>
     <row r="250" ht="13.65" customHeight="1">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
-      <c r="D250" s="14"/>
+      <c r="D250" s="26"/>
       <c r="E250" s="11"/>
     </row>
     <row r="251" ht="13.65" customHeight="1">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
-      <c r="D251" s="14"/>
+      <c r="D251" s="26"/>
       <c r="E251" s="11"/>
     </row>
     <row r="252" ht="13.65" customHeight="1">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
-      <c r="D252" s="14"/>
+      <c r="D252" s="26"/>
       <c r="E252" s="11"/>
     </row>
     <row r="253" ht="13.65" customHeight="1">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
-      <c r="D253" s="14"/>
+      <c r="D253" s="26"/>
       <c r="E253" s="11"/>
     </row>
     <row r="254" ht="13.65" customHeight="1">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
-      <c r="D254" s="14"/>
+      <c r="D254" s="26"/>
       <c r="E254" s="11"/>
     </row>
     <row r="255" ht="13.65" customHeight="1">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
-      <c r="D255" s="14"/>
+      <c r="D255" s="26"/>
       <c r="E255" s="11"/>
     </row>
     <row r="256" ht="13.65" customHeight="1">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
-      <c r="D256" s="14"/>
+      <c r="D256" s="26"/>
       <c r="E256" s="11"/>
     </row>
     <row r="257" ht="13.65" customHeight="1">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
-      <c r="D257" s="14"/>
+      <c r="D257" s="26"/>
       <c r="E257" s="11"/>
     </row>
     <row r="258" ht="13.65" customHeight="1">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
-      <c r="D258" s="14"/>
+      <c r="D258" s="26"/>
       <c r="E258" s="11"/>
     </row>
     <row r="259" ht="13.65" customHeight="1">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
-      <c r="D259" s="14"/>
+      <c r="D259" s="26"/>
       <c r="E259" s="11"/>
     </row>
     <row r="260" ht="13.65" customHeight="1">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
-      <c r="D260" s="14"/>
+      <c r="D260" s="26"/>
       <c r="E260" s="11"/>
     </row>
     <row r="261" ht="13.65" customHeight="1">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
-      <c r="D261" s="14"/>
+      <c r="D261" s="26"/>
       <c r="E261" s="11"/>
     </row>
     <row r="262" ht="13.65" customHeight="1">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
-      <c r="D262" s="14"/>
+      <c r="D262" s="26"/>
       <c r="E262" s="11"/>
     </row>
     <row r="263" ht="13.65" customHeight="1">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
-      <c r="D263" s="14"/>
+      <c r="D263" s="26"/>
       <c r="E263" s="11"/>
     </row>
     <row r="264" ht="13.65" customHeight="1">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
-      <c r="D264" s="14"/>
+      <c r="D264" s="26"/>
       <c r="E264" s="11"/>
     </row>
     <row r="265" ht="13.65" customHeight="1">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
-      <c r="D265" s="14"/>
+      <c r="D265" s="26"/>
       <c r="E265" s="11"/>
     </row>
     <row r="266" ht="13.65" customHeight="1">
       <c r="A266" s="11"/>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
-      <c r="D266" s="14"/>
+      <c r="D266" s="26"/>
       <c r="E266" s="11"/>
     </row>
     <row r="267" ht="13.65" customHeight="1">
       <c r="A267" s="11"/>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
-      <c r="D267" s="14"/>
+      <c r="D267" s="26"/>
       <c r="E267" s="11"/>
     </row>
     <row r="268" ht="13.65" customHeight="1">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
-      <c r="D268" s="14"/>
+      <c r="D268" s="26"/>
       <c r="E268" s="11"/>
     </row>
     <row r="269" ht="13.65" customHeight="1">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
-      <c r="D269" s="14"/>
+      <c r="D269" s="26"/>
       <c r="E269" s="11"/>
     </row>
     <row r="270" ht="13.65" customHeight="1">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
-      <c r="D270" s="14"/>
+      <c r="D270" s="26"/>
       <c r="E270" s="11"/>
     </row>
     <row r="271" ht="13.65" customHeight="1">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
-      <c r="D271" s="14"/>
+      <c r="D271" s="26"/>
       <c r="E271" s="11"/>
     </row>
     <row r="272" ht="13.65" customHeight="1">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
-      <c r="D272" s="14"/>
+      <c r="D272" s="26"/>
       <c r="E272" s="11"/>
     </row>
     <row r="273" ht="13.65" customHeight="1">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
-      <c r="D273" s="14"/>
+      <c r="D273" s="26"/>
       <c r="E273" s="11"/>
     </row>
     <row r="274" ht="13.65" customHeight="1">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
-      <c r="D274" s="14"/>
+      <c r="D274" s="26"/>
       <c r="E274" s="11"/>
     </row>
     <row r="275" ht="13.65" customHeight="1">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
-      <c r="D275" s="14"/>
+      <c r="D275" s="26"/>
       <c r="E275" s="11"/>
     </row>
     <row r="276" ht="13.65" customHeight="1">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
-      <c r="D276" s="14"/>
+      <c r="D276" s="26"/>
       <c r="E276" s="11"/>
     </row>
     <row r="277" ht="13.65" customHeight="1">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
-      <c r="D277" s="14"/>
+      <c r="D277" s="26"/>
       <c r="E277" s="11"/>
     </row>
     <row r="278" ht="13.65" customHeight="1">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
-      <c r="D278" s="14"/>
+      <c r="D278" s="26"/>
       <c r="E278" s="11"/>
     </row>
     <row r="279" ht="13.65" customHeight="1">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
-      <c r="D279" s="14"/>
+      <c r="D279" s="26"/>
       <c r="E279" s="11"/>
     </row>
     <row r="280" ht="13.65" customHeight="1">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
-      <c r="D280" s="14"/>
+      <c r="D280" s="26"/>
       <c r="E280" s="11"/>
     </row>
     <row r="281" ht="13.65" customHeight="1">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
-      <c r="D281" s="14"/>
+      <c r="D281" s="26"/>
       <c r="E281" s="11"/>
     </row>
     <row r="282" ht="13.65" customHeight="1">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
-      <c r="D282" s="14"/>
+      <c r="D282" s="26"/>
       <c r="E282" s="11"/>
     </row>
     <row r="283" ht="13.65" customHeight="1">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
-      <c r="D283" s="14"/>
+      <c r="D283" s="26"/>
       <c r="E283" s="11"/>
     </row>
     <row r="284" ht="13.65" customHeight="1">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
-      <c r="D284" s="14"/>
+      <c r="D284" s="26"/>
       <c r="E284" s="11"/>
     </row>
     <row r="285" ht="13.65" customHeight="1">
       <c r="A285" s="11"/>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
-      <c r="D285" s="14"/>
+      <c r="D285" s="26"/>
       <c r="E285" s="11"/>
     </row>
     <row r="286" ht="13.65" customHeight="1">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
-      <c r="D286" s="14"/>
+      <c r="D286" s="26"/>
       <c r="E286" s="11"/>
     </row>
     <row r="287" ht="13.65" customHeight="1">
       <c r="A287" s="11"/>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
-      <c r="D287" s="14"/>
+      <c r="D287" s="26"/>
       <c r="E287" s="11"/>
     </row>
     <row r="288" ht="13.65" customHeight="1">
       <c r="A288" s="11"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
-      <c r="D288" s="14"/>
+      <c r="D288" s="26"/>
       <c r="E288" s="11"/>
     </row>
     <row r="289" ht="13.65" customHeight="1">
       <c r="A289" s="11"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
-      <c r="D289" s="14"/>
+      <c r="D289" s="26"/>
       <c r="E289" s="11"/>
     </row>
     <row r="290" ht="13.65" customHeight="1">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
-      <c r="D290" s="14"/>
+      <c r="D290" s="26"/>
       <c r="E290" s="11"/>
     </row>
     <row r="291" ht="13.65" customHeight="1">
       <c r="A291" s="11"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
-      <c r="D291" s="14"/>
+      <c r="D291" s="26"/>
       <c r="E291" s="11"/>
     </row>
     <row r="292" ht="13.65" customHeight="1">
       <c r="A292" s="11"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
-      <c r="D292" s="14"/>
+      <c r="D292" s="26"/>
       <c r="E292" s="11"/>
     </row>
     <row r="293" ht="13.65" customHeight="1">
       <c r="A293" s="11"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
-      <c r="D293" s="14"/>
+      <c r="D293" s="26"/>
       <c r="E293" s="11"/>
     </row>
     <row r="294" ht="13.65" customHeight="1">
       <c r="A294" s="11"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
-      <c r="D294" s="14"/>
+      <c r="D294" s="26"/>
       <c r="E294" s="11"/>
     </row>
     <row r="295" ht="13.65" customHeight="1">
       <c r="A295" s="11"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
-      <c r="D295" s="14"/>
+      <c r="D295" s="26"/>
       <c r="E295" s="11"/>
     </row>
     <row r="296" ht="13.65" customHeight="1">
       <c r="A296" s="11"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
-      <c r="D296" s="14"/>
+      <c r="D296" s="26"/>
       <c r="E296" s="11"/>
     </row>
     <row r="297" ht="13.65" customHeight="1">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
-      <c r="D297" s="14"/>
+      <c r="D297" s="26"/>
       <c r="E297" s="11"/>
     </row>
     <row r="298" ht="13.65" customHeight="1">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
-      <c r="D298" s="14"/>
+      <c r="D298" s="26"/>
       <c r="E298" s="11"/>
     </row>
     <row r="299" ht="13.65" customHeight="1">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
-      <c r="D299" s="14"/>
+      <c r="D299" s="26"/>
       <c r="E299" s="11"/>
     </row>
     <row r="300" ht="13.65" customHeight="1">
       <c r="A300" s="11"/>
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
-      <c r="D300" s="14"/>
+      <c r="D300" s="26"/>
       <c r="E300" s="11"/>
     </row>
     <row r="301" ht="13.65" customHeight="1">
       <c r="A301" s="11"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
-      <c r="D301" s="14"/>
+      <c r="D301" s="26"/>
       <c r="E301" s="11"/>
     </row>
     <row r="302" ht="13.65" customHeight="1">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
-      <c r="D302" s="14"/>
+      <c r="D302" s="26"/>
       <c r="E302" s="11"/>
     </row>
     <row r="303" ht="13.65" customHeight="1">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
-      <c r="D303" s="14"/>
+      <c r="D303" s="26"/>
       <c r="E303" s="11"/>
     </row>
     <row r="304" ht="13.65" customHeight="1">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
-      <c r="D304" s="14"/>
+      <c r="D304" s="26"/>
       <c r="E304" s="11"/>
     </row>
     <row r="305" ht="13.65" customHeight="1">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
-      <c r="D305" s="14"/>
+      <c r="D305" s="26"/>
       <c r="E305" s="11"/>
     </row>
     <row r="306" ht="13.65" customHeight="1">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
-      <c r="D306" s="14"/>
+      <c r="D306" s="26"/>
       <c r="E306" s="11"/>
     </row>
     <row r="307" ht="13.65" customHeight="1">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
-      <c r="D307" s="14"/>
+      <c r="D307" s="26"/>
       <c r="E307" s="11"/>
     </row>
     <row r="308" ht="13.65" customHeight="1">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
-      <c r="D308" s="14"/>
+      <c r="D308" s="26"/>
       <c r="E308" s="11"/>
     </row>
     <row r="309" ht="13.65" customHeight="1">
       <c r="A309" s="11"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
-      <c r="D309" s="14"/>
+      <c r="D309" s="26"/>
       <c r="E309" s="11"/>
     </row>
     <row r="310" ht="13.65" customHeight="1">
       <c r="A310" s="11"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
-      <c r="D310" s="14"/>
+      <c r="D310" s="26"/>
       <c r="E310" s="11"/>
     </row>
     <row r="311" ht="13.65" customHeight="1">
       <c r="A311" s="11"/>
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
-      <c r="D311" s="14"/>
+      <c r="D311" s="26"/>
       <c r="E311" s="11"/>
     </row>
     <row r="312" ht="13.65" customHeight="1">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
-      <c r="D312" s="14"/>
+      <c r="D312" s="26"/>
       <c r="E312" s="11"/>
     </row>
     <row r="313" ht="13.65" customHeight="1">
       <c r="A313" s="11"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
-      <c r="D313" s="14"/>
+      <c r="D313" s="26"/>
       <c r="E313" s="11"/>
     </row>
     <row r="314" ht="13.65" customHeight="1">
       <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
-      <c r="D314" s="14"/>
+      <c r="D314" s="26"/>
       <c r="E314" s="11"/>
     </row>
     <row r="315" ht="13.65" customHeight="1">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
-      <c r="D315" s="14"/>
+      <c r="D315" s="26"/>
       <c r="E315" s="11"/>
     </row>
     <row r="316" ht="13.65" customHeight="1">
       <c r="A316" s="11"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
-      <c r="D316" s="14"/>
+      <c r="D316" s="26"/>
       <c r="E316" s="11"/>
     </row>
     <row r="317" ht="13.65" customHeight="1">
       <c r="A317" s="11"/>
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
-      <c r="D317" s="14"/>
+      <c r="D317" s="26"/>
       <c r="E317" s="11"/>
     </row>
     <row r="318" ht="13.65" customHeight="1">
       <c r="A318" s="11"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
-      <c r="D318" s="14"/>
+      <c r="D318" s="26"/>
       <c r="E318" s="11"/>
     </row>
     <row r="319" ht="13.65" customHeight="1">
       <c r="A319" s="11"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
-      <c r="D319" s="14"/>
+      <c r="D319" s="26"/>
       <c r="E319" s="11"/>
     </row>
     <row r="320" ht="13.65" customHeight="1">
       <c r="A320" s="11"/>
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
-      <c r="D320" s="14"/>
+      <c r="D320" s="26"/>
       <c r="E320" s="11"/>
     </row>
     <row r="321" ht="13.65" customHeight="1">
       <c r="A321" s="11"/>
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
-      <c r="D321" s="14"/>
+      <c r="D321" s="26"/>
       <c r="E321" s="11"/>
     </row>
     <row r="322" ht="13.65" customHeight="1">
       <c r="A322" s="11"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
-      <c r="D322" s="14"/>
+      <c r="D322" s="26"/>
       <c r="E322" s="11"/>
     </row>
     <row r="323" ht="13.65" customHeight="1">
       <c r="A323" s="11"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
-      <c r="D323" s="14"/>
+      <c r="D323" s="26"/>
       <c r="E323" s="11"/>
     </row>
     <row r="324" ht="13.65" customHeight="1">
       <c r="A324" s="11"/>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
-      <c r="D324" s="14"/>
+      <c r="D324" s="26"/>
       <c r="E324" s="11"/>
     </row>
     <row r="325" ht="13.65" customHeight="1">
       <c r="A325" s="11"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
-      <c r="D325" s="14"/>
+      <c r="D325" s="26"/>
       <c r="E325" s="11"/>
     </row>
     <row r="326" ht="13.65" customHeight="1">
       <c r="A326" s="11"/>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
-      <c r="D326" s="14"/>
+      <c r="D326" s="26"/>
       <c r="E326" s="11"/>
     </row>
     <row r="327" ht="13.65" customHeight="1">
       <c r="A327" s="11"/>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
-      <c r="D327" s="14"/>
+      <c r="D327" s="26"/>
       <c r="E327" s="11"/>
     </row>
     <row r="328" ht="13.65" customHeight="1">
       <c r="A328" s="11"/>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
-      <c r="D328" s="14"/>
+      <c r="D328" s="26"/>
       <c r="E328" s="11"/>
     </row>
     <row r="329" ht="13.65" customHeight="1">
       <c r="A329" s="11"/>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
-      <c r="D329" s="14"/>
+      <c r="D329" s="26"/>
       <c r="E329" s="11"/>
     </row>
     <row r="330" ht="13.65" customHeight="1">
       <c r="A330" s="11"/>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
-      <c r="D330" s="14"/>
+      <c r="D330" s="26"/>
       <c r="E330" s="11"/>
     </row>
     <row r="331" ht="13.65" customHeight="1">
       <c r="A331" s="11"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
-      <c r="D331" s="14"/>
+      <c r="D331" s="26"/>
       <c r="E331" s="11"/>
     </row>
     <row r="332" ht="13.65" customHeight="1">
       <c r="A332" s="11"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
-      <c r="D332" s="14"/>
+      <c r="D332" s="26"/>
       <c r="E332" s="11"/>
     </row>
     <row r="333" ht="13.65" customHeight="1">
       <c r="A333" s="11"/>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
-      <c r="D333" s="14"/>
+      <c r="D333" s="26"/>
       <c r="E333" s="11"/>
     </row>
     <row r="334" ht="13.65" customHeight="1">
       <c r="A334" s="11"/>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
-      <c r="D334" s="14"/>
+      <c r="D334" s="26"/>
       <c r="E334" s="11"/>
     </row>
     <row r="335" ht="13.65" customHeight="1">
       <c r="A335" s="11"/>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
-      <c r="D335" s="14"/>
+      <c r="D335" s="26"/>
       <c r="E335" s="11"/>
     </row>
     <row r="336" ht="13.65" customHeight="1">
       <c r="A336" s="11"/>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
-      <c r="D336" s="14"/>
+      <c r="D336" s="26"/>
       <c r="E336" s="11"/>
     </row>
     <row r="337" ht="13.65" customHeight="1">
       <c r="A337" s="11"/>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
-      <c r="D337" s="14"/>
+      <c r="D337" s="26"/>
       <c r="E337" s="11"/>
     </row>
     <row r="338" ht="13.65" customHeight="1">
       <c r="A338" s="11"/>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
-      <c r="D338" s="14"/>
+      <c r="D338" s="26"/>
       <c r="E338" s="11"/>
     </row>
     <row r="339" ht="13.65" customHeight="1">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
-      <c r="D339" s="14"/>
+      <c r="D339" s="26"/>
       <c r="E339" s="11"/>
     </row>
     <row r="340" ht="13.65" customHeight="1">
       <c r="A340" s="11"/>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
-      <c r="D340" s="14"/>
+      <c r="D340" s="26"/>
       <c r="E340" s="11"/>
     </row>
     <row r="341" ht="13.65" customHeight="1">
       <c r="A341" s="11"/>
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
-      <c r="D341" s="14"/>
+      <c r="D341" s="26"/>
       <c r="E341" s="11"/>
     </row>
     <row r="342" ht="13.65" customHeight="1">
       <c r="A342" s="11"/>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
-      <c r="D342" s="14"/>
+      <c r="D342" s="26"/>
       <c r="E342" s="11"/>
     </row>
     <row r="343" ht="13.65" customHeight="1">
       <c r="A343" s="11"/>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
-      <c r="D343" s="14"/>
+      <c r="D343" s="26"/>
       <c r="E343" s="11"/>
     </row>
     <row r="344" ht="13.65" customHeight="1">
       <c r="A344" s="11"/>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
-      <c r="D344" s="14"/>
+      <c r="D344" s="26"/>
       <c r="E344" s="11"/>
     </row>
     <row r="345" ht="13.65" customHeight="1">
       <c r="A345" s="11"/>
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
-      <c r="D345" s="14"/>
+      <c r="D345" s="26"/>
       <c r="E345" s="11"/>
     </row>
     <row r="346" ht="13.65" customHeight="1">
       <c r="A346" s="11"/>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
-      <c r="D346" s="14"/>
+      <c r="D346" s="26"/>
       <c r="E346" s="11"/>
     </row>
     <row r="347" ht="13.65" customHeight="1">
       <c r="A347" s="11"/>
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
-      <c r="D347" s="14"/>
+      <c r="D347" s="26"/>
       <c r="E347" s="11"/>
     </row>
     <row r="348" ht="13.65" customHeight="1">
       <c r="A348" s="11"/>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
-      <c r="D348" s="14"/>
+      <c r="D348" s="26"/>
       <c r="E348" s="11"/>
     </row>
     <row r="349" ht="13.65" customHeight="1">
       <c r="A349" s="11"/>
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
-      <c r="D349" s="14"/>
+      <c r="D349" s="26"/>
       <c r="E349" s="11"/>
     </row>
     <row r="350" ht="13.65" customHeight="1">
       <c r="A350" s="11"/>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
-      <c r="D350" s="14"/>
+      <c r="D350" s="26"/>
       <c r="E350" s="11"/>
     </row>
     <row r="351" ht="13.65" customHeight="1">
       <c r="A351" s="11"/>
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
-      <c r="D351" s="14"/>
+      <c r="D351" s="26"/>
       <c r="E351" s="11"/>
     </row>
     <row r="352" ht="13.65" customHeight="1">
       <c r="A352" s="11"/>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
-      <c r="D352" s="14"/>
+      <c r="D352" s="26"/>
       <c r="E352" s="11"/>
     </row>
     <row r="353" ht="13.65" customHeight="1">
       <c r="A353" s="11"/>
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
-      <c r="D353" s="14"/>
+      <c r="D353" s="26"/>
       <c r="E353" s="11"/>
     </row>
     <row r="354" ht="13.65" customHeight="1">
       <c r="A354" s="11"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
-      <c r="D354" s="14"/>
+      <c r="D354" s="26"/>
       <c r="E354" s="11"/>
     </row>
     <row r="355" ht="13.65" customHeight="1">
       <c r="A355" s="11"/>
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
-      <c r="D355" s="14"/>
+      <c r="D355" s="26"/>
       <c r="E355" s="11"/>
     </row>
     <row r="356" ht="13.65" customHeight="1">
       <c r="A356" s="11"/>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
-      <c r="D356" s="14"/>
+      <c r="D356" s="26"/>
       <c r="E356" s="11"/>
     </row>
     <row r="357" ht="13.65" customHeight="1">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
-      <c r="D357" s="14"/>
+      <c r="D357" s="26"/>
       <c r="E357" s="11"/>
     </row>
     <row r="358" ht="13.65" customHeight="1">
       <c r="A358" s="11"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
-      <c r="D358" s="14"/>
+      <c r="D358" s="26"/>
       <c r="E358" s="11"/>
     </row>
     <row r="359" ht="13.65" customHeight="1">
       <c r="A359" s="11"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
-      <c r="D359" s="14"/>
+      <c r="D359" s="26"/>
       <c r="E359" s="11"/>
     </row>
     <row r="360" ht="13.65" customHeight="1">
       <c r="A360" s="11"/>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
-      <c r="D360" s="14"/>
+      <c r="D360" s="26"/>
       <c r="E360" s="11"/>
     </row>
     <row r="361" ht="13.65" customHeight="1">
       <c r="A361" s="11"/>
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
-      <c r="D361" s="14"/>
+      <c r="D361" s="26"/>
       <c r="E361" s="11"/>
     </row>
     <row r="362" ht="13.65" customHeight="1">
       <c r="A362" s="11"/>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
-      <c r="D362" s="14"/>
+      <c r="D362" s="26"/>
       <c r="E362" s="11"/>
     </row>
     <row r="363" ht="13.65" customHeight="1">
       <c r="A363" s="11"/>
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
-      <c r="D363" s="14"/>
+      <c r="D363" s="26"/>
       <c r="E363" s="11"/>
     </row>
     <row r="364" ht="13.65" customHeight="1">
       <c r="A364" s="11"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
-      <c r="D364" s="14"/>
+      <c r="D364" s="26"/>
       <c r="E364" s="11"/>
     </row>
     <row r="365" ht="13.65" customHeight="1">
       <c r="A365" s="11"/>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
-      <c r="D365" s="14"/>
+      <c r="D365" s="26"/>
       <c r="E365" s="11"/>
     </row>
     <row r="366" ht="13.65" customHeight="1">
       <c r="A366" s="11"/>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
-      <c r="D366" s="14"/>
+      <c r="D366" s="26"/>
       <c r="E366" s="11"/>
     </row>
     <row r="367" ht="13.65" customHeight="1">
       <c r="A367" s="11"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
-      <c r="D367" s="14"/>
+      <c r="D367" s="26"/>
       <c r="E367" s="11"/>
     </row>
     <row r="368" ht="13.65" customHeight="1">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
-      <c r="D368" s="14"/>
+      <c r="D368" s="26"/>
       <c r="E368" s="11"/>
     </row>
     <row r="369" ht="13.65" customHeight="1">
       <c r="A369" s="11"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
-      <c r="D369" s="14"/>
+      <c r="D369" s="26"/>
       <c r="E369" s="11"/>
     </row>
     <row r="370" ht="13.65" customHeight="1">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
-      <c r="D370" s="14"/>
+      <c r="D370" s="26"/>
       <c r="E370" s="11"/>
     </row>
     <row r="371" ht="13.65" customHeight="1">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
-      <c r="D371" s="14"/>
+      <c r="D371" s="26"/>
       <c r="E371" s="11"/>
     </row>
     <row r="372" ht="13.65" customHeight="1">
       <c r="A372" s="11"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
-      <c r="D372" s="14"/>
+      <c r="D372" s="26"/>
       <c r="E372" s="11"/>
     </row>
     <row r="373" ht="13.65" customHeight="1">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
-      <c r="D373" s="14"/>
+      <c r="D373" s="26"/>
       <c r="E373" s="11"/>
     </row>
     <row r="374" ht="13.65" customHeight="1">
       <c r="A374" s="11"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
-      <c r="D374" s="14"/>
+      <c r="D374" s="26"/>
       <c r="E374" s="11"/>
     </row>
     <row r="375" ht="13.65" customHeight="1">
       <c r="A375" s="11"/>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
-      <c r="D375" s="14"/>
+      <c r="D375" s="26"/>
       <c r="E375" s="11"/>
     </row>
     <row r="376" ht="13.65" customHeight="1">
       <c r="A376" s="11"/>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
-      <c r="D376" s="14"/>
+      <c r="D376" s="26"/>
       <c r="E376" s="11"/>
     </row>
     <row r="377" ht="13.65" customHeight="1">
       <c r="A377" s="11"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
-      <c r="D377" s="14"/>
+      <c r="D377" s="26"/>
       <c r="E377" s="11"/>
     </row>
     <row r="378" ht="13.65" customHeight="1">
       <c r="A378" s="11"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
-      <c r="D378" s="14"/>
+      <c r="D378" s="26"/>
       <c r="E378" s="11"/>
     </row>
     <row r="379" ht="13.65" customHeight="1">
       <c r="A379" s="11"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
-      <c r="D379" s="14"/>
+      <c r="D379" s="26"/>
       <c r="E379" s="11"/>
     </row>
     <row r="380" ht="13.65" customHeight="1">
       <c r="A380" s="11"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
-      <c r="D380" s="14"/>
+      <c r="D380" s="26"/>
       <c r="E380" s="11"/>
     </row>
     <row r="381" ht="13.65" customHeight="1">
       <c r="A381" s="11"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
-      <c r="D381" s="14"/>
+      <c r="D381" s="26"/>
       <c r="E381" s="11"/>
     </row>
     <row r="382" ht="13.65" customHeight="1">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
-      <c r="D382" s="14"/>
+      <c r="D382" s="26"/>
       <c r="E382" s="11"/>
     </row>
     <row r="383" ht="13.65" customHeight="1">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
-      <c r="D383" s="14"/>
+      <c r="D383" s="26"/>
       <c r="E383" s="11"/>
     </row>
     <row r="384" ht="13.65" customHeight="1">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
-      <c r="D384" s="14"/>
+      <c r="D384" s="26"/>
       <c r="E384" s="11"/>
     </row>
     <row r="385" ht="13.65" customHeight="1">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
-      <c r="D385" s="14"/>
+      <c r="D385" s="26"/>
       <c r="E385" s="11"/>
     </row>
     <row r="386" ht="13.65" customHeight="1">
       <c r="A386" s="11"/>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
-      <c r="D386" s="14"/>
+      <c r="D386" s="26"/>
       <c r="E386" s="11"/>
     </row>
     <row r="387" ht="13.65" customHeight="1">
       <c r="A387" s="11"/>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
-      <c r="D387" s="14"/>
+      <c r="D387" s="26"/>
       <c r="E387" s="11"/>
     </row>
     <row r="388" ht="13.65" customHeight="1">
       <c r="A388" s="11"/>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
-      <c r="D388" s="14"/>
+      <c r="D388" s="26"/>
       <c r="E388" s="11"/>
     </row>
     <row r="389" ht="13.65" customHeight="1">
       <c r="A389" s="11"/>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
-      <c r="D389" s="14"/>
+      <c r="D389" s="26"/>
       <c r="E389" s="11"/>
     </row>
     <row r="390" ht="13.65" customHeight="1">
       <c r="A390" s="11"/>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
-      <c r="D390" s="14"/>
+      <c r="D390" s="26"/>
       <c r="E390" s="11"/>
     </row>
     <row r="391" ht="13.65" customHeight="1">
       <c r="A391" s="11"/>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
-      <c r="D391" s="14"/>
+      <c r="D391" s="26"/>
       <c r="E391" s="11"/>
     </row>
     <row r="392" ht="13.65" customHeight="1">
       <c r="A392" s="11"/>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
-      <c r="D392" s="14"/>
+      <c r="D392" s="26"/>
       <c r="E392" s="11"/>
     </row>
     <row r="393" ht="13.65" customHeight="1">
       <c r="A393" s="11"/>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
-      <c r="D393" s="14"/>
+      <c r="D393" s="26"/>
       <c r="E393" s="11"/>
     </row>
     <row r="394" ht="13.65" customHeight="1">
       <c r="A394" s="11"/>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
-      <c r="D394" s="14"/>
+      <c r="D394" s="26"/>
       <c r="E394" s="11"/>
     </row>
     <row r="395" ht="13.65" customHeight="1">
       <c r="A395" s="11"/>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
-      <c r="D395" s="14"/>
+      <c r="D395" s="26"/>
       <c r="E395" s="11"/>
     </row>
     <row r="396" ht="13.65" customHeight="1">
       <c r="A396" s="11"/>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
-      <c r="D396" s="14"/>
+      <c r="D396" s="26"/>
       <c r="E396" s="11"/>
     </row>
     <row r="397" ht="13.65" customHeight="1">
       <c r="A397" s="11"/>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
-      <c r="D397" s="14"/>
+      <c r="D397" s="26"/>
       <c r="E397" s="11"/>
     </row>
     <row r="398" ht="13.65" customHeight="1">
       <c r="A398" s="11"/>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
-      <c r="D398" s="14"/>
+      <c r="D398" s="26"/>
       <c r="E398" s="11"/>
     </row>
     <row r="399" ht="13.65" customHeight="1">
       <c r="A399" s="11"/>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
-      <c r="D399" s="14"/>
+      <c r="D399" s="26"/>
       <c r="E399" s="11"/>
     </row>
     <row r="400" ht="13.65" customHeight="1">
       <c r="A400" s="11"/>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
-      <c r="D400" s="14"/>
+      <c r="D400" s="26"/>
       <c r="E400" s="11"/>
     </row>
     <row r="401" ht="13.65" customHeight="1">
       <c r="A401" s="11"/>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
-      <c r="D401" s="14"/>
+      <c r="D401" s="26"/>
       <c r="E401" s="11"/>
     </row>
     <row r="402" ht="13.65" customHeight="1">
       <c r="A402" s="11"/>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
-      <c r="D402" s="14"/>
+      <c r="D402" s="26"/>
       <c r="E402" s="11"/>
     </row>
     <row r="403" ht="13.65" customHeight="1">
       <c r="A403" s="11"/>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
-      <c r="D403" s="14"/>
+      <c r="D403" s="26"/>
       <c r="E403" s="11"/>
     </row>
     <row r="404" ht="13.65" customHeight="1">
       <c r="A404" s="11"/>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
-      <c r="D404" s="14"/>
+      <c r="D404" s="26"/>
       <c r="E404" s="11"/>
     </row>
     <row r="405" ht="13.65" customHeight="1">
       <c r="A405" s="11"/>
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
-      <c r="D405" s="14"/>
+      <c r="D405" s="26"/>
       <c r="E405" s="11"/>
     </row>
     <row r="406" ht="13.65" customHeight="1">
       <c r="A406" s="11"/>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
-      <c r="D406" s="14"/>
+      <c r="D406" s="26"/>
       <c r="E406" s="11"/>
     </row>
     <row r="407" ht="13.65" customHeight="1">
       <c r="A407" s="11"/>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
-      <c r="D407" s="14"/>
+      <c r="D407" s="26"/>
       <c r="E407" s="11"/>
     </row>
     <row r="408" ht="13.65" customHeight="1">
       <c r="A408" s="11"/>
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
-      <c r="D408" s="14"/>
+      <c r="D408" s="26"/>
       <c r="E408" s="11"/>
     </row>
     <row r="409" ht="13.65" customHeight="1">
       <c r="A409" s="11"/>
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
-      <c r="D409" s="14"/>
+      <c r="D409" s="26"/>
       <c r="E409" s="11"/>
     </row>
     <row r="410" ht="13.65" customHeight="1">
       <c r="A410" s="11"/>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
-      <c r="D410" s="14"/>
+      <c r="D410" s="26"/>
       <c r="E410" s="11"/>
     </row>
     <row r="411" ht="13.65" customHeight="1">
       <c r="A411" s="11"/>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
-      <c r="D411" s="14"/>
+      <c r="D411" s="26"/>
       <c r="E411" s="11"/>
     </row>
     <row r="412" ht="13.65" customHeight="1">
       <c r="A412" s="11"/>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
-      <c r="D412" s="14"/>
+      <c r="D412" s="26"/>
       <c r="E412" s="11"/>
     </row>
     <row r="413" ht="13.65" customHeight="1">
       <c r="A413" s="11"/>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
-      <c r="D413" s="14"/>
+      <c r="D413" s="26"/>
       <c r="E413" s="11"/>
     </row>
     <row r="414" ht="13.65" customHeight="1">
       <c r="A414" s="11"/>
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
-      <c r="D414" s="14"/>
+      <c r="D414" s="26"/>
       <c r="E414" s="11"/>
     </row>
     <row r="415" ht="13.65" customHeight="1">
       <c r="A415" s="11"/>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
-      <c r="D415" s="14"/>
+      <c r="D415" s="26"/>
       <c r="E415" s="11"/>
     </row>
     <row r="416" ht="13.65" customHeight="1">
       <c r="A416" s="11"/>
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
-      <c r="D416" s="14"/>
+      <c r="D416" s="26"/>
       <c r="E416" s="11"/>
     </row>
     <row r="417" ht="13.65" customHeight="1">
       <c r="A417" s="11"/>
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
-      <c r="D417" s="14"/>
+      <c r="D417" s="26"/>
       <c r="E417" s="11"/>
     </row>
     <row r="418" ht="13.65" customHeight="1">
       <c r="A418" s="11"/>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
-      <c r="D418" s="14"/>
+      <c r="D418" s="26"/>
       <c r="E418" s="11"/>
     </row>
     <row r="419" ht="13.65" customHeight="1">
       <c r="A419" s="11"/>
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
-      <c r="D419" s="14"/>
+      <c r="D419" s="26"/>
       <c r="E419" s="11"/>
     </row>
     <row r="420" ht="13.65" customHeight="1">
       <c r="A420" s="11"/>
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
-      <c r="D420" s="14"/>
+      <c r="D420" s="26"/>
       <c r="E420" s="11"/>
     </row>
     <row r="421" ht="13.65" customHeight="1">
       <c r="A421" s="11"/>
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
-      <c r="D421" s="14"/>
+      <c r="D421" s="26"/>
       <c r="E421" s="11"/>
     </row>
     <row r="422" ht="13.65" customHeight="1">
       <c r="A422" s="11"/>
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
-      <c r="D422" s="14"/>
+      <c r="D422" s="26"/>
       <c r="E422" s="11"/>
     </row>
     <row r="423" ht="13.65" customHeight="1">
       <c r="A423" s="11"/>
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
-      <c r="D423" s="14"/>
+      <c r="D423" s="26"/>
       <c r="E423" s="11"/>
     </row>
     <row r="424" ht="13.65" customHeight="1">
       <c r="A424" s="11"/>
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
-      <c r="D424" s="14"/>
+      <c r="D424" s="26"/>
       <c r="E424" s="11"/>
     </row>
     <row r="425" ht="13.65" customHeight="1">
       <c r="A425" s="11"/>
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
-      <c r="D425" s="14"/>
+      <c r="D425" s="26"/>
       <c r="E425" s="11"/>
     </row>
     <row r="426" ht="13.65" customHeight="1">
       <c r="A426" s="11"/>
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
-      <c r="D426" s="14"/>
+      <c r="D426" s="26"/>
       <c r="E426" s="11"/>
     </row>
     <row r="427" ht="13.65" customHeight="1">
       <c r="A427" s="11"/>
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
-      <c r="D427" s="14"/>
+      <c r="D427" s="26"/>
       <c r="E427" s="11"/>
     </row>
     <row r="428" ht="13.65" customHeight="1">
       <c r="A428" s="11"/>
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
-      <c r="D428" s="14"/>
+      <c r="D428" s="26"/>
       <c r="E428" s="11"/>
     </row>
     <row r="429" ht="13.65" customHeight="1">
       <c r="A429" s="11"/>
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
-      <c r="D429" s="14"/>
+      <c r="D429" s="26"/>
       <c r="E429" s="11"/>
     </row>
     <row r="430" ht="13.65" customHeight="1">
       <c r="A430" s="11"/>
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
-      <c r="D430" s="14"/>
+      <c r="D430" s="26"/>
       <c r="E430" s="11"/>
     </row>
     <row r="431" ht="13.65" customHeight="1">
       <c r="A431" s="11"/>
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
-      <c r="D431" s="14"/>
+      <c r="D431" s="26"/>
       <c r="E431" s="11"/>
     </row>
     <row r="432" ht="13.65" customHeight="1">
       <c r="A432" s="11"/>
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
-      <c r="D432" s="14"/>
+      <c r="D432" s="26"/>
       <c r="E432" s="11"/>
     </row>
     <row r="433" ht="13.65" customHeight="1">
       <c r="A433" s="11"/>
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
-      <c r="D433" s="14"/>
+      <c r="D433" s="26"/>
       <c r="E433" s="11"/>
     </row>
     <row r="434" ht="13.65" customHeight="1">
       <c r="A434" s="11"/>
       <c r="B434" s="11"/>
       <c r="C434" s="11"/>
-      <c r="D434" s="14"/>
+      <c r="D434" s="26"/>
       <c r="E434" s="11"/>
     </row>
     <row r="435" ht="13.65" customHeight="1">
       <c r="A435" s="11"/>
       <c r="B435" s="11"/>
       <c r="C435" s="11"/>
-      <c r="D435" s="14"/>
+      <c r="D435" s="26"/>
       <c r="E435" s="11"/>
     </row>
     <row r="436" ht="13.65" customHeight="1">
       <c r="A436" s="11"/>
       <c r="B436" s="11"/>
       <c r="C436" s="11"/>
-      <c r="D436" s="14"/>
+      <c r="D436" s="26"/>
       <c r="E436" s="11"/>
     </row>
     <row r="437" ht="13.65" customHeight="1">
       <c r="A437" s="11"/>
       <c r="B437" s="11"/>
       <c r="C437" s="11"/>
-      <c r="D437" s="14"/>
+      <c r="D437" s="26"/>
       <c r="E437" s="11"/>
     </row>
     <row r="438" ht="13.65" customHeight="1">
       <c r="A438" s="11"/>
       <c r="B438" s="11"/>
       <c r="C438" s="11"/>
-      <c r="D438" s="14"/>
+      <c r="D438" s="26"/>
       <c r="E438" s="11"/>
     </row>
     <row r="439" ht="13.65" customHeight="1">
       <c r="A439" s="11"/>
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
-      <c r="D439" s="14"/>
+      <c r="D439" s="26"/>
       <c r="E439" s="11"/>
     </row>
     <row r="440" ht="13.65" customHeight="1">
       <c r="A440" s="11"/>
       <c r="B440" s="11"/>
       <c r="C440" s="11"/>
-      <c r="D440" s="14"/>
+      <c r="D440" s="26"/>
       <c r="E440" s="11"/>
     </row>
     <row r="441" ht="13.65" customHeight="1">
       <c r="A441" s="11"/>
       <c r="B441" s="11"/>
       <c r="C441" s="11"/>
-      <c r="D441" s="14"/>
+      <c r="D441" s="26"/>
       <c r="E441" s="11"/>
     </row>
     <row r="442" ht="13.65" customHeight="1">
       <c r="A442" s="11"/>
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
-      <c r="D442" s="14"/>
+      <c r="D442" s="26"/>
       <c r="E442" s="11"/>
     </row>
     <row r="443" ht="13.65" customHeight="1">
       <c r="A443" s="11"/>
       <c r="B443" s="11"/>
       <c r="C443" s="11"/>
-      <c r="D443" s="14"/>
+      <c r="D443" s="26"/>
       <c r="E443" s="11"/>
     </row>
     <row r="444" ht="13.65" customHeight="1">
       <c r="A444" s="11"/>
       <c r="B444" s="11"/>
       <c r="C444" s="11"/>
-      <c r="D444" s="14"/>
+      <c r="D444" s="26"/>
       <c r="E444" s="11"/>
     </row>
     <row r="445" ht="13.65" customHeight="1">
       <c r="A445" s="11"/>
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
-      <c r="D445" s="14"/>
+      <c r="D445" s="26"/>
       <c r="E445" s="11"/>
     </row>
     <row r="446" ht="13.65" customHeight="1">
       <c r="A446" s="11"/>
       <c r="B446" s="11"/>
       <c r="C446" s="11"/>
-      <c r="D446" s="14"/>
+      <c r="D446" s="26"/>
       <c r="E446" s="11"/>
     </row>
     <row r="447" ht="13.65" customHeight="1">
       <c r="A447" s="11"/>
       <c r="B447" s="11"/>
       <c r="C447" s="11"/>
-      <c r="D447" s="14"/>
+      <c r="D447" s="26"/>
       <c r="E447" s="11"/>
     </row>
     <row r="448" ht="13.65" customHeight="1">
       <c r="A448" s="11"/>
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
-      <c r="D448" s="14"/>
+      <c r="D448" s="26"/>
       <c r="E448" s="11"/>
     </row>
     <row r="449" ht="13.65" customHeight="1">
       <c r="A449" s="11"/>
       <c r="B449" s="11"/>
       <c r="C449" s="11"/>
-      <c r="D449" s="14"/>
+      <c r="D449" s="26"/>
       <c r="E449" s="11"/>
     </row>
     <row r="450" ht="13.65" customHeight="1">
       <c r="A450" s="11"/>
       <c r="B450" s="11"/>
       <c r="C450" s="11"/>
-      <c r="D450" s="14"/>
+      <c r="D450" s="26"/>
       <c r="E450" s="11"/>
     </row>
     <row r="451" ht="13.65" customHeight="1">
       <c r="A451" s="11"/>
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
-      <c r="D451" s="14"/>
+      <c r="D451" s="26"/>
       <c r="E451" s="11"/>
     </row>
     <row r="452" ht="13.65" customHeight="1">
       <c r="A452" s="11"/>
       <c r="B452" s="11"/>
       <c r="C452" s="11"/>
-      <c r="D452" s="14"/>
+      <c r="D452" s="26"/>
       <c r="E452" s="11"/>
     </row>
     <row r="453" ht="13.65" customHeight="1">
       <c r="A453" s="11"/>
       <c r="B453" s="11"/>
       <c r="C453" s="11"/>
-      <c r="D453" s="14"/>
+      <c r="D453" s="26"/>
       <c r="E453" s="11"/>
     </row>
     <row r="454" ht="13.65" customHeight="1">
       <c r="A454" s="11"/>
       <c r="B454" s="11"/>
       <c r="C454" s="11"/>
-      <c r="D454" s="14"/>
+      <c r="D454" s="26"/>
       <c r="E454" s="11"/>
     </row>
     <row r="455" ht="13.65" customHeight="1">
       <c r="A455" s="11"/>
       <c r="B455" s="11"/>
       <c r="C455" s="11"/>
-      <c r="D455" s="14"/>
+      <c r="D455" s="26"/>
       <c r="E455" s="11"/>
     </row>
     <row r="456" ht="13.65" customHeight="1">
       <c r="A456" s="11"/>
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
-      <c r="D456" s="14"/>
+      <c r="D456" s="26"/>
       <c r="E456" s="11"/>
     </row>
     <row r="457" ht="13.65" customHeight="1">
       <c r="A457" s="11"/>
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
-      <c r="D457" s="14"/>
+      <c r="D457" s="26"/>
       <c r="E457" s="11"/>
     </row>
     <row r="458" ht="13.65" customHeight="1">
       <c r="A458" s="11"/>
       <c r="B458" s="11"/>
       <c r="C458" s="11"/>
-      <c r="D458" s="14"/>
+      <c r="D458" s="26"/>
       <c r="E458" s="11"/>
     </row>
     <row r="459" ht="13.65" customHeight="1">
       <c r="A459" s="11"/>
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
-      <c r="D459" s="14"/>
+      <c r="D459" s="26"/>
       <c r="E459" s="11"/>
     </row>
     <row r="460" ht="13.65" customHeight="1">
       <c r="A460" s="11"/>
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
-      <c r="D460" s="14"/>
+      <c r="D460" s="26"/>
       <c r="E460" s="11"/>
     </row>
     <row r="461" ht="13.65" customHeight="1">
       <c r="A461" s="11"/>
       <c r="B461" s="11"/>
       <c r="C461" s="11"/>
-      <c r="D461" s="14"/>
+      <c r="D461" s="26"/>
       <c r="E461" s="11"/>
     </row>
     <row r="462" ht="13.65" customHeight="1">
       <c r="A462" s="11"/>
       <c r="B462" s="11"/>
       <c r="C462" s="11"/>
-      <c r="D462" s="14"/>
+      <c r="D462" s="26"/>
       <c r="E462" s="11"/>
     </row>
     <row r="463" ht="13.65" customHeight="1">
       <c r="A463" s="11"/>
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
-      <c r="D463" s="14"/>
+      <c r="D463" s="26"/>
       <c r="E463" s="11"/>
     </row>
     <row r="464" ht="13.65" customHeight="1">
       <c r="A464" s="11"/>
       <c r="B464" s="11"/>
       <c r="C464" s="11"/>
-      <c r="D464" s="14"/>
+      <c r="D464" s="26"/>
       <c r="E464" s="11"/>
     </row>
     <row r="465" ht="13.65" customHeight="1">
       <c r="A465" s="11"/>
       <c r="B465" s="11"/>
       <c r="C465" s="11"/>
-      <c r="D465" s="14"/>
+      <c r="D465" s="26"/>
       <c r="E465" s="11"/>
     </row>
     <row r="466" ht="13.65" customHeight="1">
       <c r="A466" s="11"/>
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
-      <c r="D466" s="14"/>
+      <c r="D466" s="26"/>
       <c r="E466" s="11"/>
     </row>
     <row r="467" ht="13.65" customHeight="1">
       <c r="A467" s="11"/>
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
-      <c r="D467" s="14"/>
+      <c r="D467" s="26"/>
       <c r="E467" s="11"/>
     </row>
     <row r="468" ht="13.65" customHeight="1">
       <c r="A468" s="11"/>
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
-      <c r="D468" s="14"/>
+      <c r="D468" s="26"/>
       <c r="E468" s="11"/>
     </row>
     <row r="469" ht="13.65" customHeight="1">
       <c r="A469" s="11"/>
       <c r="B469" s="11"/>
       <c r="C469" s="11"/>
-      <c r="D469" s="14"/>
+      <c r="D469" s="26"/>
       <c r="E469" s="11"/>
     </row>
     <row r="470" ht="13.65" customHeight="1">
       <c r="A470" s="11"/>
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
-      <c r="D470" s="14"/>
+      <c r="D470" s="26"/>
       <c r="E470" s="11"/>
     </row>
     <row r="471" ht="13.65" customHeight="1">
       <c r="A471" s="11"/>
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
-      <c r="D471" s="14"/>
+      <c r="D471" s="26"/>
       <c r="E471" s="11"/>
     </row>
     <row r="472" ht="13.65" customHeight="1">
       <c r="A472" s="11"/>
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
-      <c r="D472" s="14"/>
+      <c r="D472" s="26"/>
       <c r="E472" s="11"/>
     </row>
     <row r="473" ht="13.65" customHeight="1">
       <c r="A473" s="11"/>
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
-      <c r="D473" s="14"/>
+      <c r="D473" s="26"/>
       <c r="E473" s="11"/>
     </row>
     <row r="474" ht="13.65" customHeight="1">
       <c r="A474" s="11"/>
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
-      <c r="D474" s="14"/>
+      <c r="D474" s="26"/>
       <c r="E474" s="11"/>
     </row>
     <row r="475" ht="13.65" customHeight="1">
       <c r="A475" s="11"/>
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
-      <c r="D475" s="14"/>
+      <c r="D475" s="26"/>
       <c r="E475" s="11"/>
     </row>
     <row r="476" ht="13.65" customHeight="1">
       <c r="A476" s="11"/>
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
-      <c r="D476" s="14"/>
+      <c r="D476" s="26"/>
       <c r="E476" s="11"/>
     </row>
     <row r="477" ht="13.65" customHeight="1">
       <c r="A477" s="11"/>
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
-      <c r="D477" s="14"/>
+      <c r="D477" s="26"/>
       <c r="E477" s="11"/>
     </row>
     <row r="478" ht="13.65" customHeight="1">
       <c r="A478" s="11"/>
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
-      <c r="D478" s="14"/>
+      <c r="D478" s="26"/>
       <c r="E478" s="11"/>
     </row>
     <row r="479" ht="13.65" customHeight="1">
       <c r="A479" s="11"/>
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
-      <c r="D479" s="14"/>
+      <c r="D479" s="26"/>
       <c r="E479" s="11"/>
     </row>
     <row r="480" ht="13.65" customHeight="1">
       <c r="A480" s="11"/>
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
-      <c r="D480" s="14"/>
+      <c r="D480" s="26"/>
       <c r="E480" s="11"/>
     </row>
     <row r="481" ht="13.65" customHeight="1">
       <c r="A481" s="11"/>
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
-      <c r="D481" s="14"/>
+      <c r="D481" s="26"/>
       <c r="E481" s="11"/>
     </row>
     <row r="482" ht="13.65" customHeight="1">
       <c r="A482" s="11"/>
       <c r="B482" s="11"/>
       <c r="C482" s="11"/>
-      <c r="D482" s="14"/>
+      <c r="D482" s="26"/>
       <c r="E482" s="11"/>
     </row>
     <row r="483" ht="13.65" customHeight="1">
       <c r="A483" s="11"/>
       <c r="B483" s="11"/>
       <c r="C483" s="11"/>
-      <c r="D483" s="14"/>
+      <c r="D483" s="26"/>
       <c r="E483" s="11"/>
     </row>
     <row r="484" ht="13.65" customHeight="1">
       <c r="A484" s="11"/>
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
-      <c r="D484" s="14"/>
+      <c r="D484" s="26"/>
       <c r="E484" s="11"/>
     </row>
     <row r="485" ht="13.65" customHeight="1">
       <c r="A485" s="11"/>
       <c r="B485" s="11"/>
       <c r="C485" s="11"/>
-      <c r="D485" s="14"/>
+      <c r="D485" s="26"/>
       <c r="E485" s="11"/>
     </row>
     <row r="486" ht="13.65" customHeight="1">
       <c r="A486" s="11"/>
       <c r="B486" s="11"/>
       <c r="C486" s="11"/>
-      <c r="D486" s="14"/>
+      <c r="D486" s="26"/>
       <c r="E486" s="11"/>
     </row>
     <row r="487" ht="13.65" customHeight="1">
       <c r="A487" s="11"/>
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
-      <c r="D487" s="14"/>
+      <c r="D487" s="26"/>
       <c r="E487" s="11"/>
     </row>
     <row r="488" ht="13.65" customHeight="1">
       <c r="A488" s="11"/>
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
-      <c r="D488" s="14"/>
+      <c r="D488" s="26"/>
       <c r="E488" s="11"/>
     </row>
     <row r="489" ht="13.65" customHeight="1">
       <c r="A489" s="11"/>
       <c r="B489" s="11"/>
       <c r="C489" s="11"/>
-      <c r="D489" s="14"/>
+      <c r="D489" s="26"/>
       <c r="E489" s="11"/>
     </row>
     <row r="490" ht="13.65" customHeight="1">
       <c r="A490" s="11"/>
       <c r="B490" s="11"/>
       <c r="C490" s="11"/>
-      <c r="D490" s="14"/>
+      <c r="D490" s="26"/>
       <c r="E490" s="11"/>
     </row>
     <row r="491" ht="13.65" customHeight="1">
       <c r="A491" s="11"/>
       <c r="B491" s="11"/>
       <c r="C491" s="11"/>
-      <c r="D491" s="14"/>
+      <c r="D491" s="26"/>
       <c r="E491" s="11"/>
     </row>
     <row r="492" ht="13.65" customHeight="1">
       <c r="A492" s="11"/>
       <c r="B492" s="11"/>
       <c r="C492" s="11"/>
-      <c r="D492" s="14"/>
+      <c r="D492" s="26"/>
       <c r="E492" s="11"/>
     </row>
     <row r="493" ht="13.65" customHeight="1">
       <c r="A493" s="11"/>
       <c r="B493" s="11"/>
       <c r="C493" s="11"/>
-      <c r="D493" s="14"/>
+      <c r="D493" s="26"/>
       <c r="E493" s="11"/>
     </row>
     <row r="494" ht="13.65" customHeight="1">
       <c r="A494" s="11"/>
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
-      <c r="D494" s="14"/>
+      <c r="D494" s="26"/>
       <c r="E494" s="11"/>
     </row>
     <row r="495" ht="13.65" customHeight="1">
       <c r="A495" s="11"/>
       <c r="B495" s="11"/>
       <c r="C495" s="11"/>
-      <c r="D495" s="14"/>
+      <c r="D495" s="26"/>
       <c r="E495" s="11"/>
     </row>
     <row r="496" ht="13.65" customHeight="1">
       <c r="A496" s="11"/>
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
-      <c r="D496" s="14"/>
+      <c r="D496" s="26"/>
       <c r="E496" s="11"/>
     </row>
     <row r="497" ht="13.65" customHeight="1">
       <c r="A497" s="11"/>
       <c r="B497" s="11"/>
       <c r="C497" s="11"/>
-      <c r="D497" s="14"/>
+      <c r="D497" s="26"/>
       <c r="E497" s="11"/>
     </row>
     <row r="498" ht="13.65" customHeight="1">
       <c r="A498" s="11"/>
       <c r="B498" s="11"/>
       <c r="C498" s="11"/>
-      <c r="D498" s="14"/>
+      <c r="D498" s="26"/>
       <c r="E498" s="11"/>
     </row>
     <row r="499" ht="13.65" customHeight="1">
       <c r="A499" s="11"/>
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
-      <c r="D499" s="14"/>
+      <c r="D499" s="26"/>
       <c r="E499" s="11"/>
     </row>
     <row r="500" ht="13.65" customHeight="1">
       <c r="A500" s="11"/>
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
-      <c r="D500" s="14"/>
+      <c r="D500" s="26"/>
       <c r="E500" s="11"/>
     </row>
     <row r="501" ht="13.65" customHeight="1">
       <c r="A501" s="11"/>
       <c r="B501" s="11"/>
       <c r="C501" s="11"/>
-      <c r="D501" s="14"/>
+      <c r="D501" s="26"/>
       <c r="E501" s="11"/>
     </row>
     <row r="502" ht="13.65" customHeight="1">
       <c r="A502" s="11"/>
       <c r="B502" s="11"/>
       <c r="C502" s="11"/>
-      <c r="D502" s="14"/>
+      <c r="D502" s="26"/>
       <c r="E502" s="11"/>
     </row>
     <row r="503" ht="13.65" customHeight="1">
       <c r="A503" s="11"/>
       <c r="B503" s="11"/>
       <c r="C503" s="11"/>
-      <c r="D503" s="14"/>
+      <c r="D503" s="26"/>
       <c r="E503" s="11"/>
     </row>
     <row r="504" ht="13.65" customHeight="1">
       <c r="A504" s="11"/>
       <c r="B504" s="11"/>
       <c r="C504" s="11"/>
-      <c r="D504" s="14"/>
+      <c r="D504" s="26"/>
       <c r="E504" s="11"/>
     </row>
     <row r="505" ht="13.65" customHeight="1">
       <c r="A505" s="11"/>
       <c r="B505" s="11"/>
       <c r="C505" s="11"/>
-      <c r="D505" s="14"/>
+      <c r="D505" s="26"/>
       <c r="E505" s="11"/>
     </row>
     <row r="506" ht="13.65" customHeight="1">
       <c r="A506" s="11"/>
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
-      <c r="D506" s="14"/>
+      <c r="D506" s="26"/>
       <c r="E506" s="11"/>
     </row>
     <row r="507" ht="13.65" customHeight="1">
       <c r="A507" s="11"/>
       <c r="B507" s="11"/>
       <c r="C507" s="11"/>
-      <c r="D507" s="14"/>
+      <c r="D507" s="26"/>
       <c r="E507" s="11"/>
     </row>
     <row r="508" ht="13.65" customHeight="1">
       <c r="A508" s="11"/>
       <c r="B508" s="11"/>
       <c r="C508" s="11"/>
-      <c r="D508" s="14"/>
+      <c r="D508" s="26"/>
       <c r="E508" s="11"/>
     </row>
     <row r="509" ht="13.65" customHeight="1">
       <c r="A509" s="11"/>
       <c r="B509" s="11"/>
       <c r="C509" s="11"/>
-      <c r="D509" s="14"/>
+      <c r="D509" s="26"/>
       <c r="E509" s="11"/>
     </row>
     <row r="510" ht="13.65" customHeight="1">
       <c r="A510" s="11"/>
       <c r="B510" s="11"/>
       <c r="C510" s="11"/>
-      <c r="D510" s="14"/>
+      <c r="D510" s="26"/>
       <c r="E510" s="11"/>
     </row>
     <row r="511" ht="13.65" customHeight="1">
       <c r="A511" s="11"/>
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
-      <c r="D511" s="14"/>
+      <c r="D511" s="26"/>
       <c r="E511" s="11"/>
     </row>
     <row r="512" ht="13.65" customHeight="1">
       <c r="A512" s="11"/>
       <c r="B512" s="11"/>
       <c r="C512" s="11"/>
-      <c r="D512" s="14"/>
+      <c r="D512" s="26"/>
       <c r="E512" s="11"/>
     </row>
     <row r="513" ht="13.65" customHeight="1">
       <c r="A513" s="11"/>
       <c r="B513" s="11"/>
       <c r="C513" s="11"/>
-      <c r="D513" s="14"/>
+      <c r="D513" s="26"/>
       <c r="E513" s="11"/>
     </row>
     <row r="514" ht="13.65" customHeight="1">
       <c r="A514" s="11"/>
       <c r="B514" s="11"/>
       <c r="C514" s="11"/>
-      <c r="D514" s="14"/>
+      <c r="D514" s="26"/>
       <c r="E514" s="11"/>
     </row>
     <row r="515" ht="13.65" customHeight="1">
       <c r="A515" s="11"/>
       <c r="B515" s="11"/>
       <c r="C515" s="11"/>
-      <c r="D515" s="14"/>
+      <c r="D515" s="26"/>
       <c r="E515" s="11"/>
     </row>
     <row r="516" ht="13.65" customHeight="1">
       <c r="A516" s="11"/>
       <c r="B516" s="11"/>
       <c r="C516" s="11"/>
-      <c r="D516" s="14"/>
+      <c r="D516" s="26"/>
       <c r="E516" s="11"/>
     </row>
     <row r="517" ht="13.65" customHeight="1">
       <c r="A517" s="11"/>
       <c r="B517" s="11"/>
       <c r="C517" s="11"/>
-      <c r="D517" s="14"/>
+      <c r="D517" s="26"/>
       <c r="E517" s="11"/>
     </row>
     <row r="518" ht="13.65" customHeight="1">
       <c r="A518" s="11"/>
       <c r="B518" s="11"/>
       <c r="C518" s="11"/>
-      <c r="D518" s="14"/>
+      <c r="D518" s="26"/>
       <c r="E518" s="11"/>
     </row>
     <row r="519" ht="13.65" customHeight="1">
       <c r="A519" s="11"/>
       <c r="B519" s="11"/>
       <c r="C519" s="11"/>
-      <c r="D519" s="14"/>
+      <c r="D519" s="26"/>
       <c r="E519" s="11"/>
     </row>
     <row r="520" ht="13.65" customHeight="1">
       <c r="A520" s="11"/>
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
-      <c r="D520" s="14"/>
+      <c r="D520" s="26"/>
       <c r="E520" s="11"/>
     </row>
     <row r="521" ht="13.65" customHeight="1">
       <c r="A521" s="11"/>
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
-      <c r="D521" s="14"/>
+      <c r="D521" s="26"/>
       <c r="E521" s="11"/>
     </row>
     <row r="522" ht="13.65" customHeight="1">
       <c r="A522" s="11"/>
       <c r="B522" s="11"/>
       <c r="C522" s="11"/>
-      <c r="D522" s="14"/>
+      <c r="D522" s="26"/>
       <c r="E522" s="11"/>
     </row>
     <row r="523" ht="13.65" customHeight="1">
       <c r="A523" s="11"/>
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
-      <c r="D523" s="14"/>
+      <c r="D523" s="26"/>
       <c r="E523" s="11"/>
     </row>
     <row r="524" ht="13.65" customHeight="1">
       <c r="A524" s="11"/>
       <c r="B524" s="11"/>
       <c r="C524" s="11"/>
-      <c r="D524" s="14"/>
+      <c r="D524" s="26"/>
       <c r="E524" s="11"/>
     </row>
     <row r="525" ht="13.65" customHeight="1">
       <c r="A525" s="11"/>
       <c r="B525" s="11"/>
       <c r="C525" s="11"/>
-      <c r="D525" s="14"/>
+      <c r="D525" s="26"/>
       <c r="E525" s="11"/>
     </row>
     <row r="526" ht="13.65" customHeight="1">
       <c r="A526" s="11"/>
       <c r="B526" s="11"/>
       <c r="C526" s="11"/>
-      <c r="D526" s="14"/>
+      <c r="D526" s="26"/>
       <c r="E526" s="11"/>
     </row>
     <row r="527" ht="13.65" customHeight="1">
       <c r="A527" s="11"/>
       <c r="B527" s="11"/>
       <c r="C527" s="11"/>
-      <c r="D527" s="14"/>
+      <c r="D527" s="26"/>
       <c r="E527" s="11"/>
     </row>
     <row r="528" ht="13.65" customHeight="1">
       <c r="A528" s="11"/>
       <c r="B528" s="11"/>
       <c r="C528" s="11"/>
-      <c r="D528" s="14"/>
+      <c r="D528" s="26"/>
       <c r="E528" s="11"/>
     </row>
     <row r="529" ht="13.65" customHeight="1">
       <c r="A529" s="11"/>
       <c r="B529" s="11"/>
       <c r="C529" s="11"/>
-      <c r="D529" s="14"/>
+      <c r="D529" s="26"/>
       <c r="E529" s="11"/>
     </row>
     <row r="530" ht="13.65" customHeight="1">
       <c r="A530" s="11"/>
       <c r="B530" s="11"/>
       <c r="C530" s="11"/>
-      <c r="D530" s="14"/>
+      <c r="D530" s="26"/>
       <c r="E530" s="11"/>
     </row>
     <row r="531" ht="13.65" customHeight="1">
       <c r="A531" s="11"/>
       <c r="B531" s="11"/>
       <c r="C531" s="11"/>
-      <c r="D531" s="14"/>
+      <c r="D531" s="26"/>
       <c r="E531" s="11"/>
     </row>
     <row r="532" ht="13.65" customHeight="1">
       <c r="A532" s="11"/>
       <c r="B532" s="11"/>
       <c r="C532" s="11"/>
-      <c r="D532" s="14"/>
+      <c r="D532" s="26"/>
       <c r="E532" s="11"/>
     </row>
     <row r="533" ht="13.65" customHeight="1">
       <c r="A533" s="11"/>
       <c r="B533" s="11"/>
       <c r="C533" s="11"/>
-      <c r="D533" s="14"/>
+      <c r="D533" s="26"/>
       <c r="E533" s="11"/>
     </row>
     <row r="534" ht="13.65" customHeight="1">
       <c r="A534" s="11"/>
       <c r="B534" s="11"/>
       <c r="C534" s="11"/>
-      <c r="D534" s="14"/>
+      <c r="D534" s="26"/>
       <c r="E534" s="11"/>
     </row>
     <row r="535" ht="13.65" customHeight="1">
       <c r="A535" s="11"/>
       <c r="B535" s="11"/>
       <c r="C535" s="11"/>
-      <c r="D535" s="14"/>
+      <c r="D535" s="26"/>
       <c r="E535" s="11"/>
     </row>
     <row r="536" ht="13.65" customHeight="1">
       <c r="A536" s="11"/>
       <c r="B536" s="11"/>
       <c r="C536" s="11"/>
-      <c r="D536" s="14"/>
+      <c r="D536" s="26"/>
       <c r="E536" s="11"/>
     </row>
     <row r="537" ht="13.65" customHeight="1">
       <c r="A537" s="11"/>
       <c r="B537" s="11"/>
       <c r="C537" s="11"/>
-      <c r="D537" s="14"/>
+      <c r="D537" s="26"/>
       <c r="E537" s="11"/>
     </row>
     <row r="538" ht="13.65" customHeight="1">
       <c r="A538" s="11"/>
       <c r="B538" s="11"/>
       <c r="C538" s="11"/>
-      <c r="D538" s="14"/>
+      <c r="D538" s="26"/>
       <c r="E538" s="11"/>
     </row>
     <row r="539" ht="13.65" customHeight="1">
       <c r="A539" s="11"/>
       <c r="B539" s="11"/>
       <c r="C539" s="11"/>
-      <c r="D539" s="14"/>
+      <c r="D539" s="26"/>
       <c r="E539" s="11"/>
     </row>
     <row r="540" ht="13.65" customHeight="1">
       <c r="A540" s="11"/>
       <c r="B540" s="11"/>
       <c r="C540" s="11"/>
-      <c r="D540" s="14"/>
+      <c r="D540" s="26"/>
       <c r="E540" s="11"/>
     </row>
     <row r="541" ht="13.65" customHeight="1">
       <c r="A541" s="11"/>
       <c r="B541" s="11"/>
       <c r="C541" s="11"/>
-      <c r="D541" s="14"/>
+      <c r="D541" s="26"/>
       <c r="E541" s="11"/>
     </row>
     <row r="542" ht="13.65" customHeight="1">
       <c r="A542" s="11"/>
       <c r="B542" s="11"/>
       <c r="C542" s="11"/>
-      <c r="D542" s="14"/>
+      <c r="D542" s="26"/>
       <c r="E542" s="11"/>
     </row>
     <row r="543" ht="13.65" customHeight="1">
       <c r="A543" s="11"/>
       <c r="B543" s="11"/>
       <c r="C543" s="11"/>
-      <c r="D543" s="14"/>
+      <c r="D543" s="26"/>
       <c r="E543" s="11"/>
     </row>
     <row r="544" ht="13.65" customHeight="1">
       <c r="A544" s="11"/>
       <c r="B544" s="11"/>
       <c r="C544" s="11"/>
-      <c r="D544" s="14"/>
+      <c r="D544" s="26"/>
       <c r="E544" s="11"/>
     </row>
     <row r="545" ht="13.65" customHeight="1">
       <c r="A545" s="11"/>
       <c r="B545" s="11"/>
       <c r="C545" s="11"/>
-      <c r="D545" s="14"/>
+      <c r="D545" s="26"/>
       <c r="E545" s="11"/>
     </row>
     <row r="546" ht="13.65" customHeight="1">
       <c r="A546" s="11"/>
       <c r="B546" s="11"/>
       <c r="C546" s="11"/>
-      <c r="D546" s="14"/>
+      <c r="D546" s="26"/>
       <c r="E546" s="11"/>
     </row>
     <row r="547" ht="13.65" customHeight="1">
       <c r="A547" s="11"/>
       <c r="B547" s="11"/>
       <c r="C547" s="11"/>
-      <c r="D547" s="14"/>
+      <c r="D547" s="26"/>
       <c r="E547" s="11"/>
     </row>
     <row r="548" ht="13.65" customHeight="1">
       <c r="A548" s="11"/>
       <c r="B548" s="11"/>
       <c r="C548" s="11"/>
-      <c r="D548" s="14"/>
+      <c r="D548" s="26"/>
       <c r="E548" s="11"/>
     </row>
     <row r="549" ht="13.65" customHeight="1">
       <c r="A549" s="11"/>
       <c r="B549" s="11"/>
       <c r="C549" s="11"/>
-      <c r="D549" s="14"/>
+      <c r="D549" s="26"/>
       <c r="E549" s="11"/>
     </row>
     <row r="550" ht="13.65" customHeight="1">
       <c r="A550" s="11"/>
       <c r="B550" s="11"/>
       <c r="C550" s="11"/>
-      <c r="D550" s="14"/>
+      <c r="D550" s="26"/>
       <c r="E550" s="11"/>
     </row>
     <row r="551" ht="13.65" customHeight="1">
       <c r="A551" s="11"/>
       <c r="B551" s="11"/>
       <c r="C551" s="11"/>
-      <c r="D551" s="14"/>
+      <c r="D551" s="26"/>
       <c r="E551" s="11"/>
     </row>
     <row r="552" ht="13.65" customHeight="1">
       <c r="A552" s="11"/>
       <c r="B552" s="11"/>
       <c r="C552" s="11"/>
-      <c r="D552" s="14"/>
+      <c r="D552" s="26"/>
       <c r="E552" s="11"/>
     </row>
     <row r="553" ht="13.65" customHeight="1">
       <c r="A553" s="11"/>
       <c r="B553" s="11"/>
       <c r="C553" s="11"/>
-      <c r="D553" s="14"/>
+      <c r="D553" s="26"/>
       <c r="E553" s="11"/>
     </row>
     <row r="554" ht="13.65" customHeight="1">
       <c r="A554" s="11"/>
       <c r="B554" s="11"/>
       <c r="C554" s="11"/>
-      <c r="D554" s="14"/>
+      <c r="D554" s="26"/>
       <c r="E554" s="11"/>
     </row>
     <row r="555" ht="13.65" customHeight="1">
       <c r="A555" s="11"/>
       <c r="B555" s="11"/>
       <c r="C555" s="11"/>
-      <c r="D555" s="14"/>
+      <c r="D555" s="26"/>
       <c r="E555" s="11"/>
     </row>
     <row r="556" ht="13.65" customHeight="1">
       <c r="A556" s="11"/>
       <c r="B556" s="11"/>
       <c r="C556" s="11"/>
-      <c r="D556" s="14"/>
+      <c r="D556" s="26"/>
       <c r="E556" s="11"/>
     </row>
     <row r="557" ht="13.65" customHeight="1">
       <c r="A557" s="11"/>
       <c r="B557" s="11"/>
       <c r="C557" s="11"/>
-      <c r="D557" s="14"/>
+      <c r="D557" s="26"/>
       <c r="E557" s="11"/>
     </row>
     <row r="558" ht="13.65" customHeight="1">
       <c r="A558" s="11"/>
       <c r="B558" s="11"/>
       <c r="C558" s="11"/>
-      <c r="D558" s="14"/>
+      <c r="D558" s="26"/>
       <c r="E558" s="11"/>
     </row>
     <row r="559" ht="13.65" customHeight="1">
       <c r="A559" s="11"/>
       <c r="B559" s="11"/>
       <c r="C559" s="11"/>
-      <c r="D559" s="14"/>
+      <c r="D559" s="26"/>
       <c r="E559" s="11"/>
     </row>
     <row r="560" ht="13.65" customHeight="1">
       <c r="A560" s="11"/>
       <c r="B560" s="11"/>
       <c r="C560" s="11"/>
-      <c r="D560" s="14"/>
+      <c r="D560" s="26"/>
       <c r="E560" s="11"/>
     </row>
     <row r="561" ht="13.65" customHeight="1">
       <c r="A561" s="11"/>
       <c r="B561" s="11"/>
       <c r="C561" s="11"/>
-      <c r="D561" s="14"/>
+      <c r="D561" s="26"/>
       <c r="E561" s="11"/>
     </row>
     <row r="562" ht="13.65" customHeight="1">
       <c r="A562" s="11"/>
       <c r="B562" s="11"/>
       <c r="C562" s="11"/>
-      <c r="D562" s="14"/>
+      <c r="D562" s="26"/>
       <c r="E562" s="11"/>
     </row>
     <row r="563" ht="13.65" customHeight="1">
       <c r="A563" s="11"/>
       <c r="B563" s="11"/>
       <c r="C563" s="11"/>
-      <c r="D563" s="14"/>
+      <c r="D563" s="26"/>
       <c r="E563" s="11"/>
     </row>
     <row r="564" ht="13.65" customHeight="1">
       <c r="A564" s="11"/>
       <c r="B564" s="11"/>
       <c r="C564" s="11"/>
-      <c r="D564" s="14"/>
+      <c r="D564" s="26"/>
       <c r="E564" s="11"/>
     </row>
     <row r="565" ht="13.65" customHeight="1">
       <c r="A565" s="11"/>
       <c r="B565" s="11"/>
       <c r="C565" s="11"/>
-      <c r="D565" s="14"/>
+      <c r="D565" s="26"/>
       <c r="E565" s="11"/>
     </row>
     <row r="566" ht="13.65" customHeight="1">
       <c r="A566" s="11"/>
       <c r="B566" s="11"/>
       <c r="C566" s="11"/>
-      <c r="D566" s="14"/>
+      <c r="D566" s="26"/>
       <c r="E566" s="11"/>
     </row>
     <row r="567" ht="13.65" customHeight="1">
       <c r="A567" s="11"/>
       <c r="B567" s="11"/>
       <c r="C567" s="11"/>
-      <c r="D567" s="14"/>
+      <c r="D567" s="26"/>
       <c r="E567" s="11"/>
     </row>
     <row r="568" ht="13.65" customHeight="1">
       <c r="A568" s="11"/>
       <c r="B568" s="11"/>
       <c r="C568" s="11"/>
-      <c r="D568" s="14"/>
+      <c r="D568" s="26"/>
       <c r="E568" s="11"/>
     </row>
     <row r="569" ht="13.65" customHeight="1">
       <c r="A569" s="11"/>
       <c r="B569" s="11"/>
       <c r="C569" s="11"/>
-      <c r="D569" s="14"/>
+      <c r="D569" s="26"/>
       <c r="E569" s="11"/>
     </row>
     <row r="570" ht="13.65" customHeight="1">
       <c r="A570" s="11"/>
       <c r="B570" s="11"/>
       <c r="C570" s="11"/>
-      <c r="D570" s="14"/>
+      <c r="D570" s="26"/>
       <c r="E570" s="11"/>
     </row>
     <row r="571" ht="13.65" customHeight="1">
       <c r="A571" s="11"/>
       <c r="B571" s="11"/>
       <c r="C571" s="11"/>
-      <c r="D571" s="14"/>
+      <c r="D571" s="26"/>
       <c r="E571" s="11"/>
     </row>
     <row r="572" ht="13.65" customHeight="1">
       <c r="A572" s="11"/>
       <c r="B572" s="11"/>
       <c r="C572" s="11"/>
-      <c r="D572" s="14"/>
+      <c r="D572" s="26"/>
       <c r="E572" s="11"/>
     </row>
     <row r="573" ht="13.65" customHeight="1">
       <c r="A573" s="11"/>
       <c r="B573" s="11"/>
       <c r="C573" s="11"/>
-      <c r="D573" s="14"/>
+      <c r="D573" s="26"/>
       <c r="E573" s="11"/>
     </row>
     <row r="574" ht="13.65" customHeight="1">
       <c r="A574" s="11"/>
       <c r="B574" s="11"/>
       <c r="C574" s="11"/>
-      <c r="D574" s="14"/>
+      <c r="D574" s="26"/>
       <c r="E574" s="11"/>
     </row>
     <row r="575" ht="13.65" customHeight="1">
       <c r="A575" s="11"/>
       <c r="B575" s="11"/>
       <c r="C575" s="11"/>
-      <c r="D575" s="14"/>
+      <c r="D575" s="26"/>
       <c r="E575" s="11"/>
     </row>
     <row r="576" ht="13.65" customHeight="1">
       <c r="A576" s="11"/>
       <c r="B576" s="11"/>
       <c r="C576" s="11"/>
-      <c r="D576" s="14"/>
+      <c r="D576" s="26"/>
       <c r="E576" s="11"/>
     </row>
     <row r="577" ht="13.65" customHeight="1">
       <c r="A577" s="11"/>
       <c r="B577" s="11"/>
       <c r="C577" s="11"/>
-      <c r="D577" s="14"/>
+      <c r="D577" s="26"/>
       <c r="E577" s="11"/>
     </row>
     <row r="578" ht="13.65" customHeight="1">
       <c r="A578" s="11"/>
       <c r="B578" s="11"/>
       <c r="C578" s="11"/>
-      <c r="D578" s="14"/>
+      <c r="D578" s="26"/>
       <c r="E578" s="11"/>
     </row>
     <row r="579" ht="13.65" customHeight="1">
       <c r="A579" s="11"/>
       <c r="B579" s="11"/>
       <c r="C579" s="11"/>
-      <c r="D579" s="14"/>
+      <c r="D579" s="26"/>
       <c r="E579" s="11"/>
     </row>
     <row r="580" ht="13.65" customHeight="1">
       <c r="A580" s="11"/>
       <c r="B580" s="11"/>
       <c r="C580" s="11"/>
-      <c r="D580" s="14"/>
+      <c r="D580" s="26"/>
       <c r="E580" s="11"/>
     </row>
     <row r="581" ht="13.65" customHeight="1">
       <c r="A581" s="11"/>
       <c r="B581" s="11"/>
       <c r="C581" s="11"/>
-      <c r="D581" s="14"/>
+      <c r="D581" s="26"/>
       <c r="E581" s="11"/>
     </row>
     <row r="582" ht="13.65" customHeight="1">
       <c r="A582" s="11"/>
       <c r="B582" s="11"/>
       <c r="C582" s="11"/>
-      <c r="D582" s="14"/>
+      <c r="D582" s="26"/>
       <c r="E582" s="11"/>
     </row>
     <row r="583" ht="13.65" customHeight="1">
       <c r="A583" s="11"/>
       <c r="B583" s="11"/>
       <c r="C583" s="11"/>
-      <c r="D583" s="14"/>
+      <c r="D583" s="26"/>
       <c r="E583" s="11"/>
     </row>
     <row r="584" ht="13.65" customHeight="1">
       <c r="A584" s="11"/>
       <c r="B584" s="11"/>
       <c r="C584" s="11"/>
-      <c r="D584" s="14"/>
+      <c r="D584" s="26"/>
       <c r="E584" s="11"/>
     </row>
     <row r="585" ht="13.65" customHeight="1">
       <c r="A585" s="11"/>
       <c r="B585" s="11"/>
       <c r="C585" s="11"/>
-      <c r="D585" s="14"/>
+      <c r="D585" s="26"/>
       <c r="E585" s="11"/>
     </row>
     <row r="586" ht="13.65" customHeight="1">
       <c r="A586" s="11"/>
       <c r="B586" s="11"/>
       <c r="C586" s="11"/>
-      <c r="D586" s="14"/>
+      <c r="D586" s="26"/>
       <c r="E586" s="11"/>
     </row>
     <row r="587" ht="13.65" customHeight="1">
       <c r="A587" s="11"/>
       <c r="B587" s="11"/>
       <c r="C587" s="11"/>
-      <c r="D587" s="14"/>
+      <c r="D587" s="26"/>
       <c r="E587" s="11"/>
     </row>
     <row r="588" ht="13.65" customHeight="1">
       <c r="A588" s="11"/>
       <c r="B588" s="11"/>
       <c r="C588" s="11"/>
-      <c r="D588" s="14"/>
+      <c r="D588" s="26"/>
       <c r="E588" s="11"/>
     </row>
     <row r="589" ht="13.65" customHeight="1">
       <c r="A589" s="11"/>
       <c r="B589" s="11"/>
       <c r="C589" s="11"/>
-      <c r="D589" s="14"/>
+      <c r="D589" s="26"/>
       <c r="E589" s="11"/>
     </row>
     <row r="590" ht="13.65" customHeight="1">
       <c r="A590" s="11"/>
       <c r="B590" s="11"/>
       <c r="C590" s="11"/>
-      <c r="D590" s="14"/>
+      <c r="D590" s="26"/>
       <c r="E590" s="11"/>
     </row>
     <row r="591" ht="13.65" customHeight="1">
       <c r="A591" s="11"/>
       <c r="B591" s="11"/>
       <c r="C591" s="11"/>
-      <c r="D591" s="14"/>
+      <c r="D591" s="26"/>
       <c r="E591" s="11"/>
     </row>
     <row r="592" ht="13.65" customHeight="1">
       <c r="A592" s="11"/>
       <c r="B592" s="11"/>
       <c r="C592" s="11"/>
-      <c r="D592" s="14"/>
+      <c r="D592" s="26"/>
       <c r="E592" s="11"/>
     </row>
     <row r="593" ht="13.65" customHeight="1">
       <c r="A593" s="11"/>
       <c r="B593" s="11"/>
       <c r="C593" s="11"/>
-      <c r="D593" s="14"/>
+      <c r="D593" s="26"/>
       <c r="E593" s="11"/>
     </row>
     <row r="594" ht="13.65" customHeight="1">
       <c r="A594" s="11"/>
       <c r="B594" s="11"/>
       <c r="C594" s="11"/>
-      <c r="D594" s="14"/>
+      <c r="D594" s="26"/>
       <c r="E594" s="11"/>
     </row>
     <row r="595" ht="13.65" customHeight="1">
       <c r="A595" s="11"/>
       <c r="B595" s="11"/>
       <c r="C595" s="11"/>
-      <c r="D595" s="14"/>
+      <c r="D595" s="26"/>
       <c r="E595" s="11"/>
     </row>
     <row r="596" ht="13.65" customHeight="1">
       <c r="A596" s="11"/>
       <c r="B596" s="11"/>
       <c r="C596" s="11"/>
-      <c r="D596" s="14"/>
+      <c r="D596" s="26"/>
       <c r="E596" s="11"/>
     </row>
     <row r="597" ht="13.65" customHeight="1">
       <c r="A597" s="11"/>
       <c r="B597" s="11"/>
       <c r="C597" s="11"/>
-      <c r="D597" s="14"/>
+      <c r="D597" s="26"/>
       <c r="E597" s="11"/>
     </row>
     <row r="598" ht="13.65" customHeight="1">
       <c r="A598" s="11"/>
       <c r="B598" s="11"/>
       <c r="C598" s="11"/>
-      <c r="D598" s="14"/>
+      <c r="D598" s="26"/>
       <c r="E598" s="11"/>
     </row>
     <row r="599" ht="13.65" customHeight="1">
       <c r="A599" s="11"/>
       <c r="B599" s="11"/>
       <c r="C599" s="11"/>
-      <c r="D599" s="14"/>
+      <c r="D599" s="26"/>
       <c r="E599" s="11"/>
     </row>
     <row r="600" ht="13.65" customHeight="1">
       <c r="A600" s="11"/>
       <c r="B600" s="11"/>
       <c r="C600" s="11"/>
-      <c r="D600" s="14"/>
+      <c r="D600" s="26"/>
       <c r="E600" s="11"/>
     </row>
     <row r="601" ht="13.65" customHeight="1">
       <c r="A601" s="11"/>
       <c r="B601" s="11"/>
       <c r="C601" s="11"/>
-      <c r="D601" s="14"/>
+      <c r="D601" s="26"/>
       <c r="E601" s="11"/>
     </row>
     <row r="602" ht="13.65" customHeight="1">
       <c r="A602" s="11"/>
       <c r="B602" s="11"/>
       <c r="C602" s="11"/>
-      <c r="D602" s="14"/>
+      <c r="D602" s="26"/>
       <c r="E602" s="11"/>
     </row>
     <row r="603" ht="13.65" customHeight="1">
       <c r="A603" s="11"/>
       <c r="B603" s="11"/>
       <c r="C603" s="11"/>
-      <c r="D603" s="14"/>
+      <c r="D603" s="26"/>
       <c r="E603" s="11"/>
     </row>
     <row r="604" ht="13.65" customHeight="1">
       <c r="A604" s="11"/>
       <c r="B604" s="11"/>
       <c r="C604" s="11"/>
-      <c r="D604" s="14"/>
+      <c r="D604" s="26"/>
       <c r="E604" s="11"/>
     </row>
     <row r="605" ht="13.65" customHeight="1">
       <c r="A605" s="11"/>
       <c r="B605" s="11"/>
       <c r="C605" s="11"/>
-      <c r="D605" s="14"/>
+      <c r="D605" s="26"/>
       <c r="E605" s="11"/>
     </row>
     <row r="606" ht="13.65" customHeight="1">
       <c r="A606" s="11"/>
       <c r="B606" s="11"/>
       <c r="C606" s="11"/>
-      <c r="D606" s="14"/>
+      <c r="D606" s="26"/>
       <c r="E606" s="11"/>
     </row>
     <row r="607" ht="13.65" customHeight="1">
       <c r="A607" s="11"/>
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
-      <c r="D607" s="14"/>
+      <c r="D607" s="26"/>
       <c r="E607" s="11"/>
     </row>
     <row r="608" ht="13.65" customHeight="1">
       <c r="A608" s="11"/>
       <c r="B608" s="11"/>
       <c r="C608" s="11"/>
-      <c r="D608" s="14"/>
+      <c r="D608" s="26"/>
       <c r="E608" s="11"/>
     </row>
     <row r="609" ht="13.65" customHeight="1">
       <c r="A609" s="11"/>
       <c r="B609" s="11"/>
       <c r="C609" s="11"/>
-      <c r="D609" s="14"/>
+      <c r="D609" s="26"/>
       <c r="E609" s="11"/>
     </row>
     <row r="610" ht="13.65" customHeight="1">
       <c r="A610" s="11"/>
       <c r="B610" s="11"/>
       <c r="C610" s="11"/>
-      <c r="D610" s="14"/>
+      <c r="D610" s="26"/>
       <c r="E610" s="11"/>
     </row>
     <row r="611" ht="13.65" customHeight="1">
       <c r="A611" s="11"/>
       <c r="B611" s="11"/>
       <c r="C611" s="11"/>
-      <c r="D611" s="14"/>
+      <c r="D611" s="26"/>
       <c r="E611" s="11"/>
     </row>
     <row r="612" ht="13.65" customHeight="1">
       <c r="A612" s="11"/>
       <c r="B612" s="11"/>
       <c r="C612" s="11"/>
-      <c r="D612" s="14"/>
+      <c r="D612" s="26"/>
       <c r="E612" s="11"/>
     </row>
     <row r="613" ht="13.65" customHeight="1">
       <c r="A613" s="11"/>
       <c r="B613" s="11"/>
       <c r="C613" s="11"/>
-      <c r="D613" s="14"/>
+      <c r="D613" s="26"/>
       <c r="E613" s="11"/>
     </row>
     <row r="614" ht="13.65" customHeight="1">
       <c r="A614" s="11"/>
       <c r="B614" s="11"/>
       <c r="C614" s="11"/>
-      <c r="D614" s="14"/>
+      <c r="D614" s="26"/>
       <c r="E614" s="11"/>
     </row>
     <row r="615" ht="13.65" customHeight="1">
       <c r="A615" s="11"/>
       <c r="B615" s="11"/>
       <c r="C615" s="11"/>
-      <c r="D615" s="14"/>
+      <c r="D615" s="26"/>
       <c r="E615" s="11"/>
     </row>
     <row r="616" ht="13.65" customHeight="1">
       <c r="A616" s="11"/>
       <c r="B616" s="11"/>
       <c r="C616" s="11"/>
-      <c r="D616" s="14"/>
+      <c r="D616" s="26"/>
       <c r="E616" s="11"/>
     </row>
     <row r="617" ht="13.65" customHeight="1">
       <c r="A617" s="11"/>
       <c r="B617" s="11"/>
       <c r="C617" s="11"/>
-      <c r="D617" s="14"/>
+      <c r="D617" s="26"/>
       <c r="E617" s="11"/>
     </row>
     <row r="618" ht="13.65" customHeight="1">
       <c r="A618" s="11"/>
       <c r="B618" s="11"/>
       <c r="C618" s="11"/>
-      <c r="D618" s="14"/>
+      <c r="D618" s="26"/>
       <c r="E618" s="11"/>
     </row>
     <row r="619" ht="13.65" customHeight="1">
       <c r="A619" s="11"/>
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
-      <c r="D619" s="14"/>
+      <c r="D619" s="26"/>
       <c r="E619" s="11"/>
     </row>
     <row r="620" ht="13.65" customHeight="1">
       <c r="A620" s="11"/>
       <c r="B620" s="11"/>
       <c r="C620" s="11"/>
-      <c r="D620" s="14"/>
+      <c r="D620" s="26"/>
       <c r="E620" s="11"/>
     </row>
     <row r="621" ht="13.65" customHeight="1">
       <c r="A621" s="11"/>
       <c r="B621" s="11"/>
       <c r="C621" s="11"/>
-      <c r="D621" s="14"/>
+      <c r="D621" s="26"/>
       <c r="E621" s="11"/>
     </row>
     <row r="622" ht="13.65" customHeight="1">
       <c r="A622" s="11"/>
       <c r="B622" s="11"/>
       <c r="C622" s="11"/>
-      <c r="D622" s="14"/>
+      <c r="D622" s="26"/>
       <c r="E622" s="11"/>
     </row>
     <row r="623" ht="13.65" customHeight="1">
       <c r="A623" s="11"/>
       <c r="B623" s="11"/>
       <c r="C623" s="11"/>
-      <c r="D623" s="14"/>
+      <c r="D623" s="26"/>
       <c r="E623" s="11"/>
     </row>
     <row r="624" ht="13.65" customHeight="1">
       <c r="A624" s="11"/>
       <c r="B624" s="11"/>
       <c r="C624" s="11"/>
-      <c r="D624" s="14"/>
+      <c r="D624" s="26"/>
       <c r="E624" s="11"/>
     </row>
     <row r="625" ht="13.65" customHeight="1">
       <c r="A625" s="11"/>
       <c r="B625" s="11"/>
       <c r="C625" s="11"/>
-      <c r="D625" s="14"/>
+      <c r="D625" s="26"/>
       <c r="E625" s="11"/>
     </row>
     <row r="626" ht="13.65" customHeight="1">
       <c r="A626" s="11"/>
       <c r="B626" s="11"/>
       <c r="C626" s="11"/>
-      <c r="D626" s="14"/>
+      <c r="D626" s="26"/>
       <c r="E626" s="11"/>
     </row>
     <row r="627" ht="13.65" customHeight="1">
       <c r="A627" s="11"/>
       <c r="B627" s="11"/>
       <c r="C627" s="11"/>
-      <c r="D627" s="14"/>
+      <c r="D627" s="26"/>
       <c r="E627" s="11"/>
     </row>
     <row r="628" ht="13.65" customHeight="1">
       <c r="A628" s="11"/>
       <c r="B628" s="11"/>
       <c r="C628" s="11"/>
-      <c r="D628" s="14"/>
+      <c r="D628" s="26"/>
       <c r="E628" s="11"/>
     </row>
     <row r="629" ht="13.65" customHeight="1">
       <c r="A629" s="11"/>
       <c r="B629" s="11"/>
       <c r="C629" s="11"/>
-      <c r="D629" s="14"/>
+      <c r="D629" s="26"/>
       <c r="E629" s="11"/>
     </row>
     <row r="630" ht="13.65" customHeight="1">
       <c r="A630" s="11"/>
       <c r="B630" s="11"/>
       <c r="C630" s="11"/>
-      <c r="D630" s="14"/>
+      <c r="D630" s="26"/>
       <c r="E630" s="11"/>
     </row>
     <row r="631" ht="13.65" customHeight="1">
       <c r="A631" s="11"/>
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
-      <c r="D631" s="14"/>
+      <c r="D631" s="26"/>
       <c r="E631" s="11"/>
     </row>
     <row r="632" ht="13.65" customHeight="1">
       <c r="A632" s="11"/>
       <c r="B632" s="11"/>
       <c r="C632" s="11"/>
-      <c r="D632" s="14"/>
+      <c r="D632" s="26"/>
       <c r="E632" s="11"/>
     </row>
     <row r="633" ht="13.65" customHeight="1">
       <c r="A633" s="11"/>
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
-      <c r="D633" s="14"/>
+      <c r="D633" s="26"/>
       <c r="E633" s="11"/>
     </row>
     <row r="634" ht="13.65" customHeight="1">
       <c r="A634" s="11"/>
       <c r="B634" s="11"/>
       <c r="C634" s="11"/>
-      <c r="D634" s="14"/>
+      <c r="D634" s="26"/>
       <c r="E634" s="11"/>
     </row>
     <row r="635" ht="13.65" customHeight="1">
       <c r="A635" s="11"/>
       <c r="B635" s="11"/>
       <c r="C635" s="11"/>
-      <c r="D635" s="14"/>
+      <c r="D635" s="26"/>
       <c r="E635" s="11"/>
     </row>
     <row r="636" ht="13.65" customHeight="1">
       <c r="A636" s="11"/>
       <c r="B636" s="11"/>
       <c r="C636" s="11"/>
-      <c r="D636" s="14"/>
+      <c r="D636" s="26"/>
       <c r="E636" s="11"/>
     </row>
     <row r="637" ht="13.65" customHeight="1">
       <c r="A637" s="11"/>
       <c r="B637" s="11"/>
       <c r="C637" s="11"/>
-      <c r="D637" s="14"/>
+      <c r="D637" s="26"/>
       <c r="E637" s="11"/>
     </row>
     <row r="638" ht="13.65" customHeight="1">
       <c r="A638" s="11"/>
       <c r="B638" s="11"/>
       <c r="C638" s="11"/>
-      <c r="D638" s="14"/>
+      <c r="D638" s="26"/>
       <c r="E638" s="11"/>
     </row>
     <row r="639" ht="13.65" customHeight="1">
       <c r="A639" s="11"/>
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
-      <c r="D639" s="14"/>
+      <c r="D639" s="26"/>
       <c r="E639" s="11"/>
     </row>
     <row r="640" ht="13.65" customHeight="1">
       <c r="A640" s="11"/>
       <c r="B640" s="11"/>
       <c r="C640" s="11"/>
-      <c r="D640" s="14"/>
+      <c r="D640" s="26"/>
       <c r="E640" s="11"/>
     </row>
     <row r="641" ht="13.65" customHeight="1">
       <c r="A641" s="11"/>
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
-      <c r="D641" s="14"/>
+      <c r="D641" s="26"/>
       <c r="E641" s="11"/>
     </row>
     <row r="642" ht="13.65" customHeight="1">
       <c r="A642" s="11"/>
       <c r="B642" s="11"/>
       <c r="C642" s="11"/>
-      <c r="D642" s="14"/>
+      <c r="D642" s="26"/>
       <c r="E642" s="11"/>
     </row>
     <row r="643" ht="13.65" customHeight="1">
       <c r="A643" s="11"/>
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
-      <c r="D643" s="14"/>
+      <c r="D643" s="26"/>
       <c r="E643" s="11"/>
     </row>
     <row r="644" ht="13.65" customHeight="1">
       <c r="A644" s="11"/>
       <c r="B644" s="11"/>
       <c r="C644" s="11"/>
-      <c r="D644" s="14"/>
+      <c r="D644" s="26"/>
       <c r="E644" s="11"/>
     </row>
     <row r="645" ht="13.65" customHeight="1">
       <c r="A645" s="11"/>
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
-      <c r="D645" s="14"/>
+      <c r="D645" s="26"/>
       <c r="E645" s="11"/>
     </row>
     <row r="646" ht="13.65" customHeight="1">
       <c r="A646" s="11"/>
       <c r="B646" s="11"/>
       <c r="C646" s="11"/>
-      <c r="D646" s="14"/>
+      <c r="D646" s="26"/>
       <c r="E646" s="11"/>
     </row>
     <row r="647" ht="13.65" customHeight="1">
       <c r="A647" s="11"/>
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
-      <c r="D647" s="14"/>
+      <c r="D647" s="26"/>
       <c r="E647" s="11"/>
     </row>
     <row r="648" ht="13.65" customHeight="1">
       <c r="A648" s="11"/>
       <c r="B648" s="11"/>
       <c r="C648" s="11"/>
-      <c r="D648" s="14"/>
+      <c r="D648" s="26"/>
       <c r="E648" s="11"/>
     </row>
     <row r="649" ht="13.65" customHeight="1">
       <c r="A649" s="11"/>
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
-      <c r="D649" s="14"/>
+      <c r="D649" s="26"/>
       <c r="E649" s="11"/>
     </row>
     <row r="650" ht="13.65" customHeight="1">
       <c r="A650" s="11"/>
       <c r="B650" s="11"/>
       <c r="C650" s="11"/>
-      <c r="D650" s="14"/>
+      <c r="D650" s="26"/>
       <c r="E650" s="11"/>
     </row>
     <row r="651" ht="13.65" customHeight="1">
       <c r="A651" s="11"/>
       <c r="B651" s="11"/>
       <c r="C651" s="11"/>
-      <c r="D651" s="14"/>
+      <c r="D651" s="26"/>
       <c r="E651" s="11"/>
     </row>
     <row r="652" ht="13.65" customHeight="1">
       <c r="A652" s="11"/>
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
-      <c r="D652" s="14"/>
+      <c r="D652" s="26"/>
       <c r="E652" s="11"/>
     </row>
     <row r="653" ht="13.65" customHeight="1">
       <c r="A653" s="11"/>
       <c r="B653" s="11"/>
       <c r="C653" s="11"/>
-      <c r="D653" s="14"/>
+      <c r="D653" s="26"/>
       <c r="E653" s="11"/>
     </row>
     <row r="654" ht="13.65" customHeight="1">
       <c r="A654" s="11"/>
       <c r="B654" s="11"/>
       <c r="C654" s="11"/>
-      <c r="D654" s="14"/>
+      <c r="D654" s="26"/>
       <c r="E654" s="11"/>
     </row>
     <row r="655" ht="13.65" customHeight="1">
       <c r="A655" s="11"/>
       <c r="B655" s="11"/>
       <c r="C655" s="11"/>
-      <c r="D655" s="14"/>
+      <c r="D655" s="26"/>
       <c r="E655" s="11"/>
     </row>
     <row r="656" ht="13.65" customHeight="1">
       <c r="A656" s="11"/>
       <c r="B656" s="11"/>
       <c r="C656" s="11"/>
-      <c r="D656" s="14"/>
+      <c r="D656" s="26"/>
       <c r="E656" s="11"/>
     </row>
     <row r="657" ht="13.65" customHeight="1">
       <c r="A657" s="11"/>
       <c r="B657" s="11"/>
       <c r="C657" s="11"/>
-      <c r="D657" s="14"/>
+      <c r="D657" s="26"/>
       <c r="E657" s="11"/>
     </row>
     <row r="658" ht="13.65" customHeight="1">
       <c r="A658" s="11"/>
       <c r="B658" s="11"/>
       <c r="C658" s="11"/>
-      <c r="D658" s="14"/>
+      <c r="D658" s="26"/>
       <c r="E658" s="11"/>
     </row>
     <row r="659" ht="13.65" customHeight="1">
       <c r="A659" s="11"/>
       <c r="B659" s="11"/>
       <c r="C659" s="11"/>
-      <c r="D659" s="14"/>
+      <c r="D659" s="26"/>
       <c r="E659" s="11"/>
     </row>
     <row r="660" ht="13.65" customHeight="1">
       <c r="A660" s="11"/>
       <c r="B660" s="11"/>
       <c r="C660" s="11"/>
-      <c r="D660" s="14"/>
+      <c r="D660" s="26"/>
       <c r="E660" s="11"/>
     </row>
     <row r="661" ht="13.65" customHeight="1">
       <c r="A661" s="11"/>
       <c r="B661" s="11"/>
       <c r="C661" s="11"/>
-      <c r="D661" s="14"/>
+      <c r="D661" s="26"/>
       <c r="E661" s="11"/>
     </row>
     <row r="662" ht="13.65" customHeight="1">
       <c r="A662" s="11"/>
       <c r="B662" s="11"/>
       <c r="C662" s="11"/>
-      <c r="D662" s="14"/>
+      <c r="D662" s="26"/>
       <c r="E662" s="11"/>
     </row>
     <row r="663" ht="13.65" customHeight="1">
       <c r="A663" s="11"/>
       <c r="B663" s="11"/>
       <c r="C663" s="11"/>
-      <c r="D663" s="14"/>
+      <c r="D663" s="26"/>
       <c r="E663" s="11"/>
     </row>
     <row r="664" ht="13.65" customHeight="1">
       <c r="A664" s="11"/>
       <c r="B664" s="11"/>
       <c r="C664" s="11"/>
-      <c r="D664" s="14"/>
+      <c r="D664" s="26"/>
       <c r="E664" s="11"/>
     </row>
     <row r="665" ht="13.65" customHeight="1">
       <c r="A665" s="11"/>
       <c r="B665" s="11"/>
       <c r="C665" s="11"/>
-      <c r="D665" s="14"/>
+      <c r="D665" s="26"/>
       <c r="E665" s="11"/>
     </row>
     <row r="666" ht="13.65" customHeight="1">
       <c r="A666" s="11"/>
       <c r="B666" s="11"/>
       <c r="C666" s="11"/>
-      <c r="D666" s="14"/>
+      <c r="D666" s="26"/>
       <c r="E666" s="11"/>
     </row>
     <row r="667" ht="13.65" customHeight="1">
       <c r="A667" s="11"/>
       <c r="B667" s="11"/>
       <c r="C667" s="11"/>
-      <c r="D667" s="14"/>
+      <c r="D667" s="26"/>
       <c r="E667" s="11"/>
     </row>
     <row r="668" ht="13.65" customHeight="1">
       <c r="A668" s="11"/>
       <c r="B668" s="11"/>
       <c r="C668" s="11"/>
-      <c r="D668" s="14"/>
+      <c r="D668" s="26"/>
       <c r="E668" s="11"/>
     </row>
     <row r="669" ht="13.65" customHeight="1">
       <c r="A669" s="11"/>
       <c r="B669" s="11"/>
       <c r="C669" s="11"/>
-      <c r="D669" s="14"/>
+      <c r="D669" s="26"/>
       <c r="E669" s="11"/>
     </row>
     <row r="670" ht="13.65" customHeight="1">
       <c r="A670" s="11"/>
       <c r="B670" s="11"/>
       <c r="C670" s="11"/>
-      <c r="D670" s="14"/>
+      <c r="D670" s="26"/>
       <c r="E670" s="11"/>
     </row>
     <row r="671" ht="13.65" customHeight="1">
       <c r="A671" s="11"/>
       <c r="B671" s="11"/>
       <c r="C671" s="11"/>
-      <c r="D671" s="14"/>
+      <c r="D671" s="26"/>
       <c r="E671" s="11"/>
     </row>
     <row r="672" ht="13.65" customHeight="1">
       <c r="A672" s="11"/>
       <c r="B672" s="11"/>
       <c r="C672" s="11"/>
-      <c r="D672" s="14"/>
+      <c r="D672" s="26"/>
       <c r="E672" s="11"/>
     </row>
     <row r="673" ht="13.65" customHeight="1">
       <c r="A673" s="11"/>
       <c r="B673" s="11"/>
       <c r="C673" s="11"/>
-      <c r="D673" s="14"/>
+      <c r="D673" s="26"/>
       <c r="E673" s="11"/>
     </row>
     <row r="674" ht="13.65" customHeight="1">
       <c r="A674" s="11"/>
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
-      <c r="D674" s="14"/>
+      <c r="D674" s="26"/>
       <c r="E674" s="11"/>
     </row>
     <row r="675" ht="13.65" customHeight="1">
       <c r="A675" s="11"/>
       <c r="B675" s="11"/>
       <c r="C675" s="11"/>
-      <c r="D675" s="14"/>
+      <c r="D675" s="26"/>
       <c r="E675" s="11"/>
     </row>
     <row r="676" ht="13.65" customHeight="1">
       <c r="A676" s="11"/>
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
-      <c r="D676" s="14"/>
+      <c r="D676" s="26"/>
       <c r="E676" s="11"/>
     </row>
     <row r="677" ht="13.65" customHeight="1">
       <c r="A677" s="11"/>
       <c r="B677" s="11"/>
       <c r="C677" s="11"/>
-      <c r="D677" s="14"/>
+      <c r="D677" s="26"/>
       <c r="E677" s="11"/>
     </row>
     <row r="678" ht="13.65" customHeight="1">
       <c r="A678" s="11"/>
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
-      <c r="D678" s="14"/>
+      <c r="D678" s="26"/>
       <c r="E678" s="11"/>
     </row>
     <row r="679" ht="13.65" customHeight="1">
       <c r="A679" s="11"/>
       <c r="B679" s="11"/>
       <c r="C679" s="11"/>
-      <c r="D679" s="14"/>
+      <c r="D679" s="26"/>
       <c r="E679" s="11"/>
     </row>
     <row r="680" ht="13.65" customHeight="1">
       <c r="A680" s="11"/>
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
-      <c r="D680" s="14"/>
+      <c r="D680" s="26"/>
       <c r="E680" s="11"/>
     </row>
     <row r="681" ht="13.65" customHeight="1">
       <c r="A681" s="11"/>
       <c r="B681" s="11"/>
       <c r="C681" s="11"/>
-      <c r="D681" s="14"/>
+      <c r="D681" s="26"/>
       <c r="E681" s="11"/>
     </row>
     <row r="682" ht="13.65" customHeight="1">
       <c r="A682" s="11"/>
       <c r="B682" s="11"/>
       <c r="C682" s="11"/>
-      <c r="D682" s="14"/>
+      <c r="D682" s="26"/>
       <c r="E682" s="11"/>
     </row>
     <row r="683" ht="13.65" customHeight="1">
       <c r="A683" s="11"/>
       <c r="B683" s="11"/>
       <c r="C683" s="11"/>
-      <c r="D683" s="14"/>
+      <c r="D683" s="26"/>
       <c r="E683" s="11"/>
     </row>
     <row r="684" ht="13.65" customHeight="1">
       <c r="A684" s="11"/>
       <c r="B684" s="11"/>
       <c r="C684" s="11"/>
-      <c r="D684" s="14"/>
+      <c r="D684" s="26"/>
       <c r="E684" s="11"/>
     </row>
     <row r="685" ht="13.65" customHeight="1">
       <c r="A685" s="11"/>
       <c r="B685" s="11"/>
       <c r="C685" s="11"/>
-      <c r="D685" s="14"/>
+      <c r="D685" s="26"/>
       <c r="E685" s="11"/>
     </row>
     <row r="686" ht="13.65" customHeight="1">
       <c r="A686" s="11"/>
       <c r="B686" s="11"/>
       <c r="C686" s="11"/>
-      <c r="D686" s="14"/>
+      <c r="D686" s="26"/>
       <c r="E686" s="11"/>
     </row>
     <row r="687" ht="13.65" customHeight="1">
       <c r="A687" s="11"/>
       <c r="B687" s="11"/>
       <c r="C687" s="11"/>
-      <c r="D687" s="14"/>
+      <c r="D687" s="26"/>
       <c r="E687" s="11"/>
     </row>
     <row r="688" ht="13.65" customHeight="1">
       <c r="A688" s="11"/>
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
-      <c r="D688" s="14"/>
+      <c r="D688" s="26"/>
       <c r="E688" s="11"/>
     </row>
     <row r="689" ht="13.65" customHeight="1">
       <c r="A689" s="11"/>
       <c r="B689" s="11"/>
       <c r="C689" s="11"/>
-      <c r="D689" s="14"/>
+      <c r="D689" s="26"/>
       <c r="E689" s="11"/>
     </row>
     <row r="690" ht="13.65" customHeight="1">
       <c r="A690" s="11"/>
       <c r="B690" s="11"/>
       <c r="C690" s="11"/>
-      <c r="D690" s="14"/>
+      <c r="D690" s="26"/>
       <c r="E690" s="11"/>
     </row>
     <row r="691" ht="13.65" customHeight="1">
       <c r="A691" s="11"/>
       <c r="B691" s="11"/>
       <c r="C691" s="11"/>
-      <c r="D691" s="14"/>
+      <c r="D691" s="26"/>
       <c r="E691" s="11"/>
     </row>
     <row r="692" ht="13.65" customHeight="1">
       <c r="A692" s="11"/>
       <c r="B692" s="11"/>
       <c r="C692" s="11"/>
-      <c r="D692" s="14"/>
+      <c r="D692" s="26"/>
       <c r="E692" s="11"/>
     </row>
     <row r="693" ht="13.65" customHeight="1">
       <c r="A693" s="11"/>
       <c r="B693" s="11"/>
       <c r="C693" s="11"/>
-      <c r="D693" s="14"/>
+      <c r="D693" s="26"/>
       <c r="E693" s="11"/>
     </row>
     <row r="694" ht="13.65" customHeight="1">
       <c r="A694" s="11"/>
       <c r="B694" s="11"/>
       <c r="C694" s="11"/>
-      <c r="D694" s="14"/>
+      <c r="D694" s="26"/>
       <c r="E694" s="11"/>
     </row>
     <row r="695" ht="13.65" customHeight="1">
       <c r="A695" s="11"/>
       <c r="B695" s="11"/>
       <c r="C695" s="11"/>
-      <c r="D695" s="14"/>
+      <c r="D695" s="26"/>
       <c r="E695" s="11"/>
     </row>
     <row r="696" ht="13.65" customHeight="1">
       <c r="A696" s="11"/>
       <c r="B696" s="11"/>
       <c r="C696" s="11"/>
-      <c r="D696" s="14"/>
+      <c r="D696" s="26"/>
       <c r="E696" s="11"/>
     </row>
     <row r="697" ht="13.65" customHeight="1">
       <c r="A697" s="11"/>
       <c r="B697" s="11"/>
       <c r="C697" s="11"/>
-      <c r="D697" s="14"/>
+      <c r="D697" s="26"/>
       <c r="E697" s="11"/>
     </row>
     <row r="698" ht="13.65" customHeight="1">
       <c r="A698" s="11"/>
       <c r="B698" s="11"/>
       <c r="C698" s="11"/>
-      <c r="D698" s="14"/>
+      <c r="D698" s="26"/>
       <c r="E698" s="11"/>
     </row>
     <row r="699" ht="13.65" customHeight="1">
       <c r="A699" s="11"/>
       <c r="B699" s="11"/>
       <c r="C699" s="11"/>
-      <c r="D699" s="14"/>
+      <c r="D699" s="26"/>
       <c r="E699" s="11"/>
     </row>
     <row r="700" ht="13.65" customHeight="1">
       <c r="A700" s="11"/>
       <c r="B700" s="11"/>
       <c r="C700" s="11"/>
-      <c r="D700" s="14"/>
+      <c r="D700" s="26"/>
       <c r="E700" s="11"/>
     </row>
     <row r="701" ht="13.65" customHeight="1">
       <c r="A701" s="11"/>
       <c r="B701" s="11"/>
       <c r="C701" s="11"/>
-      <c r="D701" s="14"/>
+      <c r="D701" s="26"/>
       <c r="E701" s="11"/>
     </row>
     <row r="702" ht="13.65" customHeight="1">
       <c r="A702" s="11"/>
       <c r="B702" s="11"/>
       <c r="C702" s="11"/>
-      <c r="D702" s="14"/>
+      <c r="D702" s="26"/>
       <c r="E702" s="11"/>
     </row>
     <row r="703" ht="13.65" customHeight="1">
       <c r="A703" s="11"/>
       <c r="B703" s="11"/>
       <c r="C703" s="11"/>
-      <c r="D703" s="14"/>
+      <c r="D703" s="26"/>
       <c r="E703" s="11"/>
     </row>
     <row r="704" ht="13.65" customHeight="1">
       <c r="A704" s="11"/>
       <c r="B704" s="11"/>
       <c r="C704" s="11"/>
-      <c r="D704" s="14"/>
+      <c r="D704" s="26"/>
       <c r="E704" s="11"/>
     </row>
     <row r="705" ht="13.65" customHeight="1">
       <c r="A705" s="11"/>
       <c r="B705" s="11"/>
       <c r="C705" s="11"/>
-      <c r="D705" s="14"/>
+      <c r="D705" s="26"/>
       <c r="E705" s="11"/>
     </row>
     <row r="706" ht="13.65" customHeight="1">
       <c r="A706" s="11"/>
       <c r="B706" s="11"/>
       <c r="C706" s="11"/>
-      <c r="D706" s="14"/>
+      <c r="D706" s="26"/>
       <c r="E706" s="11"/>
     </row>
     <row r="707" ht="13.65" customHeight="1">
       <c r="A707" s="11"/>
       <c r="B707" s="11"/>
       <c r="C707" s="11"/>
-      <c r="D707" s="14"/>
+      <c r="D707" s="26"/>
       <c r="E707" s="11"/>
     </row>
     <row r="708" ht="13.65" customHeight="1">
       <c r="A708" s="11"/>
       <c r="B708" s="11"/>
       <c r="C708" s="11"/>
-      <c r="D708" s="14"/>
+      <c r="D708" s="26"/>
       <c r="E708" s="11"/>
     </row>
     <row r="709" ht="13.65" customHeight="1">
       <c r="A709" s="11"/>
       <c r="B709" s="11"/>
       <c r="C709" s="11"/>
-      <c r="D709" s="14"/>
+      <c r="D709" s="26"/>
       <c r="E709" s="11"/>
     </row>
     <row r="710" ht="13.65" customHeight="1">
       <c r="A710" s="11"/>
       <c r="B710" s="11"/>
       <c r="C710" s="11"/>
-      <c r="D710" s="14"/>
+      <c r="D710" s="26"/>
       <c r="E710" s="11"/>
     </row>
     <row r="711" ht="13.65" customHeight="1">
       <c r="A711" s="11"/>
       <c r="B711" s="11"/>
       <c r="C711" s="11"/>
-      <c r="D711" s="14"/>
+      <c r="D711" s="26"/>
       <c r="E711" s="11"/>
     </row>
     <row r="712" ht="13.65" customHeight="1">
       <c r="A712" s="11"/>
       <c r="B712" s="11"/>
       <c r="C712" s="11"/>
-      <c r="D712" s="14"/>
+      <c r="D712" s="26"/>
       <c r="E712" s="11"/>
     </row>
     <row r="713" ht="13.65" customHeight="1">
       <c r="A713" s="11"/>
       <c r="B713" s="11"/>
       <c r="C713" s="11"/>
-      <c r="D713" s="14"/>
+      <c r="D713" s="26"/>
       <c r="E713" s="11"/>
     </row>
     <row r="714" ht="13.65" customHeight="1">
       <c r="A714" s="11"/>
       <c r="B714" s="11"/>
       <c r="C714" s="11"/>
-      <c r="D714" s="14"/>
+      <c r="D714" s="26"/>
       <c r="E714" s="11"/>
     </row>
     <row r="715" ht="13.65" customHeight="1">
       <c r="A715" s="11"/>
       <c r="B715" s="11"/>
       <c r="C715" s="11"/>
-      <c r="D715" s="14"/>
+      <c r="D715" s="26"/>
       <c r="E715" s="11"/>
     </row>
     <row r="716" ht="13.65" customHeight="1">
       <c r="A716" s="11"/>
       <c r="B716" s="11"/>
       <c r="C716" s="11"/>
-      <c r="D716" s="14"/>
+      <c r="D716" s="26"/>
       <c r="E716" s="11"/>
     </row>
     <row r="717" ht="13.65" customHeight="1">
       <c r="A717" s="11"/>
       <c r="B717" s="11"/>
       <c r="C717" s="11"/>
-      <c r="D717" s="14"/>
+      <c r="D717" s="26"/>
       <c r="E717" s="11"/>
     </row>
     <row r="718" ht="13.65" customHeight="1">
       <c r="A718" s="11"/>
       <c r="B718" s="11"/>
       <c r="C718" s="11"/>
-      <c r="D718" s="14"/>
+      <c r="D718" s="26"/>
       <c r="E718" s="11"/>
     </row>
     <row r="719" ht="13.65" customHeight="1">
       <c r="A719" s="11"/>
       <c r="B719" s="11"/>
       <c r="C719" s="11"/>
-      <c r="D719" s="14"/>
+      <c r="D719" s="26"/>
       <c r="E719" s="11"/>
     </row>
     <row r="720" ht="13.65" customHeight="1">
       <c r="A720" s="11"/>
       <c r="B720" s="11"/>
       <c r="C720" s="11"/>
-      <c r="D720" s="14"/>
+      <c r="D720" s="26"/>
       <c r="E720" s="11"/>
     </row>
     <row r="721" ht="13.65" customHeight="1">
       <c r="A721" s="11"/>
       <c r="B721" s="11"/>
       <c r="C721" s="11"/>
-      <c r="D721" s="14"/>
+      <c r="D721" s="26"/>
       <c r="E721" s="11"/>
     </row>
     <row r="722" ht="13.65" customHeight="1">
       <c r="A722" s="11"/>
       <c r="B722" s="11"/>
       <c r="C722" s="11"/>
-      <c r="D722" s="14"/>
+      <c r="D722" s="26"/>
       <c r="E722" s="11"/>
     </row>
     <row r="723" ht="13.65" customHeight="1">
       <c r="A723" s="11"/>
       <c r="B723" s="11"/>
       <c r="C723" s="11"/>
-      <c r="D723" s="14"/>
+      <c r="D723" s="26"/>
       <c r="E723" s="11"/>
     </row>
     <row r="724" ht="13.65" customHeight="1">
       <c r="A724" s="11"/>
       <c r="B724" s="11"/>
       <c r="C724" s="11"/>
-      <c r="D724" s="14"/>
+      <c r="D724" s="26"/>
       <c r="E724" s="11"/>
     </row>
     <row r="725" ht="13.65" customHeight="1">
       <c r="A725" s="11"/>
       <c r="B725" s="11"/>
       <c r="C725" s="11"/>
-      <c r="D725" s="14"/>
+      <c r="D725" s="26"/>
       <c r="E725" s="11"/>
     </row>
     <row r="726" ht="13.65" customHeight="1">
       <c r="A726" s="11"/>
       <c r="B726" s="11"/>
       <c r="C726" s="11"/>
-      <c r="D726" s="14"/>
+      <c r="D726" s="26"/>
       <c r="E726" s="11"/>
     </row>
     <row r="727" ht="13.65" customHeight="1">
       <c r="A727" s="11"/>
       <c r="B727" s="11"/>
       <c r="C727" s="11"/>
-      <c r="D727" s="14"/>
+      <c r="D727" s="26"/>
       <c r="E727" s="11"/>
     </row>
     <row r="728" ht="13.65" customHeight="1">
       <c r="A728" s="11"/>
       <c r="B728" s="11"/>
       <c r="C728" s="11"/>
-      <c r="D728" s="14"/>
+      <c r="D728" s="26"/>
       <c r="E728" s="11"/>
     </row>
     <row r="729" ht="13.65" customHeight="1">
       <c r="A729" s="11"/>
       <c r="B729" s="11"/>
       <c r="C729" s="11"/>
-      <c r="D729" s="14"/>
+      <c r="D729" s="26"/>
       <c r="E729" s="11"/>
     </row>
     <row r="730" ht="13.65" customHeight="1">
       <c r="A730" s="11"/>
       <c r="B730" s="11"/>
       <c r="C730" s="11"/>
-      <c r="D730" s="14"/>
+      <c r="D730" s="26"/>
       <c r="E730" s="11"/>
     </row>
     <row r="731" ht="13.65" customHeight="1">
       <c r="A731" s="11"/>
       <c r="B731" s="11"/>
       <c r="C731" s="11"/>
-      <c r="D731" s="14"/>
+      <c r="D731" s="26"/>
       <c r="E731" s="11"/>
     </row>
     <row r="732" ht="13.65" customHeight="1">
       <c r="A732" s="11"/>
       <c r="B732" s="11"/>
       <c r="C732" s="11"/>
-      <c r="D732" s="14"/>
+      <c r="D732" s="26"/>
       <c r="E732" s="11"/>
     </row>
     <row r="733" ht="13.65" customHeight="1">
       <c r="A733" s="11"/>
       <c r="B733" s="11"/>
       <c r="C733" s="11"/>
-      <c r="D733" s="14"/>
+      <c r="D733" s="26"/>
       <c r="E733" s="11"/>
     </row>
     <row r="734" ht="13.65" customHeight="1">
       <c r="A734" s="11"/>
       <c r="B734" s="11"/>
       <c r="C734" s="11"/>
-      <c r="D734" s="14"/>
+      <c r="D734" s="26"/>
       <c r="E734" s="11"/>
     </row>
     <row r="735" ht="13.65" customHeight="1">
       <c r="A735" s="11"/>
       <c r="B735" s="11"/>
       <c r="C735" s="11"/>
-      <c r="D735" s="14"/>
+      <c r="D735" s="26"/>
       <c r="E735" s="11"/>
     </row>
     <row r="736" ht="13.65" customHeight="1">
       <c r="A736" s="11"/>
       <c r="B736" s="11"/>
       <c r="C736" s="11"/>
-      <c r="D736" s="14"/>
+      <c r="D736" s="26"/>
       <c r="E736" s="11"/>
     </row>
     <row r="737" ht="13.65" customHeight="1">
       <c r="A737" s="11"/>
       <c r="B737" s="11"/>
       <c r="C737" s="11"/>
-      <c r="D737" s="14"/>
+      <c r="D737" s="26"/>
       <c r="E737" s="11"/>
     </row>
     <row r="738" ht="13.65" customHeight="1">
       <c r="A738" s="11"/>
       <c r="B738" s="11"/>
       <c r="C738" s="11"/>
-      <c r="D738" s="14"/>
+      <c r="D738" s="26"/>
       <c r="E738" s="11"/>
     </row>
     <row r="739" ht="13.65" customHeight="1">
       <c r="A739" s="11"/>
       <c r="B739" s="11"/>
       <c r="C739" s="11"/>
-      <c r="D739" s="14"/>
+      <c r="D739" s="26"/>
       <c r="E739" s="11"/>
     </row>
     <row r="740" ht="13.65" customHeight="1">
       <c r="A740" s="11"/>
       <c r="B740" s="11"/>
       <c r="C740" s="11"/>
-      <c r="D740" s="14"/>
+      <c r="D740" s="26"/>
       <c r="E740" s="11"/>
     </row>
     <row r="741" ht="13.65" customHeight="1">
       <c r="A741" s="11"/>
       <c r="B741" s="11"/>
       <c r="C741" s="11"/>
-      <c r="D741" s="14"/>
+      <c r="D741" s="26"/>
       <c r="E741" s="11"/>
     </row>
     <row r="742" ht="13.65" customHeight="1">
       <c r="A742" s="11"/>
       <c r="B742" s="11"/>
       <c r="C742" s="11"/>
-      <c r="D742" s="14"/>
+      <c r="D742" s="26"/>
       <c r="E742" s="11"/>
     </row>
     <row r="743" ht="13.65" customHeight="1">
       <c r="A743" s="11"/>
       <c r="B743" s="11"/>
       <c r="C743" s="11"/>
-      <c r="D743" s="14"/>
+      <c r="D743" s="26"/>
       <c r="E743" s="11"/>
     </row>
     <row r="744" ht="13.65" customHeight="1">
       <c r="A744" s="11"/>
       <c r="B744" s="11"/>
       <c r="C744" s="11"/>
-      <c r="D744" s="14"/>
+      <c r="D744" s="26"/>
       <c r="E744" s="11"/>
     </row>
     <row r="745" ht="13.65" customHeight="1">
       <c r="A745" s="11"/>
       <c r="B745" s="11"/>
       <c r="C745" s="11"/>
-      <c r="D745" s="14"/>
+      <c r="D745" s="26"/>
       <c r="E745" s="11"/>
     </row>
     <row r="746" ht="13.65" customHeight="1">
       <c r="A746" s="11"/>
       <c r="B746" s="11"/>
       <c r="C746" s="11"/>
-      <c r="D746" s="14"/>
+      <c r="D746" s="26"/>
       <c r="E746" s="11"/>
     </row>
     <row r="747" ht="13.65" customHeight="1">
       <c r="A747" s="11"/>
       <c r="B747" s="11"/>
       <c r="C747" s="11"/>
-      <c r="D747" s="14"/>
+      <c r="D747" s="26"/>
       <c r="E747" s="11"/>
     </row>
     <row r="748" ht="13.65" customHeight="1">
       <c r="A748" s="11"/>
       <c r="B748" s="11"/>
       <c r="C748" s="11"/>
-      <c r="D748" s="14"/>
+      <c r="D748" s="26"/>
       <c r="E748" s="11"/>
     </row>
     <row r="749" ht="13.65" customHeight="1">
       <c r="A749" s="11"/>
       <c r="B749" s="11"/>
       <c r="C749" s="11"/>
-      <c r="D749" s="14"/>
+      <c r="D749" s="26"/>
       <c r="E749" s="11"/>
     </row>
     <row r="750" ht="13.65" customHeight="1">
       <c r="A750" s="11"/>
       <c r="B750" s="11"/>
       <c r="C750" s="11"/>
-      <c r="D750" s="14"/>
+      <c r="D750" s="26"/>
       <c r="E750" s="11"/>
     </row>
     <row r="751" ht="13.65" customHeight="1">
       <c r="A751" s="11"/>
       <c r="B751" s="11"/>
       <c r="C751" s="11"/>
-      <c r="D751" s="14"/>
+      <c r="D751" s="26"/>
       <c r="E751" s="11"/>
     </row>
     <row r="752" ht="13.65" customHeight="1">
       <c r="A752" s="11"/>
       <c r="B752" s="11"/>
       <c r="C752" s="11"/>
-      <c r="D752" s="14"/>
+      <c r="D752" s="26"/>
       <c r="E752" s="11"/>
     </row>
     <row r="753" ht="13.65" customHeight="1">
       <c r="A753" s="11"/>
       <c r="B753" s="11"/>
       <c r="C753" s="11"/>
-      <c r="D753" s="14"/>
+      <c r="D753" s="26"/>
       <c r="E753" s="11"/>
     </row>
     <row r="754" ht="13.65" customHeight="1">
       <c r="A754" s="11"/>
       <c r="B754" s="11"/>
       <c r="C754" s="11"/>
-      <c r="D754" s="14"/>
+      <c r="D754" s="26"/>
       <c r="E754" s="11"/>
     </row>
     <row r="755" ht="13.65" customHeight="1">
       <c r="A755" s="11"/>
       <c r="B755" s="11"/>
       <c r="C755" s="11"/>
-      <c r="D755" s="14"/>
+      <c r="D755" s="26"/>
       <c r="E755" s="11"/>
     </row>
     <row r="756" ht="13.65" customHeight="1">
       <c r="A756" s="11"/>
       <c r="B756" s="11"/>
       <c r="C756" s="11"/>
-      <c r="D756" s="14"/>
+      <c r="D756" s="26"/>
       <c r="E756" s="11"/>
     </row>
     <row r="757" ht="13.65" customHeight="1">
       <c r="A757" s="11"/>
       <c r="B757" s="11"/>
       <c r="C757" s="11"/>
-      <c r="D757" s="14"/>
+      <c r="D757" s="26"/>
       <c r="E757" s="11"/>
     </row>
     <row r="758" ht="13.65" customHeight="1">
       <c r="A758" s="11"/>
       <c r="B758" s="11"/>
       <c r="C758" s="11"/>
-      <c r="D758" s="14"/>
+      <c r="D758" s="26"/>
       <c r="E758" s="11"/>
     </row>
     <row r="759" ht="13.65" customHeight="1">
       <c r="A759" s="11"/>
       <c r="B759" s="11"/>
       <c r="C759" s="11"/>
-      <c r="D759" s="14"/>
+      <c r="D759" s="26"/>
       <c r="E759" s="11"/>
     </row>
     <row r="760" ht="13.65" customHeight="1">
       <c r="A760" s="11"/>
       <c r="B760" s="11"/>
       <c r="C760" s="11"/>
-      <c r="D760" s="14"/>
+      <c r="D760" s="26"/>
       <c r="E760" s="11"/>
     </row>
     <row r="761" ht="13.65" customHeight="1">
       <c r="A761" s="11"/>
       <c r="B761" s="11"/>
       <c r="C761" s="11"/>
-      <c r="D761" s="14"/>
+      <c r="D761" s="26"/>
       <c r="E761" s="11"/>
     </row>
     <row r="762" ht="13.65" customHeight="1">
       <c r="A762" s="11"/>
       <c r="B762" s="11"/>
       <c r="C762" s="11"/>
-      <c r="D762" s="14"/>
+      <c r="D762" s="26"/>
       <c r="E762" s="11"/>
     </row>
     <row r="763" ht="13.65" customHeight="1">
       <c r="A763" s="11"/>
       <c r="B763" s="11"/>
       <c r="C763" s="11"/>
-      <c r="D763" s="14"/>
+      <c r="D763" s="26"/>
       <c r="E763" s="11"/>
     </row>
     <row r="764" ht="13.65" customHeight="1">
       <c r="A764" s="11"/>
       <c r="B764" s="11"/>
       <c r="C764" s="11"/>
-      <c r="D764" s="14"/>
+      <c r="D764" s="26"/>
       <c r="E764" s="11"/>
     </row>
     <row r="765" ht="13.65" customHeight="1">
       <c r="A765" s="11"/>
       <c r="B765" s="11"/>
       <c r="C765" s="11"/>
-      <c r="D765" s="14"/>
+      <c r="D765" s="26"/>
       <c r="E765" s="11"/>
     </row>
     <row r="766" ht="13.65" customHeight="1">
       <c r="A766" s="11"/>
       <c r="B766" s="11"/>
       <c r="C766" s="11"/>
-      <c r="D766" s="14"/>
+      <c r="D766" s="26"/>
       <c r="E766" s="11"/>
     </row>
     <row r="767" ht="13.65" customHeight="1">
       <c r="A767" s="11"/>
       <c r="B767" s="11"/>
       <c r="C767" s="11"/>
-      <c r="D767" s="14"/>
+      <c r="D767" s="26"/>
       <c r="E767" s="11"/>
     </row>
     <row r="768" ht="13.65" customHeight="1">
       <c r="A768" s="11"/>
       <c r="B768" s="11"/>
       <c r="C768" s="11"/>
-      <c r="D768" s="14"/>
+      <c r="D768" s="26"/>
       <c r="E768" s="11"/>
     </row>
     <row r="769" ht="13.65" customHeight="1">
       <c r="A769" s="11"/>
       <c r="B769" s="11"/>
       <c r="C769" s="11"/>
-      <c r="D769" s="14"/>
+      <c r="D769" s="26"/>
       <c r="E769" s="11"/>
     </row>
     <row r="770" ht="13.65" customHeight="1">
       <c r="A770" s="11"/>
       <c r="B770" s="11"/>
       <c r="C770" s="11"/>
-      <c r="D770" s="14"/>
+      <c r="D770" s="26"/>
       <c r="E770" s="11"/>
     </row>
     <row r="771" ht="13.65" customHeight="1">
       <c r="A771" s="11"/>
       <c r="B771" s="11"/>
       <c r="C771" s="11"/>
-      <c r="D771" s="14"/>
+      <c r="D771" s="26"/>
       <c r="E771" s="11"/>
     </row>
     <row r="772" ht="13.65" customHeight="1">
       <c r="A772" s="11"/>
       <c r="B772" s="11"/>
       <c r="C772" s="11"/>
-      <c r="D772" s="14"/>
+      <c r="D772" s="26"/>
       <c r="E772" s="11"/>
     </row>
     <row r="773" ht="13.65" customHeight="1">
       <c r="A773" s="11"/>
       <c r="B773" s="11"/>
       <c r="C773" s="11"/>
-      <c r="D773" s="14"/>
+      <c r="D773" s="26"/>
       <c r="E773" s="11"/>
     </row>
     <row r="774" ht="13.65" customHeight="1">
       <c r="A774" s="11"/>
       <c r="B774" s="11"/>
       <c r="C774" s="11"/>
-      <c r="D774" s="14"/>
+      <c r="D774" s="26"/>
       <c r="E774" s="11"/>
     </row>
     <row r="775" ht="13.65" customHeight="1">
       <c r="A775" s="11"/>
       <c r="B775" s="11"/>
       <c r="C775" s="11"/>
-      <c r="D775" s="14"/>
+      <c r="D775" s="26"/>
       <c r="E775" s="11"/>
     </row>
     <row r="776" ht="13.65" customHeight="1">
       <c r="A776" s="11"/>
       <c r="B776" s="11"/>
       <c r="C776" s="11"/>
-      <c r="D776" s="14"/>
+      <c r="D776" s="26"/>
       <c r="E776" s="11"/>
     </row>
     <row r="777" ht="13.65" customHeight="1">
       <c r="A777" s="11"/>
       <c r="B777" s="11"/>
       <c r="C777" s="11"/>
-      <c r="D777" s="14"/>
+      <c r="D777" s="26"/>
       <c r="E777" s="11"/>
     </row>
     <row r="778" ht="13.65" customHeight="1">
       <c r="A778" s="11"/>
       <c r="B778" s="11"/>
       <c r="C778" s="11"/>
-      <c r="D778" s="14"/>
+      <c r="D778" s="26"/>
       <c r="E778" s="11"/>
     </row>
     <row r="779" ht="13.65" customHeight="1">
       <c r="A779" s="11"/>
       <c r="B779" s="11"/>
       <c r="C779" s="11"/>
-      <c r="D779" s="14"/>
+      <c r="D779" s="26"/>
       <c r="E779" s="11"/>
     </row>
     <row r="780" ht="13.65" customHeight="1">
       <c r="A780" s="11"/>
       <c r="B780" s="11"/>
       <c r="C780" s="11"/>
-      <c r="D780" s="14"/>
+      <c r="D780" s="26"/>
       <c r="E780" s="11"/>
     </row>
     <row r="781" ht="13.65" customHeight="1">
       <c r="A781" s="11"/>
       <c r="B781" s="11"/>
       <c r="C781" s="11"/>
-      <c r="D781" s="14"/>
+      <c r="D781" s="26"/>
       <c r="E781" s="11"/>
     </row>
     <row r="782" ht="13.65" customHeight="1">
       <c r="A782" s="11"/>
       <c r="B782" s="11"/>
       <c r="C782" s="11"/>
-      <c r="D782" s="14"/>
+      <c r="D782" s="26"/>
       <c r="E782" s="11"/>
     </row>
     <row r="783" ht="13.65" customHeight="1">
       <c r="A783" s="11"/>
       <c r="B783" s="11"/>
       <c r="C783" s="11"/>
-      <c r="D783" s="14"/>
+      <c r="D783" s="26"/>
       <c r="E783" s="11"/>
     </row>
     <row r="784" ht="13.65" customHeight="1">
       <c r="A784" s="11"/>
       <c r="B784" s="11"/>
       <c r="C784" s="11"/>
-      <c r="D784" s="14"/>
+      <c r="D784" s="26"/>
       <c r="E784" s="11"/>
     </row>
     <row r="785" ht="13.65" customHeight="1">
       <c r="A785" s="11"/>
       <c r="B785" s="11"/>
       <c r="C785" s="11"/>
-      <c r="D785" s="14"/>
+      <c r="D785" s="26"/>
       <c r="E785" s="11"/>
     </row>
     <row r="786" ht="13.65" customHeight="1">
       <c r="A786" s="11"/>
       <c r="B786" s="11"/>
       <c r="C786" s="11"/>
-      <c r="D786" s="14"/>
+      <c r="D786" s="26"/>
       <c r="E786" s="11"/>
     </row>
     <row r="787" ht="13.65" customHeight="1">
       <c r="A787" s="11"/>
       <c r="B787" s="11"/>
       <c r="C787" s="11"/>
-      <c r="D787" s="14"/>
+      <c r="D787" s="26"/>
       <c r="E787" s="11"/>
     </row>
     <row r="788" ht="13.65" customHeight="1">
       <c r="A788" s="11"/>
       <c r="B788" s="11"/>
       <c r="C788" s="11"/>
-      <c r="D788" s="14"/>
+      <c r="D788" s="26"/>
       <c r="E788" s="11"/>
     </row>
     <row r="789" ht="13.65" customHeight="1">
       <c r="A789" s="11"/>
       <c r="B789" s="11"/>
       <c r="C789" s="11"/>
-      <c r="D789" s="14"/>
+      <c r="D789" s="26"/>
       <c r="E789" s="11"/>
     </row>
     <row r="790" ht="13.65" customHeight="1">
       <c r="A790" s="11"/>
       <c r="B790" s="11"/>
       <c r="C790" s="11"/>
-      <c r="D790" s="14"/>
+      <c r="D790" s="26"/>
       <c r="E790" s="11"/>
     </row>
     <row r="791" ht="13.65" customHeight="1">
       <c r="A791" s="11"/>
       <c r="B791" s="11"/>
       <c r="C791" s="11"/>
-      <c r="D791" s="14"/>
+      <c r="D791" s="26"/>
       <c r="E791" s="11"/>
     </row>
     <row r="792" ht="13.65" customHeight="1">
       <c r="A792" s="11"/>
       <c r="B792" s="11"/>
       <c r="C792" s="11"/>
-      <c r="D792" s="14"/>
+      <c r="D792" s="26"/>
       <c r="E792" s="11"/>
     </row>
     <row r="793" ht="13.65" customHeight="1">
       <c r="A793" s="11"/>
       <c r="B793" s="11"/>
       <c r="C793" s="11"/>
-      <c r="D793" s="14"/>
+      <c r="D793" s="26"/>
       <c r="E793" s="11"/>
     </row>
     <row r="794" ht="13.65" customHeight="1">
       <c r="A794" s="11"/>
       <c r="B794" s="11"/>
       <c r="C794" s="11"/>
-      <c r="D794" s="14"/>
+      <c r="D794" s="26"/>
       <c r="E794" s="11"/>
     </row>
     <row r="795" ht="13.65" customHeight="1">
       <c r="A795" s="11"/>
       <c r="B795" s="11"/>
       <c r="C795" s="11"/>
-      <c r="D795" s="14"/>
+      <c r="D795" s="26"/>
       <c r="E795" s="11"/>
     </row>
     <row r="796" ht="13.65" customHeight="1">
       <c r="A796" s="11"/>
       <c r="B796" s="11"/>
       <c r="C796" s="11"/>
-      <c r="D796" s="14"/>
+      <c r="D796" s="26"/>
       <c r="E796" s="11"/>
     </row>
     <row r="797" ht="13.65" customHeight="1">
       <c r="A797" s="11"/>
       <c r="B797" s="11"/>
       <c r="C797" s="11"/>
-      <c r="D797" s="14"/>
+      <c r="D797" s="26"/>
       <c r="E797" s="11"/>
     </row>
     <row r="798" ht="13.65" customHeight="1">
       <c r="A798" s="11"/>
       <c r="B798" s="11"/>
       <c r="C798" s="11"/>
-      <c r="D798" s="14"/>
+      <c r="D798" s="26"/>
       <c r="E798" s="11"/>
     </row>
     <row r="799" ht="13.65" customHeight="1">
       <c r="A799" s="11"/>
       <c r="B799" s="11"/>
       <c r="C799" s="11"/>
-      <c r="D799" s="14"/>
+      <c r="D799" s="26"/>
       <c r="E799" s="11"/>
     </row>
     <row r="800" ht="13.65" customHeight="1">
       <c r="A800" s="11"/>
       <c r="B800" s="11"/>
       <c r="C800" s="11"/>
-      <c r="D800" s="14"/>
+      <c r="D800" s="26"/>
       <c r="E800" s="11"/>
     </row>
     <row r="801" ht="13.65" customHeight="1">
       <c r="A801" s="11"/>
       <c r="B801" s="11"/>
       <c r="C801" s="11"/>
-      <c r="D801" s="14"/>
+      <c r="D801" s="26"/>
       <c r="E801" s="11"/>
     </row>
     <row r="802" ht="13.65" customHeight="1">
       <c r="A802" s="11"/>
       <c r="B802" s="11"/>
       <c r="C802" s="11"/>
-      <c r="D802" s="14"/>
+      <c r="D802" s="26"/>
       <c r="E802" s="11"/>
     </row>
     <row r="803" ht="13.65" customHeight="1">
       <c r="A803" s="11"/>
       <c r="B803" s="11"/>
       <c r="C803" s="11"/>
-      <c r="D803" s="14"/>
+      <c r="D803" s="26"/>
       <c r="E803" s="11"/>
     </row>
     <row r="804" ht="13.65" customHeight="1">
       <c r="A804" s="11"/>
       <c r="B804" s="11"/>
       <c r="C804" s="11"/>
-      <c r="D804" s="14"/>
+      <c r="D804" s="26"/>
       <c r="E804" s="11"/>
     </row>
     <row r="805" ht="13.65" customHeight="1">
       <c r="A805" s="11"/>
       <c r="B805" s="11"/>
       <c r="C805" s="11"/>
-      <c r="D805" s="14"/>
+      <c r="D805" s="26"/>
       <c r="E805" s="11"/>
     </row>
     <row r="806" ht="13.65" customHeight="1">
       <c r="A806" s="11"/>
       <c r="B806" s="11"/>
       <c r="C806" s="11"/>
-      <c r="D806" s="14"/>
+      <c r="D806" s="26"/>
       <c r="E806" s="11"/>
     </row>
     <row r="807" ht="13.65" customHeight="1">
       <c r="A807" s="11"/>
       <c r="B807" s="11"/>
       <c r="C807" s="11"/>
-      <c r="D807" s="14"/>
+      <c r="D807" s="26"/>
       <c r="E807" s="11"/>
     </row>
     <row r="808" ht="13.65" customHeight="1">
       <c r="A808" s="11"/>
       <c r="B808" s="11"/>
       <c r="C808" s="11"/>
-      <c r="D808" s="14"/>
+      <c r="D808" s="26"/>
       <c r="E808" s="11"/>
     </row>
     <row r="809" ht="13.65" customHeight="1">
       <c r="A809" s="11"/>
       <c r="B809" s="11"/>
       <c r="C809" s="11"/>
-      <c r="D809" s="14"/>
+      <c r="D809" s="26"/>
       <c r="E809" s="11"/>
     </row>
     <row r="810" ht="13.65" customHeight="1">
       <c r="A810" s="11"/>
       <c r="B810" s="11"/>
       <c r="C810" s="11"/>
-      <c r="D810" s="14"/>
+      <c r="D810" s="26"/>
       <c r="E810" s="11"/>
     </row>
     <row r="811" ht="13.65" customHeight="1">
       <c r="A811" s="11"/>
       <c r="B811" s="11"/>
       <c r="C811" s="11"/>
-      <c r="D811" s="14"/>
+      <c r="D811" s="26"/>
       <c r="E811" s="11"/>
     </row>
     <row r="812" ht="13.65" customHeight="1">
       <c r="A812" s="11"/>
       <c r="B812" s="11"/>
       <c r="C812" s="11"/>
-      <c r="D812" s="14"/>
+      <c r="D812" s="26"/>
       <c r="E812" s="11"/>
     </row>
     <row r="813" ht="13.65" customHeight="1">
       <c r="A813" s="11"/>
       <c r="B813" s="11"/>
       <c r="C813" s="11"/>
-      <c r="D813" s="14"/>
+      <c r="D813" s="26"/>
       <c r="E813" s="11"/>
     </row>
     <row r="814" ht="13.65" customHeight="1">
       <c r="A814" s="11"/>
       <c r="B814" s="11"/>
       <c r="C814" s="11"/>
-      <c r="D814" s="14"/>
+      <c r="D814" s="26"/>
       <c r="E814" s="11"/>
     </row>
     <row r="815" ht="13.65" customHeight="1">
       <c r="A815" s="11"/>
       <c r="B815" s="11"/>
       <c r="C815" s="11"/>
-      <c r="D815" s="14"/>
+      <c r="D815" s="26"/>
       <c r="E815" s="11"/>
     </row>
     <row r="816" ht="13.65" customHeight="1">
       <c r="A816" s="11"/>
       <c r="B816" s="11"/>
       <c r="C816" s="11"/>
-      <c r="D816" s="14"/>
+      <c r="D816" s="26"/>
       <c r="E816" s="11"/>
     </row>
     <row r="817" ht="13.65" customHeight="1">
       <c r="A817" s="11"/>
       <c r="B817" s="11"/>
       <c r="C817" s="11"/>
-      <c r="D817" s="14"/>
+      <c r="D817" s="26"/>
       <c r="E817" s="11"/>
     </row>
     <row r="818" ht="13.65" customHeight="1">
       <c r="A818" s="11"/>
       <c r="B818" s="11"/>
       <c r="C818" s="11"/>
-      <c r="D818" s="14"/>
+      <c r="D818" s="26"/>
       <c r="E818" s="11"/>
     </row>
     <row r="819" ht="13.65" customHeight="1">
       <c r="A819" s="11"/>
       <c r="B819" s="11"/>
       <c r="C819" s="11"/>
-      <c r="D819" s="14"/>
+      <c r="D819" s="26"/>
       <c r="E819" s="11"/>
     </row>
     <row r="820" ht="13.65" customHeight="1">
       <c r="A820" s="11"/>
       <c r="B820" s="11"/>
       <c r="C820" s="11"/>
-      <c r="D820" s="14"/>
+      <c r="D820" s="26"/>
       <c r="E820" s="11"/>
     </row>
     <row r="821" ht="13.65" customHeight="1">
       <c r="A821" s="11"/>
       <c r="B821" s="11"/>
       <c r="C821" s="11"/>
-      <c r="D821" s="14"/>
+      <c r="D821" s="26"/>
       <c r="E821" s="11"/>
     </row>
     <row r="822" ht="13.65" customHeight="1">
       <c r="A822" s="11"/>
       <c r="B822" s="11"/>
       <c r="C822" s="11"/>
-      <c r="D822" s="14"/>
+      <c r="D822" s="26"/>
       <c r="E822" s="11"/>
     </row>
     <row r="823" ht="13.65" customHeight="1">
       <c r="A823" s="11"/>
       <c r="B823" s="11"/>
       <c r="C823" s="11"/>
-      <c r="D823" s="14"/>
+      <c r="D823" s="26"/>
       <c r="E823" s="11"/>
     </row>
     <row r="824" ht="13.65" customHeight="1">
       <c r="A824" s="11"/>
       <c r="B824" s="11"/>
       <c r="C824" s="11"/>
-      <c r="D824" s="14"/>
+      <c r="D824" s="26"/>
       <c r="E824" s="11"/>
     </row>
     <row r="825" ht="13.65" customHeight="1">
       <c r="A825" s="11"/>
       <c r="B825" s="11"/>
       <c r="C825" s="11"/>
-      <c r="D825" s="14"/>
+      <c r="D825" s="26"/>
       <c r="E825" s="11"/>
     </row>
     <row r="826" ht="13.65" customHeight="1">
       <c r="A826" s="11"/>
       <c r="B826" s="11"/>
       <c r="C826" s="11"/>
-      <c r="D826" s="14"/>
+      <c r="D826" s="26"/>
       <c r="E826" s="11"/>
     </row>
     <row r="827" ht="13.65" customHeight="1">
       <c r="A827" s="11"/>
       <c r="B827" s="11"/>
       <c r="C827" s="11"/>
-      <c r="D827" s="14"/>
+      <c r="D827" s="26"/>
       <c r="E827" s="11"/>
     </row>
     <row r="828" ht="13.65" customHeight="1">
       <c r="A828" s="11"/>
       <c r="B828" s="11"/>
       <c r="C828" s="11"/>
-      <c r="D828" s="14"/>
+      <c r="D828" s="26"/>
       <c r="E828" s="11"/>
     </row>
     <row r="829" ht="13.65" customHeight="1">
       <c r="A829" s="11"/>
       <c r="B829" s="11"/>
       <c r="C829" s="11"/>
-      <c r="D829" s="14"/>
+      <c r="D829" s="26"/>
       <c r="E829" s="11"/>
     </row>
     <row r="830" ht="13.65" customHeight="1">
       <c r="A830" s="11"/>
       <c r="B830" s="11"/>
       <c r="C830" s="11"/>
-      <c r="D830" s="14"/>
+      <c r="D830" s="26"/>
       <c r="E830" s="11"/>
     </row>
     <row r="831" ht="13.65" customHeight="1">
       <c r="A831" s="11"/>
       <c r="B831" s="11"/>
       <c r="C831" s="11"/>
-      <c r="D831" s="14"/>
+      <c r="D831" s="26"/>
       <c r="E831" s="11"/>
     </row>
     <row r="832" ht="13.65" customHeight="1">
       <c r="A832" s="11"/>
       <c r="B832" s="11"/>
       <c r="C832" s="11"/>
-      <c r="D832" s="14"/>
+      <c r="D832" s="26"/>
       <c r="E832" s="11"/>
     </row>
     <row r="833" ht="13.65" customHeight="1">
       <c r="A833" s="11"/>
       <c r="B833" s="11"/>
       <c r="C833" s="11"/>
-      <c r="D833" s="14"/>
+      <c r="D833" s="26"/>
       <c r="E833" s="11"/>
     </row>
     <row r="834" ht="13.65" customHeight="1">
       <c r="A834" s="11"/>
       <c r="B834" s="11"/>
       <c r="C834" s="11"/>
-      <c r="D834" s="14"/>
+      <c r="D834" s="26"/>
       <c r="E834" s="11"/>
     </row>
     <row r="835" ht="13.65" customHeight="1">
       <c r="A835" s="11"/>
       <c r="B835" s="11"/>
       <c r="C835" s="11"/>
-      <c r="D835" s="14"/>
+      <c r="D835" s="26"/>
       <c r="E835" s="11"/>
     </row>
     <row r="836" ht="13.65" customHeight="1">
       <c r="A836" s="11"/>
       <c r="B836" s="11"/>
       <c r="C836" s="11"/>
-      <c r="D836" s="14"/>
+      <c r="D836" s="26"/>
       <c r="E836" s="11"/>
     </row>
     <row r="837" ht="13.65" customHeight="1">
       <c r="A837" s="11"/>
       <c r="B837" s="11"/>
       <c r="C837" s="11"/>
-      <c r="D837" s="14"/>
+      <c r="D837" s="26"/>
       <c r="E837" s="11"/>
     </row>
     <row r="838" ht="13.65" customHeight="1">
       <c r="A838" s="11"/>
       <c r="B838" s="11"/>
       <c r="C838" s="11"/>
-      <c r="D838" s="14"/>
+      <c r="D838" s="26"/>
       <c r="E838" s="11"/>
     </row>
     <row r="839" ht="13.65" customHeight="1">
       <c r="A839" s="11"/>
       <c r="B839" s="11"/>
       <c r="C839" s="11"/>
-      <c r="D839" s="14"/>
+      <c r="D839" s="26"/>
       <c r="E839" s="11"/>
     </row>
     <row r="840" ht="13.65" customHeight="1">
       <c r="A840" s="11"/>
       <c r="B840" s="11"/>
       <c r="C840" s="11"/>
-      <c r="D840" s="14"/>
+      <c r="D840" s="26"/>
       <c r="E840" s="11"/>
     </row>
     <row r="841" ht="13.65" customHeight="1">
       <c r="A841" s="11"/>
       <c r="B841" s="11"/>
       <c r="C841" s="11"/>
-      <c r="D841" s="14"/>
+      <c r="D841" s="26"/>
       <c r="E841" s="11"/>
     </row>
     <row r="842" ht="13.65" customHeight="1">
       <c r="A842" s="11"/>
       <c r="B842" s="11"/>
       <c r="C842" s="11"/>
-      <c r="D842" s="14"/>
+      <c r="D842" s="26"/>
       <c r="E842" s="11"/>
     </row>
     <row r="843" ht="13.65" customHeight="1">
       <c r="A843" s="11"/>
       <c r="B843" s="11"/>
       <c r="C843" s="11"/>
-      <c r="D843" s="14"/>
+      <c r="D843" s="26"/>
       <c r="E843" s="11"/>
     </row>
     <row r="844" ht="13.65" customHeight="1">
       <c r="A844" s="11"/>
       <c r="B844" s="11"/>
       <c r="C844" s="11"/>
-      <c r="D844" s="14"/>
+      <c r="D844" s="26"/>
       <c r="E844" s="11"/>
     </row>
     <row r="845" ht="13.65" customHeight="1">
       <c r="A845" s="11"/>
       <c r="B845" s="11"/>
       <c r="C845" s="11"/>
-      <c r="D845" s="14"/>
+      <c r="D845" s="26"/>
       <c r="E845" s="11"/>
     </row>
     <row r="846" ht="13.65" customHeight="1">
       <c r="A846" s="11"/>
       <c r="B846" s="11"/>
       <c r="C846" s="11"/>
-      <c r="D846" s="14"/>
+      <c r="D846" s="26"/>
       <c r="E846" s="11"/>
     </row>
     <row r="847" ht="13.65" customHeight="1">
       <c r="A847" s="11"/>
       <c r="B847" s="11"/>
       <c r="C847" s="11"/>
-      <c r="D847" s="14"/>
+      <c r="D847" s="26"/>
       <c r="E847" s="11"/>
     </row>
     <row r="848" ht="13.65" customHeight="1">
       <c r="A848" s="11"/>
       <c r="B848" s="11"/>
       <c r="C848" s="11"/>
-      <c r="D848" s="14"/>
+      <c r="D848" s="26"/>
       <c r="E848" s="11"/>
     </row>
     <row r="849" ht="13.65" customHeight="1">
       <c r="A849" s="11"/>
       <c r="B849" s="11"/>
       <c r="C849" s="11"/>
-      <c r="D849" s="14"/>
+      <c r="D849" s="26"/>
       <c r="E849" s="11"/>
     </row>
     <row r="850" ht="13.65" customHeight="1">
       <c r="A850" s="11"/>
       <c r="B850" s="11"/>
       <c r="C850" s="11"/>
-      <c r="D850" s="14"/>
+      <c r="D850" s="26"/>
       <c r="E850" s="11"/>
     </row>
     <row r="851" ht="13.65" customHeight="1">
       <c r="A851" s="11"/>
       <c r="B851" s="11"/>
       <c r="C851" s="11"/>
-      <c r="D851" s="14"/>
+      <c r="D851" s="26"/>
       <c r="E851" s="11"/>
     </row>
     <row r="852" ht="13.65" customHeight="1">
       <c r="A852" s="11"/>
       <c r="B852" s="11"/>
       <c r="C852" s="11"/>
-      <c r="D852" s="14"/>
+      <c r="D852" s="26"/>
       <c r="E852" s="11"/>
     </row>
     <row r="853" ht="13.65" customHeight="1">
       <c r="A853" s="11"/>
       <c r="B853" s="11"/>
       <c r="C853" s="11"/>
-      <c r="D853" s="14"/>
+      <c r="D853" s="26"/>
       <c r="E853" s="11"/>
     </row>
     <row r="854" ht="13.65" customHeight="1">
       <c r="A854" s="11"/>
       <c r="B854" s="11"/>
       <c r="C854" s="11"/>
-      <c r="D854" s="14"/>
+      <c r="D854" s="26"/>
       <c r="E854" s="11"/>
     </row>
     <row r="855" ht="13.65" customHeight="1">
       <c r="A855" s="11"/>
       <c r="B855" s="11"/>
       <c r="C855" s="11"/>
-      <c r="D855" s="14"/>
+      <c r="D855" s="26"/>
       <c r="E855" s="11"/>
     </row>
     <row r="856" ht="13.65" customHeight="1">
       <c r="A856" s="11"/>
       <c r="B856" s="11"/>
       <c r="C856" s="11"/>
-      <c r="D856" s="14"/>
+      <c r="D856" s="26"/>
       <c r="E856" s="11"/>
     </row>
     <row r="857" ht="13.65" customHeight="1">
       <c r="A857" s="11"/>
       <c r="B857" s="11"/>
       <c r="C857" s="11"/>
-      <c r="D857" s="14"/>
+      <c r="D857" s="26"/>
       <c r="E857" s="11"/>
     </row>
     <row r="858" ht="13.65" customHeight="1">
       <c r="A858" s="11"/>
       <c r="B858" s="11"/>
       <c r="C858" s="11"/>
-      <c r="D858" s="14"/>
+      <c r="D858" s="26"/>
       <c r="E858" s="11"/>
     </row>
     <row r="859" ht="13.65" customHeight="1">
       <c r="A859" s="11"/>
       <c r="B859" s="11"/>
       <c r="C859" s="11"/>
-      <c r="D859" s="14"/>
+      <c r="D859" s="26"/>
       <c r="E859" s="11"/>
     </row>
     <row r="860" ht="13.65" customHeight="1">
       <c r="A860" s="11"/>
       <c r="B860" s="11"/>
       <c r="C860" s="11"/>
-      <c r="D860" s="14"/>
+      <c r="D860" s="26"/>
       <c r="E860" s="11"/>
     </row>
     <row r="861" ht="13.65" customHeight="1">
       <c r="A861" s="11"/>
       <c r="B861" s="11"/>
       <c r="C861" s="11"/>
-      <c r="D861" s="14"/>
+      <c r="D861" s="26"/>
       <c r="E861" s="11"/>
     </row>
     <row r="862" ht="13.65" customHeight="1">
       <c r="A862" s="11"/>
       <c r="B862" s="11"/>
       <c r="C862" s="11"/>
-      <c r="D862" s="14"/>
+      <c r="D862" s="26"/>
       <c r="E862" s="11"/>
     </row>
     <row r="863" ht="13.65" customHeight="1">
       <c r="A863" s="11"/>
       <c r="B863" s="11"/>
       <c r="C863" s="11"/>
-      <c r="D863" s="14"/>
+      <c r="D863" s="26"/>
       <c r="E863" s="11"/>
     </row>
     <row r="864" ht="13.65" customHeight="1">
       <c r="A864" s="11"/>
       <c r="B864" s="11"/>
       <c r="C864" s="11"/>
-      <c r="D864" s="14"/>
+      <c r="D864" s="26"/>
       <c r="E864" s="11"/>
     </row>
     <row r="865" ht="13.65" customHeight="1">
       <c r="A865" s="11"/>
       <c r="B865" s="11"/>
       <c r="C865" s="11"/>
-      <c r="D865" s="14"/>
+      <c r="D865" s="26"/>
       <c r="E865" s="11"/>
     </row>
     <row r="866" ht="13.65" customHeight="1">
       <c r="A866" s="11"/>
       <c r="B866" s="11"/>
       <c r="C866" s="11"/>
-      <c r="D866" s="14"/>
+      <c r="D866" s="26"/>
       <c r="E866" s="11"/>
     </row>
     <row r="867" ht="13.65" customHeight="1">
       <c r="A867" s="11"/>
       <c r="B867" s="11"/>
       <c r="C867" s="11"/>
-      <c r="D867" s="14"/>
+      <c r="D867" s="26"/>
       <c r="E867" s="11"/>
     </row>
     <row r="868" ht="13.65" customHeight="1">
       <c r="A868" s="11"/>
       <c r="B868" s="11"/>
       <c r="C868" s="11"/>
-      <c r="D868" s="14"/>
+      <c r="D868" s="26"/>
       <c r="E868" s="11"/>
     </row>
     <row r="869" ht="13.65" customHeight="1">
       <c r="A869" s="11"/>
       <c r="B869" s="11"/>
       <c r="C869" s="11"/>
-      <c r="D869" s="14"/>
+      <c r="D869" s="26"/>
       <c r="E869" s="11"/>
     </row>
     <row r="870" ht="13.65" customHeight="1">
       <c r="A870" s="11"/>
       <c r="B870" s="11"/>
       <c r="C870" s="11"/>
-      <c r="D870" s="14"/>
+      <c r="D870" s="26"/>
       <c r="E870" s="11"/>
     </row>
     <row r="871" ht="13.65" customHeight="1">
       <c r="A871" s="11"/>
       <c r="B871" s="11"/>
       <c r="C871" s="11"/>
-      <c r="D871" s="14"/>
+      <c r="D871" s="26"/>
       <c r="E871" s="11"/>
     </row>
     <row r="872" ht="13.65" customHeight="1">
       <c r="A872" s="11"/>
       <c r="B872" s="11"/>
       <c r="C872" s="11"/>
-      <c r="D872" s="14"/>
+      <c r="D872" s="26"/>
       <c r="E872" s="11"/>
     </row>
     <row r="873" ht="13.65" customHeight="1">
       <c r="A873" s="11"/>
       <c r="B873" s="11"/>
       <c r="C873" s="11"/>
-      <c r="D873" s="14"/>
+      <c r="D873" s="26"/>
       <c r="E873" s="11"/>
     </row>
     <row r="874" ht="13.65" customHeight="1">
       <c r="A874" s="11"/>
       <c r="B874" s="11"/>
       <c r="C874" s="11"/>
-      <c r="D874" s="14"/>
+      <c r="D874" s="26"/>
       <c r="E874" s="11"/>
     </row>
     <row r="875" ht="13.65" customHeight="1">
       <c r="A875" s="11"/>
       <c r="B875" s="11"/>
       <c r="C875" s="11"/>
-      <c r="D875" s="14"/>
+      <c r="D875" s="26"/>
       <c r="E875" s="11"/>
     </row>
     <row r="876" ht="13.65" customHeight="1">
       <c r="A876" s="11"/>
       <c r="B876" s="11"/>
       <c r="C876" s="11"/>
-      <c r="D876" s="14"/>
+      <c r="D876" s="26"/>
       <c r="E876" s="11"/>
     </row>
     <row r="877" ht="13.65" customHeight="1">
       <c r="A877" s="11"/>
       <c r="B877" s="11"/>
       <c r="C877" s="11"/>
-      <c r="D877" s="14"/>
+      <c r="D877" s="26"/>
       <c r="E877" s="11"/>
     </row>
     <row r="878" ht="13.65" customHeight="1">
       <c r="A878" s="11"/>
       <c r="B878" s="11"/>
       <c r="C878" s="11"/>
-      <c r="D878" s="14"/>
+      <c r="D878" s="26"/>
       <c r="E878" s="11"/>
     </row>
     <row r="879" ht="13.65" customHeight="1">
       <c r="A879" s="11"/>
       <c r="B879" s="11"/>
       <c r="C879" s="11"/>
-      <c r="D879" s="14"/>
+      <c r="D879" s="26"/>
       <c r="E879" s="11"/>
     </row>
     <row r="880" ht="13.65" customHeight="1">
       <c r="A880" s="11"/>
       <c r="B880" s="11"/>
       <c r="C880" s="11"/>
-      <c r="D880" s="14"/>
+      <c r="D880" s="26"/>
       <c r="E880" s="11"/>
     </row>
     <row r="881" ht="13.65" customHeight="1">
       <c r="A881" s="11"/>
       <c r="B881" s="11"/>
       <c r="C881" s="11"/>
-      <c r="D881" s="14"/>
+      <c r="D881" s="26"/>
       <c r="E881" s="11"/>
     </row>
     <row r="882" ht="13.65" customHeight="1">
       <c r="A882" s="11"/>
       <c r="B882" s="11"/>
       <c r="C882" s="11"/>
-      <c r="D882" s="14"/>
+      <c r="D882" s="26"/>
       <c r="E882" s="11"/>
     </row>
     <row r="883" ht="13.65" customHeight="1">
       <c r="A883" s="11"/>
       <c r="B883" s="11"/>
       <c r="C883" s="11"/>
-      <c r="D883" s="14"/>
+      <c r="D883" s="26"/>
       <c r="E883" s="11"/>
     </row>
     <row r="884" ht="13.65" customHeight="1">
       <c r="A884" s="11"/>
       <c r="B884" s="11"/>
       <c r="C884" s="11"/>
-      <c r="D884" s="14"/>
+      <c r="D884" s="26"/>
       <c r="E884" s="11"/>
     </row>
     <row r="885" ht="13.65" customHeight="1">
       <c r="A885" s="11"/>
       <c r="B885" s="11"/>
       <c r="C885" s="11"/>
-      <c r="D885" s="14"/>
+      <c r="D885" s="26"/>
       <c r="E885" s="11"/>
     </row>
     <row r="886" ht="13.65" customHeight="1">
       <c r="A886" s="11"/>
       <c r="B886" s="11"/>
       <c r="C886" s="11"/>
-      <c r="D886" s="14"/>
+      <c r="D886" s="26"/>
       <c r="E886" s="11"/>
     </row>
     <row r="887" ht="13.65" customHeight="1">
       <c r="A887" s="11"/>
       <c r="B887" s="11"/>
       <c r="C887" s="11"/>
-      <c r="D887" s="14"/>
+      <c r="D887" s="26"/>
       <c r="E887" s="11"/>
     </row>
     <row r="888" ht="13.65" customHeight="1">
       <c r="A888" s="11"/>
       <c r="B888" s="11"/>
       <c r="C888" s="11"/>
-      <c r="D888" s="14"/>
+      <c r="D888" s="26"/>
       <c r="E888" s="11"/>
     </row>
     <row r="889" ht="13.65" customHeight="1">
       <c r="A889" s="11"/>
       <c r="B889" s="11"/>
       <c r="C889" s="11"/>
-      <c r="D889" s="14"/>
+      <c r="D889" s="26"/>
       <c r="E889" s="11"/>
     </row>
     <row r="890" ht="13.65" customHeight="1">
       <c r="A890" s="11"/>
       <c r="B890" s="11"/>
       <c r="C890" s="11"/>
-      <c r="D890" s="14"/>
+      <c r="D890" s="26"/>
       <c r="E890" s="11"/>
     </row>
     <row r="891" ht="13.65" customHeight="1">
       <c r="A891" s="11"/>
       <c r="B891" s="11"/>
       <c r="C891" s="11"/>
-      <c r="D891" s="14"/>
+      <c r="D891" s="26"/>
       <c r="E891" s="11"/>
     </row>
     <row r="892" ht="13.65" customHeight="1">
       <c r="A892" s="11"/>
       <c r="B892" s="11"/>
       <c r="C892" s="11"/>
-      <c r="D892" s="14"/>
+      <c r="D892" s="26"/>
       <c r="E892" s="11"/>
     </row>
     <row r="893" ht="13.65" customHeight="1">
       <c r="A893" s="11"/>
       <c r="B893" s="11"/>
       <c r="C893" s="11"/>
-      <c r="D893" s="14"/>
+      <c r="D893" s="26"/>
       <c r="E893" s="11"/>
     </row>
     <row r="894" ht="13.65" customHeight="1">
       <c r="A894" s="11"/>
       <c r="B894" s="11"/>
       <c r="C894" s="11"/>
-      <c r="D894" s="14"/>
+      <c r="D894" s="26"/>
       <c r="E894" s="11"/>
     </row>
     <row r="895" ht="13.65" customHeight="1">
       <c r="A895" s="11"/>
       <c r="B895" s="11"/>
       <c r="C895" s="11"/>
-      <c r="D895" s="14"/>
+      <c r="D895" s="26"/>
       <c r="E895" s="11"/>
     </row>
     <row r="896" ht="13.65" customHeight="1">
       <c r="A896" s="11"/>
       <c r="B896" s="11"/>
       <c r="C896" s="11"/>
-      <c r="D896" s="14"/>
+      <c r="D896" s="26"/>
       <c r="E896" s="11"/>
     </row>
     <row r="897" ht="13.65" customHeight="1">
       <c r="A897" s="11"/>
       <c r="B897" s="11"/>
       <c r="C897" s="11"/>
-      <c r="D897" s="14"/>
+      <c r="D897" s="26"/>
       <c r="E897" s="11"/>
     </row>
     <row r="898" ht="13.65" customHeight="1">
       <c r="A898" s="11"/>
       <c r="B898" s="11"/>
       <c r="C898" s="11"/>
-      <c r="D898" s="14"/>
+      <c r="D898" s="26"/>
       <c r="E898" s="11"/>
     </row>
     <row r="899" ht="13.65" customHeight="1">
       <c r="A899" s="11"/>
       <c r="B899" s="11"/>
       <c r="C899" s="11"/>
-      <c r="D899" s="14"/>
+      <c r="D899" s="26"/>
       <c r="E899" s="11"/>
     </row>
     <row r="900" ht="13.65" customHeight="1">
       <c r="A900" s="11"/>
       <c r="B900" s="11"/>
       <c r="C900" s="11"/>
-      <c r="D900" s="14"/>
+      <c r="D900" s="26"/>
       <c r="E900" s="11"/>
     </row>
     <row r="901" ht="13.65" customHeight="1">
       <c r="A901" s="11"/>
       <c r="B901" s="11"/>
       <c r="C901" s="11"/>
-      <c r="D901" s="14"/>
+      <c r="D901" s="26"/>
       <c r="E901" s="11"/>
     </row>
     <row r="902" ht="13.65" customHeight="1">
       <c r="A902" s="11"/>
       <c r="B902" s="11"/>
       <c r="C902" s="11"/>
-      <c r="D902" s="14"/>
+      <c r="D902" s="26"/>
       <c r="E902" s="11"/>
     </row>
     <row r="903" ht="13.65" customHeight="1">
       <c r="A903" s="11"/>
       <c r="B903" s="11"/>
       <c r="C903" s="11"/>
-      <c r="D903" s="14"/>
+      <c r="D903" s="26"/>
       <c r="E903" s="11"/>
     </row>
     <row r="904" ht="13.65" customHeight="1">
       <c r="A904" s="11"/>
       <c r="B904" s="11"/>
       <c r="C904" s="11"/>
-      <c r="D904" s="14"/>
+      <c r="D904" s="26"/>
       <c r="E904" s="11"/>
     </row>
     <row r="905" ht="13.65" customHeight="1">
       <c r="A905" s="11"/>
       <c r="B905" s="11"/>
       <c r="C905" s="11"/>
-      <c r="D905" s="14"/>
+      <c r="D905" s="26"/>
       <c r="E905" s="11"/>
     </row>
     <row r="906" ht="13.65" customHeight="1">
       <c r="A906" s="11"/>
       <c r="B906" s="11"/>
       <c r="C906" s="11"/>
-      <c r="D906" s="14"/>
+      <c r="D906" s="26"/>
       <c r="E906" s="11"/>
     </row>
     <row r="907" ht="13.65" customHeight="1">
       <c r="A907" s="11"/>
       <c r="B907" s="11"/>
       <c r="C907" s="11"/>
-      <c r="D907" s="14"/>
+      <c r="D907" s="26"/>
       <c r="E907" s="11"/>
     </row>
     <row r="908" ht="13.65" customHeight="1">
       <c r="A908" s="11"/>
       <c r="B908" s="11"/>
       <c r="C908" s="11"/>
-      <c r="D908" s="14"/>
+      <c r="D908" s="26"/>
       <c r="E908" s="11"/>
     </row>
     <row r="909" ht="13.65" customHeight="1">
       <c r="A909" s="11"/>
       <c r="B909" s="11"/>
       <c r="C909" s="11"/>
-      <c r="D909" s="14"/>
+      <c r="D909" s="26"/>
       <c r="E909" s="11"/>
     </row>
     <row r="910" ht="13.65" customHeight="1">
       <c r="A910" s="11"/>
       <c r="B910" s="11"/>
       <c r="C910" s="11"/>
-      <c r="D910" s="14"/>
+      <c r="D910" s="26"/>
       <c r="E910" s="11"/>
     </row>
     <row r="911" ht="13.65" customHeight="1">
       <c r="A911" s="11"/>
       <c r="B911" s="11"/>
       <c r="C911" s="11"/>
-      <c r="D911" s="14"/>
+      <c r="D911" s="26"/>
       <c r="E911" s="11"/>
     </row>
     <row r="912" ht="13.65" customHeight="1">
       <c r="A912" s="11"/>
       <c r="B912" s="11"/>
       <c r="C912" s="11"/>
-      <c r="D912" s="14"/>
+      <c r="D912" s="26"/>
       <c r="E912" s="11"/>
     </row>
     <row r="913" ht="13.65" customHeight="1">
       <c r="A913" s="11"/>
       <c r="B913" s="11"/>
       <c r="C913" s="11"/>
-      <c r="D913" s="14"/>
+      <c r="D913" s="26"/>
       <c r="E913" s="11"/>
     </row>
     <row r="914" ht="13.65" customHeight="1">
       <c r="A914" s="11"/>
       <c r="B914" s="11"/>
       <c r="C914" s="11"/>
-      <c r="D914" s="14"/>
+      <c r="D914" s="26"/>
       <c r="E914" s="11"/>
     </row>
     <row r="915" ht="13.65" customHeight="1">
       <c r="A915" s="11"/>
       <c r="B915" s="11"/>
       <c r="C915" s="11"/>
-      <c r="D915" s="14"/>
+      <c r="D915" s="26"/>
       <c r="E915" s="11"/>
     </row>
     <row r="916" ht="13.65" customHeight="1">
       <c r="A916" s="11"/>
       <c r="B916" s="11"/>
       <c r="C916" s="11"/>
-      <c r="D916" s="14"/>
+      <c r="D916" s="26"/>
       <c r="E916" s="11"/>
     </row>
     <row r="917" ht="13.65" customHeight="1">
       <c r="A917" s="11"/>
       <c r="B917" s="11"/>
       <c r="C917" s="11"/>
-      <c r="D917" s="14"/>
+      <c r="D917" s="26"/>
       <c r="E917" s="11"/>
     </row>
     <row r="918" ht="13.65" customHeight="1">
       <c r="A918" s="11"/>
       <c r="B918" s="11"/>
       <c r="C918" s="11"/>
-      <c r="D918" s="14"/>
+      <c r="D918" s="26"/>
       <c r="E918" s="11"/>
     </row>
     <row r="919" ht="13.65" customHeight="1">
       <c r="A919" s="11"/>
       <c r="B919" s="11"/>
       <c r="C919" s="11"/>
-      <c r="D919" s="14"/>
+      <c r="D919" s="26"/>
       <c r="E919" s="11"/>
     </row>
     <row r="920" ht="13.65" customHeight="1">
       <c r="A920" s="11"/>
       <c r="B920" s="11"/>
       <c r="C920" s="11"/>
-      <c r="D920" s="14"/>
+      <c r="D920" s="26"/>
       <c r="E920" s="11"/>
     </row>
     <row r="921" ht="13.65" customHeight="1">
       <c r="A921" s="11"/>
       <c r="B921" s="11"/>
       <c r="C921" s="11"/>
-      <c r="D921" s="14"/>
+      <c r="D921" s="26"/>
       <c r="E921" s="11"/>
     </row>
     <row r="922" ht="13.65" customHeight="1">
       <c r="A922" s="11"/>
       <c r="B922" s="11"/>
       <c r="C922" s="11"/>
-      <c r="D922" s="14"/>
+      <c r="D922" s="26"/>
       <c r="E922" s="11"/>
     </row>
     <row r="923" ht="13.65" customHeight="1">
       <c r="A923" s="11"/>
       <c r="B923" s="11"/>
       <c r="C923" s="11"/>
-      <c r="D923" s="14"/>
+      <c r="D923" s="26"/>
       <c r="E923" s="11"/>
     </row>
     <row r="924" ht="13.65" customHeight="1">
       <c r="A924" s="11"/>
       <c r="B924" s="11"/>
       <c r="C924" s="11"/>
-      <c r="D924" s="14"/>
+      <c r="D924" s="26"/>
       <c r="E924" s="11"/>
     </row>
     <row r="925" ht="13.65" customHeight="1">
       <c r="A925" s="11"/>
       <c r="B925" s="11"/>
       <c r="C925" s="11"/>
-      <c r="D925" s="14"/>
+      <c r="D925" s="26"/>
       <c r="E925" s="11"/>
     </row>
     <row r="926" ht="13.65" customHeight="1">
       <c r="A926" s="11"/>
       <c r="B926" s="11"/>
       <c r="C926" s="11"/>
-      <c r="D926" s="14"/>
+      <c r="D926" s="26"/>
       <c r="E926" s="11"/>
     </row>
     <row r="927" ht="13.65" customHeight="1">
       <c r="A927" s="11"/>
       <c r="B927" s="11"/>
       <c r="C927" s="11"/>
-      <c r="D927" s="14"/>
+      <c r="D927" s="26"/>
       <c r="E927" s="11"/>
     </row>
     <row r="928" ht="13.65" customHeight="1">
       <c r="A928" s="11"/>
       <c r="B928" s="11"/>
       <c r="C928" s="11"/>
-      <c r="D928" s="14"/>
+      <c r="D928" s="26"/>
       <c r="E928" s="11"/>
     </row>
     <row r="929" ht="13.65" customHeight="1">
       <c r="A929" s="11"/>
       <c r="B929" s="11"/>
       <c r="C929" s="11"/>
-      <c r="D929" s="14"/>
+      <c r="D929" s="26"/>
       <c r="E929" s="11"/>
     </row>
     <row r="930" ht="13.65" customHeight="1">
       <c r="A930" s="11"/>
       <c r="B930" s="11"/>
       <c r="C930" s="11"/>
-      <c r="D930" s="14"/>
+      <c r="D930" s="26"/>
       <c r="E930" s="11"/>
     </row>
     <row r="931" ht="13.65" customHeight="1">
       <c r="A931" s="11"/>
       <c r="B931" s="11"/>
       <c r="C931" s="11"/>
-      <c r="D931" s="14"/>
+      <c r="D931" s="26"/>
       <c r="E931" s="11"/>
     </row>
     <row r="932" ht="13.65" customHeight="1">
       <c r="A932" s="11"/>
       <c r="B932" s="11"/>
       <c r="C932" s="11"/>
-      <c r="D932" s="14"/>
+      <c r="D932" s="26"/>
       <c r="E932" s="11"/>
     </row>
     <row r="933" ht="13.65" customHeight="1">
       <c r="A933" s="11"/>
       <c r="B933" s="11"/>
       <c r="C933" s="11"/>
-      <c r="D933" s="14"/>
+      <c r="D933" s="26"/>
       <c r="E933" s="11"/>
     </row>
     <row r="934" ht="13.65" customHeight="1">
       <c r="A934" s="11"/>
       <c r="B934" s="11"/>
       <c r="C934" s="11"/>
-      <c r="D934" s="14"/>
+      <c r="D934" s="26"/>
       <c r="E934" s="11"/>
     </row>
     <row r="935" ht="13.65" customHeight="1">
       <c r="A935" s="11"/>
       <c r="B935" s="11"/>
       <c r="C935" s="11"/>
-      <c r="D935" s="14"/>
+      <c r="D935" s="26"/>
       <c r="E935" s="11"/>
     </row>
     <row r="936" ht="13.65" customHeight="1">
       <c r="A936" s="11"/>
       <c r="B936" s="11"/>
       <c r="C936" s="11"/>
-      <c r="D936" s="14"/>
+      <c r="D936" s="26"/>
       <c r="E936" s="11"/>
     </row>
     <row r="937" ht="13.65" customHeight="1">
       <c r="A937" s="11"/>
       <c r="B937" s="11"/>
       <c r="C937" s="11"/>
-      <c r="D937" s="14"/>
+      <c r="D937" s="26"/>
       <c r="E937" s="11"/>
     </row>
     <row r="938" ht="13.65" customHeight="1">
       <c r="A938" s="11"/>
       <c r="B938" s="11"/>
       <c r="C938" s="11"/>
-      <c r="D938" s="14"/>
+      <c r="D938" s="26"/>
       <c r="E938" s="11"/>
     </row>
     <row r="939" ht="13.65" customHeight="1">
       <c r="A939" s="11"/>
       <c r="B939" s="11"/>
       <c r="C939" s="11"/>
-      <c r="D939" s="14"/>
+      <c r="D939" s="26"/>
       <c r="E939" s="11"/>
     </row>
     <row r="940" ht="13.65" customHeight="1">
       <c r="A940" s="11"/>
       <c r="B940" s="11"/>
       <c r="C940" s="11"/>
-      <c r="D940" s="14"/>
+      <c r="D940" s="26"/>
       <c r="E940" s="11"/>
     </row>
     <row r="941" ht="13.65" customHeight="1">
       <c r="A941" s="11"/>
       <c r="B941" s="11"/>
       <c r="C941" s="11"/>
-      <c r="D941" s="14"/>
+      <c r="D941" s="26"/>
       <c r="E941" s="11"/>
     </row>
     <row r="942" ht="13.65" customHeight="1">
       <c r="A942" s="11"/>
       <c r="B942" s="11"/>
       <c r="C942" s="11"/>
-      <c r="D942" s="14"/>
+      <c r="D942" s="26"/>
       <c r="E942" s="11"/>
     </row>
     <row r="943" ht="13.65" customHeight="1">
       <c r="A943" s="11"/>
       <c r="B943" s="11"/>
       <c r="C943" s="11"/>
-      <c r="D943" s="14"/>
+      <c r="D943" s="26"/>
       <c r="E943" s="11"/>
     </row>
     <row r="944" ht="13.65" customHeight="1">
       <c r="A944" s="11"/>
       <c r="B944" s="11"/>
       <c r="C944" s="11"/>
-      <c r="D944" s="14"/>
+      <c r="D944" s="26"/>
       <c r="E944" s="11"/>
     </row>
     <row r="945" ht="13.65" customHeight="1">
       <c r="A945" s="11"/>
       <c r="B945" s="11"/>
       <c r="C945" s="11"/>
-      <c r="D945" s="14"/>
+      <c r="D945" s="26"/>
       <c r="E945" s="11"/>
     </row>
     <row r="946" ht="13.65" customHeight="1">
       <c r="A946" s="11"/>
       <c r="B946" s="11"/>
       <c r="C946" s="11"/>
-      <c r="D946" s="14"/>
+      <c r="D946" s="26"/>
       <c r="E946" s="11"/>
     </row>
     <row r="947" ht="13.65" customHeight="1">
       <c r="A947" s="11"/>
       <c r="B947" s="11"/>
       <c r="C947" s="11"/>
-      <c r="D947" s="14"/>
+      <c r="D947" s="26"/>
       <c r="E947" s="11"/>
     </row>
     <row r="948" ht="13.65" customHeight="1">
       <c r="A948" s="11"/>
       <c r="B948" s="11"/>
       <c r="C948" s="11"/>
-      <c r="D948" s="14"/>
+      <c r="D948" s="26"/>
       <c r="E948" s="11"/>
     </row>
     <row r="949" ht="13.65" customHeight="1">
       <c r="A949" s="11"/>
       <c r="B949" s="11"/>
       <c r="C949" s="11"/>
-      <c r="D949" s="14"/>
+      <c r="D949" s="26"/>
       <c r="E949" s="11"/>
     </row>
     <row r="950" ht="13.65" customHeight="1">
       <c r="A950" s="11"/>
       <c r="B950" s="11"/>
       <c r="C950" s="11"/>
-      <c r="D950" s="14"/>
+      <c r="D950" s="26"/>
       <c r="E950" s="11"/>
     </row>
     <row r="951" ht="13.65" customHeight="1">
       <c r="A951" s="11"/>
       <c r="B951" s="11"/>
       <c r="C951" s="11"/>
-      <c r="D951" s="14"/>
+      <c r="D951" s="26"/>
       <c r="E951" s="11"/>
     </row>
     <row r="952" ht="13.65" customHeight="1">
       <c r="A952" s="11"/>
       <c r="B952" s="11"/>
       <c r="C952" s="11"/>
-      <c r="D952" s="14"/>
+      <c r="D952" s="26"/>
       <c r="E952" s="11"/>
     </row>
     <row r="953" ht="13.65" customHeight="1">
       <c r="A953" s="11"/>
       <c r="B953" s="11"/>
       <c r="C953" s="11"/>
-      <c r="D953" s="14"/>
+      <c r="D953" s="26"/>
       <c r="E953" s="11"/>
     </row>
     <row r="954" ht="13.65" customHeight="1">
       <c r="A954" s="11"/>
       <c r="B954" s="11"/>
       <c r="C954" s="11"/>
-      <c r="D954" s="14"/>
+      <c r="D954" s="26"/>
       <c r="E954" s="11"/>
     </row>
     <row r="955" ht="13.65" customHeight="1">
       <c r="A955" s="11"/>
       <c r="B955" s="11"/>
       <c r="C955" s="11"/>
-      <c r="D955" s="14"/>
+      <c r="D955" s="26"/>
       <c r="E955" s="11"/>
     </row>
     <row r="956" ht="13.65" customHeight="1">
       <c r="A956" s="11"/>
       <c r="B956" s="11"/>
       <c r="C956" s="11"/>
-      <c r="D956" s="14"/>
+      <c r="D956" s="26"/>
       <c r="E956" s="11"/>
     </row>
     <row r="957" ht="13.65" customHeight="1">
       <c r="A957" s="11"/>
       <c r="B957" s="11"/>
       <c r="C957" s="11"/>
-      <c r="D957" s="14"/>
+      <c r="D957" s="26"/>
       <c r="E957" s="11"/>
     </row>
     <row r="958" ht="13.65" customHeight="1">
       <c r="A958" s="11"/>
       <c r="B958" s="11"/>
       <c r="C958" s="11"/>
-      <c r="D958" s="14"/>
+      <c r="D958" s="26"/>
       <c r="E958" s="11"/>
     </row>
     <row r="959" ht="13.65" customHeight="1">
       <c r="A959" s="11"/>
       <c r="B959" s="11"/>
       <c r="C959" s="11"/>
-      <c r="D959" s="14"/>
+      <c r="D959" s="26"/>
       <c r="E959" s="11"/>
     </row>
     <row r="960" ht="13.65" customHeight="1">
       <c r="A960" s="11"/>
       <c r="B960" s="11"/>
       <c r="C960" s="11"/>
-      <c r="D960" s="14"/>
+      <c r="D960" s="26"/>
       <c r="E960" s="11"/>
     </row>
     <row r="961" ht="13.65" customHeight="1">
       <c r="A961" s="11"/>
       <c r="B961" s="11"/>
       <c r="C961" s="11"/>
-      <c r="D961" s="14"/>
+      <c r="D961" s="26"/>
       <c r="E961" s="11"/>
     </row>
     <row r="962" ht="13.65" customHeight="1">
       <c r="A962" s="11"/>
       <c r="B962" s="11"/>
       <c r="C962" s="11"/>
-      <c r="D962" s="14"/>
+      <c r="D962" s="26"/>
       <c r="E962" s="11"/>
     </row>
     <row r="963" ht="13.65" customHeight="1">
       <c r="A963" s="11"/>
       <c r="B963" s="11"/>
       <c r="C963" s="11"/>
-      <c r="D963" s="14"/>
+      <c r="D963" s="26"/>
       <c r="E963" s="11"/>
     </row>
     <row r="964" ht="13.65" customHeight="1">
       <c r="A964" s="11"/>
       <c r="B964" s="11"/>
       <c r="C964" s="11"/>
-      <c r="D964" s="14"/>
+      <c r="D964" s="26"/>
       <c r="E964" s="11"/>
     </row>
     <row r="965" ht="13.65" customHeight="1">
       <c r="A965" s="11"/>
       <c r="B965" s="11"/>
       <c r="C965" s="11"/>
-      <c r="D965" s="14"/>
+      <c r="D965" s="26"/>
       <c r="E965" s="11"/>
     </row>
     <row r="966" ht="13.65" customHeight="1">
       <c r="A966" s="11"/>
       <c r="B966" s="11"/>
       <c r="C966" s="11"/>
-      <c r="D966" s="14"/>
+      <c r="D966" s="26"/>
       <c r="E966" s="11"/>
     </row>
     <row r="967" ht="13.65" customHeight="1">
       <c r="A967" s="11"/>
       <c r="B967" s="11"/>
       <c r="C967" s="11"/>
-      <c r="D967" s="14"/>
+      <c r="D967" s="26"/>
       <c r="E967" s="11"/>
     </row>
     <row r="968" ht="13.65" customHeight="1">
       <c r="A968" s="11"/>
       <c r="B968" s="11"/>
       <c r="C968" s="11"/>
-      <c r="D968" s="14"/>
+      <c r="D968" s="26"/>
       <c r="E968" s="11"/>
     </row>
     <row r="969" ht="13.65" customHeight="1">
       <c r="A969" s="11"/>
       <c r="B969" s="11"/>
       <c r="C969" s="11"/>
-      <c r="D969" s="14"/>
+      <c r="D969" s="26"/>
       <c r="E969" s="11"/>
     </row>
     <row r="970" ht="13.65" customHeight="1">
       <c r="A970" s="11"/>
       <c r="B970" s="11"/>
       <c r="C970" s="11"/>
-      <c r="D970" s="14"/>
+      <c r="D970" s="26"/>
       <c r="E970" s="11"/>
     </row>
     <row r="971" ht="13.65" customHeight="1">
       <c r="A971" s="11"/>
       <c r="B971" s="11"/>
       <c r="C971" s="11"/>
-      <c r="D971" s="14"/>
+      <c r="D971" s="26"/>
       <c r="E971" s="11"/>
     </row>
     <row r="972" ht="13.65" customHeight="1">
       <c r="A972" s="11"/>
       <c r="B972" s="11"/>
       <c r="C972" s="11"/>
-      <c r="D972" s="14"/>
+      <c r="D972" s="26"/>
       <c r="E972" s="11"/>
     </row>
     <row r="973" ht="13.65" customHeight="1">
       <c r="A973" s="11"/>
       <c r="B973" s="11"/>
       <c r="C973" s="11"/>
-      <c r="D973" s="14"/>
+      <c r="D973" s="26"/>
       <c r="E973" s="11"/>
     </row>
     <row r="974" ht="13.65" customHeight="1">
       <c r="A974" s="11"/>
       <c r="B974" s="11"/>
       <c r="C974" s="11"/>
-      <c r="D974" s="14"/>
+      <c r="D974" s="26"/>
       <c r="E974" s="11"/>
     </row>
     <row r="975" ht="13.65" customHeight="1">
       <c r="A975" s="11"/>
       <c r="B975" s="11"/>
       <c r="C975" s="11"/>
-      <c r="D975" s="14"/>
+      <c r="D975" s="26"/>
       <c r="E975" s="11"/>
     </row>
     <row r="976" ht="13.65" customHeight="1">
       <c r="A976" s="11"/>
       <c r="B976" s="11"/>
       <c r="C976" s="11"/>
-      <c r="D976" s="14"/>
+      <c r="D976" s="26"/>
       <c r="E976" s="11"/>
     </row>
     <row r="977" ht="13.65" customHeight="1">
       <c r="A977" s="11"/>
       <c r="B977" s="11"/>
       <c r="C977" s="11"/>
-      <c r="D977" s="14"/>
+      <c r="D977" s="26"/>
       <c r="E977" s="11"/>
     </row>
     <row r="978" ht="13.65" customHeight="1">
       <c r="A978" s="11"/>
       <c r="B978" s="11"/>
       <c r="C978" s="11"/>
-      <c r="D978" s="14"/>
+      <c r="D978" s="26"/>
       <c r="E978" s="11"/>
     </row>
     <row r="979" ht="13.65" customHeight="1">
       <c r="A979" s="11"/>
       <c r="B979" s="11"/>
       <c r="C979" s="11"/>
-      <c r="D979" s="14"/>
+      <c r="D979" s="26"/>
       <c r="E979" s="11"/>
     </row>
     <row r="980" ht="13.65" customHeight="1">
       <c r="A980" s="11"/>
       <c r="B980" s="11"/>
       <c r="C980" s="11"/>
-      <c r="D980" s="14"/>
+      <c r="D980" s="26"/>
       <c r="E980" s="11"/>
     </row>
     <row r="981" ht="13.65" customHeight="1">
       <c r="A981" s="11"/>
       <c r="B981" s="11"/>
       <c r="C981" s="11"/>
-      <c r="D981" s="14"/>
+      <c r="D981" s="26"/>
       <c r="E981" s="11"/>
     </row>
     <row r="982" ht="13.65" customHeight="1">
       <c r="A982" s="11"/>
       <c r="B982" s="11"/>
       <c r="C982" s="11"/>
-      <c r="D982" s="14"/>
+      <c r="D982" s="26"/>
       <c r="E982" s="11"/>
     </row>
     <row r="983" ht="13.65" customHeight="1">
       <c r="A983" s="11"/>
       <c r="B983" s="11"/>
       <c r="C983" s="11"/>
-      <c r="D983" s="14"/>
+      <c r="D983" s="26"/>
       <c r="E983" s="11"/>
     </row>
     <row r="984" ht="13.65" customHeight="1">
       <c r="A984" s="11"/>
       <c r="B984" s="11"/>
       <c r="C984" s="11"/>
-      <c r="D984" s="14"/>
+      <c r="D984" s="26"/>
       <c r="E984" s="11"/>
     </row>
     <row r="985" ht="13.65" customHeight="1">
       <c r="A985" s="11"/>
       <c r="B985" s="11"/>
       <c r="C985" s="11"/>
-      <c r="D985" s="14"/>
+      <c r="D985" s="26"/>
       <c r="E985" s="11"/>
     </row>
     <row r="986" ht="13.65" customHeight="1">
       <c r="A986" s="11"/>
       <c r="B986" s="11"/>
       <c r="C986" s="11"/>
-      <c r="D986" s="14"/>
+      <c r="D986" s="26"/>
       <c r="E986" s="11"/>
     </row>
     <row r="987" ht="13.65" customHeight="1">
       <c r="A987" s="11"/>
       <c r="B987" s="11"/>
       <c r="C987" s="11"/>
-      <c r="D987" s="14"/>
+      <c r="D987" s="26"/>
       <c r="E987" s="11"/>
     </row>
     <row r="988" ht="13.65" customHeight="1">
       <c r="A988" s="11"/>
       <c r="B988" s="11"/>
       <c r="C988" s="11"/>
-      <c r="D988" s="14"/>
+      <c r="D988" s="26"/>
       <c r="E988" s="11"/>
     </row>
     <row r="989" ht="13.65" customHeight="1">
       <c r="A989" s="11"/>
       <c r="B989" s="11"/>
       <c r="C989" s="11"/>
-      <c r="D989" s="14"/>
+      <c r="D989" s="26"/>
       <c r="E989" s="11"/>
     </row>
     <row r="990" ht="13.65" customHeight="1">
       <c r="A990" s="11"/>
       <c r="B990" s="11"/>
       <c r="C990" s="11"/>
-      <c r="D990" s="14"/>
+      <c r="D990" s="26"/>
       <c r="E990" s="11"/>
     </row>
     <row r="991" ht="13.65" customHeight="1">
       <c r="A991" s="11"/>
       <c r="B991" s="11"/>
       <c r="C991" s="11"/>
-      <c r="D991" s="14"/>
+      <c r="D991" s="26"/>
       <c r="E991" s="11"/>
     </row>
     <row r="992" ht="13.65" customHeight="1">
       <c r="A992" s="11"/>
       <c r="B992" s="11"/>
       <c r="C992" s="11"/>
-      <c r="D992" s="14"/>
+      <c r="D992" s="26"/>
       <c r="E992" s="11"/>
     </row>
     <row r="993" ht="13.65" customHeight="1">
       <c r="A993" s="11"/>
       <c r="B993" s="11"/>
       <c r="C993" s="11"/>
-      <c r="D993" s="14"/>
+      <c r="D993" s="26"/>
       <c r="E993" s="11"/>
     </row>
     <row r="994" ht="13.65" customHeight="1">
       <c r="A994" s="11"/>
       <c r="B994" s="11"/>
       <c r="C994" s="11"/>
-      <c r="D994" s="14"/>
+      <c r="D994" s="26"/>
       <c r="E994" s="11"/>
     </row>
     <row r="995" ht="13.65" customHeight="1">
       <c r="A995" s="11"/>
       <c r="B995" s="11"/>
       <c r="C995" s="11"/>
-      <c r="D995" s="14"/>
+      <c r="D995" s="26"/>
       <c r="E995" s="11"/>
     </row>
     <row r="996" ht="13.65" customHeight="1">
       <c r="A996" s="11"/>
       <c r="B996" s="11"/>
       <c r="C996" s="11"/>
-      <c r="D996" s="14"/>
+      <c r="D996" s="26"/>
       <c r="E996" s="11"/>
     </row>
     <row r="997" ht="13.65" customHeight="1">
       <c r="A997" s="11"/>
       <c r="B997" s="11"/>
       <c r="C997" s="11"/>
-      <c r="D997" s="14"/>
+      <c r="D997" s="26"/>
       <c r="E997" s="11"/>
     </row>
     <row r="998" ht="13.65" customHeight="1">
       <c r="A998" s="11"/>
       <c r="B998" s="11"/>
       <c r="C998" s="11"/>
-      <c r="D998" s="14"/>
+      <c r="D998" s="26"/>
       <c r="E998" s="11"/>
     </row>
     <row r="999" ht="13.65" customHeight="1">
       <c r="A999" s="11"/>
       <c r="B999" s="11"/>
       <c r="C999" s="11"/>
-      <c r="D999" s="14"/>
+      <c r="D999" s="26"/>
       <c r="E999" s="11"/>
     </row>
     <row r="1000" ht="13.65" customHeight="1">
       <c r="A1000" s="11"/>
       <c r="B1000" s="11"/>
       <c r="C1000" s="11"/>
-      <c r="D1000" s="14"/>
+      <c r="D1000" s="26"/>
       <c r="E1000" s="11"/>
     </row>
     <row r="1001" ht="13.65" customHeight="1">
       <c r="A1001" s="11"/>
       <c r="B1001" s="11"/>
       <c r="C1001" s="11"/>
-      <c r="D1001" s="14"/>
+      <c r="D1001" s="26"/>
       <c r="E1001" s="11"/>
     </row>
     <row r="1002" ht="13.65" customHeight="1">
       <c r="A1002" s="11"/>
       <c r="B1002" s="11"/>
       <c r="C1002" s="11"/>
-      <c r="D1002" s="14"/>
+      <c r="D1002" s="26"/>
       <c r="E1002" s="11"/>
     </row>
     <row r="1003" ht="13.65" customHeight="1">
       <c r="A1003" s="11"/>
       <c r="B1003" s="11"/>
       <c r="C1003" s="11"/>
-      <c r="D1003" s="14"/>
+      <c r="D1003" s="26"/>
       <c r="E1003" s="11"/>
     </row>
     <row r="1004" ht="13.65" customHeight="1">
       <c r="A1004" s="11"/>
       <c r="B1004" s="11"/>
       <c r="C1004" s="11"/>
-      <c r="D1004" s="14"/>
+      <c r="D1004" s="26"/>
       <c r="E1004" s="11"/>
     </row>
     <row r="1005" ht="13.65" customHeight="1">
       <c r="A1005" s="11"/>
       <c r="B1005" s="11"/>
       <c r="C1005" s="11"/>
-      <c r="D1005" s="14"/>
+      <c r="D1005" s="26"/>
       <c r="E1005" s="11"/>
     </row>
     <row r="1006" ht="13.65" customHeight="1">
       <c r="A1006" s="11"/>
       <c r="B1006" s="11"/>
       <c r="C1006" s="11"/>
-      <c r="D1006" s="14"/>
+      <c r="D1006" s="26"/>
       <c r="E1006" s="11"/>
     </row>
     <row r="1007" ht="13.65" customHeight="1">
       <c r="A1007" s="11"/>
       <c r="B1007" s="11"/>
       <c r="C1007" s="11"/>
-      <c r="D1007" s="14"/>
+      <c r="D1007" s="26"/>
       <c r="E1007" s="11"/>
     </row>
     <row r="1008" ht="13.65" customHeight="1">
       <c r="A1008" s="11"/>
       <c r="B1008" s="11"/>
       <c r="C1008" s="11"/>
-      <c r="D1008" s="14"/>
+      <c r="D1008" s="26"/>
       <c r="E1008" s="11"/>
     </row>
     <row r="1009" ht="13.65" customHeight="1">
       <c r="A1009" s="11"/>
       <c r="B1009" s="11"/>
       <c r="C1009" s="11"/>
-      <c r="D1009" s="14"/>
+      <c r="D1009" s="26"/>
       <c r="E1009" s="11"/>
     </row>
     <row r="1010" ht="13.65" customHeight="1">
       <c r="A1010" s="11"/>
       <c r="B1010" s="11"/>
       <c r="C1010" s="11"/>
-      <c r="D1010" s="14"/>
+      <c r="D1010" s="26"/>
       <c r="E1010" s="11"/>
     </row>
     <row r="1011" ht="13.65" customHeight="1">
       <c r="A1011" s="11"/>
       <c r="B1011" s="11"/>
       <c r="C1011" s="11"/>
-      <c r="D1011" s="14"/>
+      <c r="D1011" s="26"/>
       <c r="E1011" s="11"/>
     </row>
     <row r="1012" ht="13.65" customHeight="1">
       <c r="A1012" s="11"/>
       <c r="B1012" s="11"/>
       <c r="C1012" s="11"/>
-      <c r="D1012" s="14"/>
+      <c r="D1012" s="26"/>
       <c r="E1012" s="11"/>
     </row>
     <row r="1013" ht="13.65" customHeight="1">
       <c r="A1013" s="11"/>
       <c r="B1013" s="11"/>
       <c r="C1013" s="11"/>
-      <c r="D1013" s="14"/>
+      <c r="D1013" s="26"/>
       <c r="E1013" s="11"/>
     </row>
     <row r="1014" ht="13.65" customHeight="1">
       <c r="A1014" s="11"/>
       <c r="B1014" s="11"/>
       <c r="C1014" s="11"/>
-      <c r="D1014" s="14"/>
+      <c r="D1014" s="26"/>
       <c r="E1014" s="11"/>
     </row>
     <row r="1015" ht="13.65" customHeight="1">
       <c r="A1015" s="11"/>
       <c r="B1015" s="11"/>
       <c r="C1015" s="11"/>
-      <c r="D1015" s="14"/>
+      <c r="D1015" s="26"/>
       <c r="E1015" s="11"/>
     </row>
     <row r="1016" ht="13.65" customHeight="1">
       <c r="A1016" s="11"/>
       <c r="B1016" s="11"/>
       <c r="C1016" s="11"/>
-      <c r="D1016" s="14"/>
+      <c r="D1016" s="26"/>
       <c r="E1016" s="11"/>
     </row>
   </sheetData>
@@ -11722,12 +11848,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.85156" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.3516" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="39.6719" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.85156" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.3516" style="27" customWidth="1"/>
+    <col min="3" max="3" width="12.3516" style="27" customWidth="1"/>
+    <col min="4" max="4" width="39.6719" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.6719" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -12240,11 +12366,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.85156" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.8516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="20" style="16" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6.85156" style="28" customWidth="1"/>
+    <col min="2" max="2" width="17.8516" style="28" customWidth="1"/>
+    <col min="3" max="3" width="20" style="28" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -13090,11 +13216,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.35156" style="17" customWidth="1"/>
-    <col min="2" max="2" width="17.6719" style="17" customWidth="1"/>
-    <col min="3" max="3" width="21.1719" style="17" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.35156" style="29" customWidth="1"/>
+    <col min="2" max="2" width="17.6719" style="29" customWidth="1"/>
+    <col min="3" max="3" width="21.1719" style="29" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
